--- a/Jogos_da_Semana_FlashScore_2024-12-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-14.xlsx
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H3" t="n">
         <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
         <v>1.73</v>
@@ -1130,7 +1130,7 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O4" t="n">
         <v>1.14</v>
@@ -1172,7 +1172,7 @@
         <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
         <v>21</v>
@@ -1220,7 +1220,7 @@
         <v>34</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="n">
         <v>4</v>
@@ -1238,13 +1238,13 @@
         <v>41</v>
       </c>
       <c r="AX4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY4" t="n">
         <v>151</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
         <v>501</v>
@@ -1503,10 +1503,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -2243,10 +2243,10 @@
         <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>17</v>
@@ -2282,7 +2282,7 @@
         <v>8</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>8.5</v>
@@ -2294,7 +2294,7 @@
         <v>12</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>7</v>
@@ -2306,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="AP10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AQ10" t="n">
         <v>101</v>
@@ -2398,7 +2398,7 @@
         <v>2.63</v>
       </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -2413,10 +2413,10 @@
         <v>5.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S11" t="n">
         <v>1.25</v>
@@ -2434,7 +2434,7 @@
         <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
@@ -2446,7 +2446,7 @@
         <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
         <v>19</v>
@@ -4597,10 +4597,10 @@
         <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="R23" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S23" t="n">
         <v>1.44</v>
@@ -5852,7 +5852,7 @@
         <v>2.63</v>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
@@ -5936,7 +5936,7 @@
         <v>3.75</v>
       </c>
       <c r="AN30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO30" t="n">
         <v>15</v>
@@ -6383,46 +6383,46 @@
         </is>
       </c>
       <c r="G33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11</v>
+      </c>
+      <c r="I33" t="n">
+        <v>15</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>15</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N33" t="n">
+        <v>21</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S33" t="n">
         <v>1.22</v>
       </c>
-      <c r="H33" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L33" t="n">
-        <v>8</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N33" t="n">
-        <v>23</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P33" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.18</v>
-      </c>
       <c r="T33" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="U33" t="n">
         <v>1.75</v>
@@ -6431,94 +6431,94 @@
         <v>2</v>
       </c>
       <c r="W33" t="n">
+        <v>9</v>
+      </c>
+      <c r="X33" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y33" t="n">
         <v>12</v>
       </c>
-      <c r="X33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z33" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AA33" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="n">
         <v>21</v>
       </c>
-      <c r="AC33" t="n">
-        <v>23</v>
-      </c>
       <c r="AD33" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE33" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AF33" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AG33" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AH33" t="n">
         <v>67</v>
       </c>
       <c r="AI33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>301</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AQ33" t="n">
         <v>34</v>
       </c>
-      <c r="AJ33" t="n">
+      <c r="AR33" t="n">
         <v>151</v>
       </c>
-      <c r="AK33" t="n">
+      <c r="AS33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX33" t="n">
         <v>67</v>
       </c>
-      <c r="AL33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>34</v>
-      </c>
       <c r="AY33" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="AZ33" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BA33" t="n">
         <v>401</v>
@@ -6743,19 +6743,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="H35" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K35" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L35" t="n">
         <v>3</v>
@@ -6764,7 +6764,7 @@
         <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="O35" t="n">
         <v>1.36</v>
@@ -6779,10 +6779,10 @@
         <v>1.62</v>
       </c>
       <c r="S35" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T35" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="U35" t="n">
         <v>1.82</v>
@@ -6791,7 +6791,7 @@
         <v>1.78</v>
       </c>
       <c r="W35" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
@@ -6809,7 +6809,7 @@
         <v>37</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD35" t="n">
         <v>6.2</v>
@@ -6821,16 +6821,16 @@
         <v>80</v>
       </c>
       <c r="AG35" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AH35" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AI35" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK35" t="n">
         <v>21</v>
@@ -6839,7 +6839,7 @@
         <v>35</v>
       </c>
       <c r="AM35" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AN35" t="n">
         <v>15</v>
@@ -6854,10 +6854,10 @@
         <v>110</v>
       </c>
       <c r="AR35" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="AT35" t="n">
         <v>7.3</v>
@@ -6878,7 +6878,7 @@
         <v>55</v>
       </c>
       <c r="AZ35" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA35" t="inlineStr"/>
       <c r="BB35" t="inlineStr"/>
@@ -7649,13 +7649,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H40" t="n">
         <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J40" t="n">
         <v>3.1</v>
@@ -7673,16 +7673,16 @@
         <v>15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P40" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R40" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S40" t="n">
         <v>1.3</v>
@@ -7697,7 +7697,7 @@
         <v>2.38</v>
       </c>
       <c r="W40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X40" t="n">
         <v>15</v>
@@ -7718,7 +7718,7 @@
         <v>15</v>
       </c>
       <c r="AD40" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE40" t="n">
         <v>12</v>
@@ -7772,13 +7772,13 @@
         <v>41</v>
       </c>
       <c r="AV40" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AW40" t="n">
         <v>13</v>
       </c>
       <c r="AX40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY40" t="n">
         <v>41</v>
@@ -7831,97 +7831,97 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="H41" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="I41" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J41" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="K41" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L41" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M41" t="n">
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O41" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="P41" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="R41" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="T41" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="U41" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V41" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W41" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X41" t="n">
         <v>7.5</v>
       </c>
       <c r="Y41" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA41" t="n">
         <v>12</v>
       </c>
-      <c r="Z41" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>11</v>
-      </c>
       <c r="AB41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD41" t="n">
         <v>23</v>
       </c>
-      <c r="AD41" t="n">
-        <v>19</v>
-      </c>
       <c r="AE41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF41" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH41" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ41" t="n">
         <v>351</v>
       </c>
       <c r="AK41" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL41" t="n">
         <v>101</v>
@@ -7930,13 +7930,13 @@
         <v>3.4</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO41" t="n">
         <v>17</v>
       </c>
       <c r="AP41" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AQ41" t="n">
         <v>29</v>
@@ -7945,22 +7945,22 @@
         <v>101</v>
       </c>
       <c r="AS41" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AT41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU41" t="n">
         <v>67</v>
       </c>
       <c r="AV41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW41" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX41" t="n">
         <v>67</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>51</v>
       </c>
       <c r="AY41" t="n">
         <v>351</v>
@@ -8009,40 +8009,40 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H42" t="n">
         <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K42" t="n">
         <v>2.2</v>
       </c>
       <c r="L42" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O42" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P42" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R42" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S42" t="n">
         <v>1.4</v>
@@ -8051,10 +8051,10 @@
         <v>2.75</v>
       </c>
       <c r="U42" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V42" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W42" t="n">
         <v>11</v>
@@ -8072,25 +8072,25 @@
         <v>29</v>
       </c>
       <c r="AB42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD42" t="n">
         <v>6.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI42" t="n">
         <v>9</v>
@@ -8108,10 +8108,10 @@
         <v>5.5</v>
       </c>
       <c r="AN42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP42" t="n">
         <v>67</v>
@@ -8152,7 +8152,7 @@
         <v>151</v>
       </c>
       <c r="BD42" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43">
@@ -8187,22 +8187,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="H43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L43" t="n">
         <v>4</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.75</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -8211,16 +8211,16 @@
         <v>13</v>
       </c>
       <c r="O43" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P43" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R43" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S43" t="n">
         <v>1.33</v>
@@ -8235,91 +8235,91 @@
         <v>2.1</v>
       </c>
       <c r="W43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y43" t="n">
         <v>8.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC43" t="n">
         <v>13</v>
       </c>
       <c r="AD43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF43" t="n">
         <v>41</v>
       </c>
       <c r="AG43" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH43" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK43" t="n">
         <v>26</v>
       </c>
-      <c r="AI43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK43" t="n">
+      <c r="AL43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP43" t="n">
         <v>34</v>
       </c>
-      <c r="AL43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR43" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS43" t="n">
         <v>3.25</v>
       </c>
       <c r="AT43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AU43" t="n">
         <v>51</v>
       </c>
       <c r="AV43" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AW43" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AX43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY43" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AZ43" t="n">
         <v>81</v>
@@ -8365,94 +8365,94 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I44" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
         <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O44" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P44" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S44" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T44" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U44" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V44" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W44" t="n">
         <v>7.5</v>
       </c>
       <c r="X44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y44" t="n">
         <v>8.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB44" t="n">
         <v>23</v>
       </c>
       <c r="AC44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD44" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG44" t="n">
         <v>17</v>
       </c>
-      <c r="AF44" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>13</v>
-      </c>
       <c r="AH44" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AI44" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK44" t="n">
         <v>41</v>
@@ -8461,51 +8461,51 @@
         <v>41</v>
       </c>
       <c r="AM44" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AN44" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP44" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR44" t="n">
         <v>126</v>
       </c>
       <c r="AS44" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AT44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AU44" t="n">
         <v>51</v>
       </c>
       <c r="AV44" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AW44" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AX44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY44" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AZ44" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA44" t="inlineStr"/>
       <c r="BB44" t="inlineStr"/>
       <c r="BC44" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD44" t="n">
         <v>251</v>
@@ -8543,13 +8543,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="H45" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I45" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="J45" t="n">
         <v>6.5</v>
@@ -8567,40 +8567,40 @@
         <v>12</v>
       </c>
       <c r="O45" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P45" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S45" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T45" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U45" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V45" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W45" t="n">
         <v>19</v>
       </c>
       <c r="X45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y45" t="n">
         <v>21</v>
       </c>
       <c r="Z45" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AA45" t="n">
         <v>51</v>
@@ -8612,25 +8612,25 @@
         <v>12</v>
       </c>
       <c r="AD45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF45" t="n">
         <v>51</v>
       </c>
       <c r="AG45" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH45" t="n">
         <v>7</v>
       </c>
       <c r="AI45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK45" t="n">
         <v>12</v>
@@ -8645,28 +8645,28 @@
         <v>34</v>
       </c>
       <c r="AO45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AQ45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AR45" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AS45" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AT45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AU45" t="n">
         <v>51</v>
       </c>
       <c r="AV45" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AW45" t="n">
         <v>7</v>
@@ -8687,10 +8687,10 @@
         <v>81</v>
       </c>
       <c r="BC45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD45" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46">
@@ -9085,139 +9085,139 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="H48" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I48" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="J48" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="K48" t="n">
         <v>2.12</v>
       </c>
       <c r="L48" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="M48" t="n">
         <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P48" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R48" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S48" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="T48" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U48" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V48" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="W48" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="X48" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="Y48" t="n">
         <v>8.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA48" t="n">
         <v>13.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC48" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD48" t="n">
         <v>7.7</v>
       </c>
-      <c r="AD48" t="n">
+      <c r="AE48" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>250</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT48" t="n">
         <v>7.9</v>
       </c>
-      <c r="AE48" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>175</v>
-      </c>
-      <c r="AK48" t="n">
+      <c r="AU48" t="n">
         <v>80</v>
       </c>
-      <c r="AL48" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>300</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>90</v>
-      </c>
       <c r="AV48" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AW48" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AX48" t="n">
         <v>40</v>
       </c>
       <c r="AY48" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AZ48" t="n">
         <v>300</v>
@@ -9225,10 +9225,10 @@
       <c r="BA48" t="inlineStr"/>
       <c r="BB48" t="inlineStr"/>
       <c r="BC48" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD48" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="49">
@@ -9445,13 +9445,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
         <v>3.7</v>
       </c>
       <c r="I50" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J50" t="n">
         <v>2.5</v>
@@ -9460,7 +9460,7 @@
         <v>2.3</v>
       </c>
       <c r="L50" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
@@ -9487,13 +9487,13 @@
         <v>3.25</v>
       </c>
       <c r="U50" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V50" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W50" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X50" t="n">
         <v>10</v>
@@ -9538,7 +9538,7 @@
         <v>29</v>
       </c>
       <c r="AL50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM50" t="n">
         <v>4</v>
@@ -9839,10 +9839,10 @@
         <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R52" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S52" t="n">
         <v>1.33</v>
@@ -10015,16 +10015,16 @@
         <v>11</v>
       </c>
       <c r="O53" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P53" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R53" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S53" t="n">
         <v>1.36</v>
@@ -10310,7 +10310,7 @@
         <v>126</v>
       </c>
       <c r="BB54" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC54" t="n">
         <v>251</v>
@@ -10736,7 +10736,7 @@
         <v>1.06</v>
       </c>
       <c r="N57" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O57" t="n">
         <v>1.33</v>
@@ -11035,7 +11035,7 @@
         <v>151</v>
       </c>
       <c r="BA58" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB58" t="n">
         <v>151</v>
@@ -11581,7 +11581,7 @@
         <v>81</v>
       </c>
       <c r="BA61" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB61" t="n">
         <v>151</v>
@@ -11655,10 +11655,10 @@
         <v>3.2</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R62" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S62" t="n">
         <v>1.5</v>
@@ -12007,10 +12007,10 @@
         <v>6.5</v>
       </c>
       <c r="M64" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O64" t="n">
         <v>1.33</v>
@@ -12371,22 +12371,22 @@
         <v>4.33</v>
       </c>
       <c r="M66" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O66" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P66" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R66" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S66" t="n">
         <v>1.4</v>
@@ -14021,10 +14021,10 @@
         <v>3.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R75" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S75" t="n">
         <v>1.4</v>
@@ -14904,10 +14904,10 @@
         <v>4</v>
       </c>
       <c r="H80" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I80" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J80" t="n">
         <v>4.33</v>
@@ -14964,7 +14964,7 @@
         <v>29</v>
       </c>
       <c r="AB80" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC80" t="n">
         <v>15</v>
@@ -16745,10 +16745,10 @@
         <v>2.63</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R90" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S90" t="n">
         <v>1.57</v>
@@ -17982,7 +17982,7 @@
         <v>1.03</v>
       </c>
       <c r="N97" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="O97" t="n">
         <v>1.19</v>
@@ -18139,55 +18139,55 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H98" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I98" t="n">
         <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K98" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L98" t="n">
         <v>3.6</v>
       </c>
       <c r="M98" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O98" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P98" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q98" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R98" t="n">
         <v>1.88</v>
       </c>
-      <c r="R98" t="n">
-        <v>1.98</v>
-      </c>
       <c r="S98" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T98" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U98" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V98" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W98" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X98" t="n">
         <v>12</v>
@@ -18199,16 +18199,16 @@
         <v>21</v>
       </c>
       <c r="AA98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB98" t="n">
         <v>26</v>
       </c>
       <c r="AC98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD98" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE98" t="n">
         <v>13</v>
@@ -18217,10 +18217,10 @@
         <v>41</v>
       </c>
       <c r="AG98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH98" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI98" t="n">
         <v>12</v>
@@ -18232,7 +18232,7 @@
         <v>23</v>
       </c>
       <c r="AL98" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM98" t="n">
         <v>4.33</v>
@@ -18241,22 +18241,22 @@
         <v>13</v>
       </c>
       <c r="AO98" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP98" t="n">
         <v>41</v>
       </c>
       <c r="AQ98" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR98" t="n">
         <v>151</v>
       </c>
       <c r="AS98" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT98" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AU98" t="n">
         <v>51</v>
@@ -18268,7 +18268,7 @@
         <v>17</v>
       </c>
       <c r="AX98" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY98" t="n">
         <v>51</v>
@@ -18282,7 +18282,7 @@
         <v>151</v>
       </c>
       <c r="BD98" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99">
@@ -18691,10 +18691,10 @@
         <v>3.6</v>
       </c>
       <c r="M101" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O101" t="n">
         <v>1.4</v>
@@ -18872,7 +18872,7 @@
         <v>1.04</v>
       </c>
       <c r="N102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O102" t="n">
         <v>1.25</v>
@@ -20671,10 +20671,10 @@
         <v>3.5</v>
       </c>
       <c r="M112" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N112" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O112" t="n">
         <v>1.44</v>
@@ -20853,16 +20853,16 @@
         <v>3.4</v>
       </c>
       <c r="M113" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N113" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O113" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P113" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q113" t="n">
         <v>2.25</v>
@@ -21038,7 +21038,7 @@
         <v>1.01</v>
       </c>
       <c r="N114" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O114" t="n">
         <v>1.07</v>
@@ -21984,7 +21984,7 @@
         <v>8.5</v>
       </c>
       <c r="Z119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA119" t="n">
         <v>12</v>
@@ -22008,7 +22008,7 @@
         <v>15</v>
       </c>
       <c r="AH119" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI119" t="n">
         <v>19</v>
@@ -22020,10 +22020,10 @@
         <v>41</v>
       </c>
       <c r="AL119" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM119" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AN119" t="n">
         <v>7.5</v>
@@ -22056,13 +22056,13 @@
         <v>34</v>
       </c>
       <c r="AX119" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY119" t="n">
         <v>126</v>
       </c>
       <c r="AZ119" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA119" t="n">
         <v>126</v>
@@ -22655,13 +22655,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H123" t="n">
         <v>3.4</v>
       </c>
       <c r="I123" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J123" t="n">
         <v>4.5</v>
@@ -22670,25 +22670,25 @@
         <v>2.1</v>
       </c>
       <c r="L123" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M123" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N123" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O123" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P123" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q123" t="n">
         <v>2.05</v>
       </c>
       <c r="R123" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S123" t="n">
         <v>1.44</v>
@@ -22697,10 +22697,10 @@
         <v>2.63</v>
       </c>
       <c r="U123" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V123" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W123" t="n">
         <v>11</v>
@@ -22745,7 +22745,7 @@
         <v>15</v>
       </c>
       <c r="AK123" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL123" t="n">
         <v>29</v>
@@ -23201,150 +23201,150 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I126" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J126" t="n">
         <v>3.1</v>
       </c>
       <c r="K126" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L126" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M126" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N126" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="O126" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="P126" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="Q126" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="R126" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T126" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U126" t="n">
         <v>1.7</v>
       </c>
-      <c r="S126" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T126" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="U126" t="n">
-        <v>1.78</v>
-      </c>
       <c r="V126" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="W126" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="X126" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y126" t="n">
         <v>9.5</v>
       </c>
       <c r="Z126" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB126" t="n">
         <v>29</v>
       </c>
-      <c r="AA126" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB126" t="n">
-        <v>32</v>
-      </c>
       <c r="AC126" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AD126" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AE126" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF126" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG126" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AH126" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI126" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AJ126" t="n">
         <v>32</v>
       </c>
       <c r="AK126" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL126" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AM126" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AN126" t="n">
         <v>13.5</v>
       </c>
       <c r="AO126" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP126" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ126" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR126" t="n">
         <v>250</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="AT126" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AU126" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AV126" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AW126" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AX126" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY126" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AZ126" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA126" t="inlineStr"/>
       <c r="BB126" t="inlineStr"/>
       <c r="BC126" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD126" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127">
@@ -24101,34 +24101,34 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H131" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I131" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="J131" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K131" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L131" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="M131" t="n">
         <v>1.05</v>
       </c>
       <c r="N131" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O131" t="n">
         <v>1.24</v>
       </c>
       <c r="P131" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="Q131" t="n">
         <v>1.72</v>
@@ -24137,10 +24137,10 @@
         <v>2.05</v>
       </c>
       <c r="S131" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="T131" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U131" t="n">
         <v>1.7</v>
@@ -24149,28 +24149,28 @@
         <v>2.05</v>
       </c>
       <c r="W131" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X131" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y131" t="n">
         <v>8.5</v>
       </c>
       <c r="Z131" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA131" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB131" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC131" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD131" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE131" t="n">
         <v>15</v>
@@ -24179,16 +24179,16 @@
         <v>65</v>
       </c>
       <c r="AG131" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH131" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI131" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ131" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK131" t="n">
         <v>45</v>
@@ -24200,22 +24200,22 @@
         <v>3.65</v>
       </c>
       <c r="AN131" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AO131" t="n">
         <v>16.5</v>
       </c>
       <c r="AP131" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ131" t="n">
         <v>55</v>
       </c>
       <c r="AR131" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AT131" t="n">
         <v>7.1</v>
@@ -24224,10 +24224,10 @@
         <v>60</v>
       </c>
       <c r="AV131" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AW131" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX131" t="n">
         <v>28</v>
@@ -24829,13 +24829,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H135" t="n">
         <v>3</v>
       </c>
       <c r="I135" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J135" t="n">
         <v>3.25</v>
@@ -24844,7 +24844,7 @@
         <v>1.95</v>
       </c>
       <c r="L135" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M135" t="n">
         <v>1.11</v>
@@ -24910,7 +24910,7 @@
         <v>7.5</v>
       </c>
       <c r="AH135" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI135" t="n">
         <v>12</v>
@@ -24952,7 +24952,7 @@
         <v>67</v>
       </c>
       <c r="AV135" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AW135" t="n">
         <v>19</v>
@@ -25373,13 +25373,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H138" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I138" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J138" t="n">
         <v>3.75</v>
@@ -25397,22 +25397,22 @@
         <v>15</v>
       </c>
       <c r="O138" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P138" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R138" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S138" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T138" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U138" t="n">
         <v>1.57</v>
@@ -25430,16 +25430,16 @@
         <v>12</v>
       </c>
       <c r="Z138" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA138" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB138" t="n">
         <v>29</v>
       </c>
       <c r="AC138" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD138" t="n">
         <v>7</v>
@@ -25451,10 +25451,10 @@
         <v>41</v>
       </c>
       <c r="AG138" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI138" t="n">
         <v>9</v>
@@ -25487,7 +25487,7 @@
         <v>126</v>
       </c>
       <c r="AS138" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AT138" t="n">
         <v>7.5</v>
@@ -25919,22 +25919,22 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="H141" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I141" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="J141" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K141" t="n">
         <v>2.2</v>
       </c>
       <c r="L141" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="M141" t="n">
         <v>1.04</v>
@@ -25943,7 +25943,7 @@
         <v>8.5</v>
       </c>
       <c r="O141" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P141" t="n">
         <v>4.1</v>
@@ -25952,7 +25952,7 @@
         <v>1.6</v>
       </c>
       <c r="R141" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S141" t="n">
         <v>1.32</v>
@@ -25961,25 +25961,25 @@
         <v>3.1</v>
       </c>
       <c r="U141" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V141" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="W141" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X141" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y141" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z141" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA141" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB141" t="n">
         <v>22</v>
@@ -25988,7 +25988,7 @@
         <v>8.5</v>
       </c>
       <c r="AD141" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE141" t="n">
         <v>10.75</v>
@@ -25997,28 +25997,28 @@
         <v>35</v>
       </c>
       <c r="AG141" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH141" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI141" t="n">
         <v>9</v>
       </c>
       <c r="AJ141" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK141" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL141" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM141" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AN141" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO141" t="n">
         <v>18</v>
@@ -26042,16 +26042,16 @@
         <v>40</v>
       </c>
       <c r="AV141" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AW141" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AX141" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AY141" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AZ141" t="n">
         <v>65</v>
@@ -26847,10 +26847,10 @@
         <v>3.25</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R146" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S146" t="n">
         <v>1.44</v>
@@ -27199,22 +27199,22 @@
         <v>5.5</v>
       </c>
       <c r="M148" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N148" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O148" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P148" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R148" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S148" t="n">
         <v>1.4</v>
@@ -27566,7 +27566,7 @@
         <v>1.08</v>
       </c>
       <c r="N150" t="n">
-        <v>7.85</v>
+        <v>7.95</v>
       </c>
       <c r="O150" t="n">
         <v>1.42</v>
@@ -27725,55 +27725,55 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H151" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I151" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J151" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="K151" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L151" t="n">
         <v>4.05</v>
       </c>
       <c r="M151" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N151" t="n">
-        <v>9.4</v>
+        <v>9.85</v>
       </c>
       <c r="O151" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P151" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q151" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R151" t="n">
         <v>1.65</v>
       </c>
       <c r="S151" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T151" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="U151" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V151" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W151" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X151" t="n">
         <v>8.5</v>
@@ -27785,16 +27785,16 @@
         <v>16</v>
       </c>
       <c r="AA151" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB151" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC151" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD151" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE151" t="n">
         <v>16.5</v>
@@ -27803,16 +27803,16 @@
         <v>90</v>
       </c>
       <c r="AG151" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH151" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI151" t="n">
         <v>12.5</v>
       </c>
       <c r="AJ151" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK151" t="n">
         <v>35</v>
@@ -27833,25 +27833,25 @@
         <v>35</v>
       </c>
       <c r="AQ151" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR151" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT151" t="n">
         <v>7.5</v>
       </c>
       <c r="AU151" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AV151" t="n">
         <v>5.3</v>
       </c>
       <c r="AW151" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AX151" t="n">
         <v>28</v>
@@ -27869,7 +27869,7 @@
         <v>81</v>
       </c>
       <c r="BC151" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BD151" t="n">
         <v>800</v>
@@ -27910,7 +27910,7 @@
         <v>1.55</v>
       </c>
       <c r="H152" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I152" t="n">
         <v>5.9</v>
@@ -27919,7 +27919,7 @@
         <v>2.07</v>
       </c>
       <c r="K152" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L152" t="n">
         <v>5.7</v>
@@ -27928,7 +27928,7 @@
         <v>1.03</v>
       </c>
       <c r="N152" t="n">
-        <v>10</v>
+        <v>9.85</v>
       </c>
       <c r="O152" t="n">
         <v>1.32</v>
@@ -27973,22 +27973,22 @@
         <v>32</v>
       </c>
       <c r="AC152" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD152" t="n">
         <v>7.2</v>
       </c>
       <c r="AE152" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF152" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG152" t="n">
         <v>14</v>
       </c>
       <c r="AH152" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI152" t="n">
         <v>19</v>
@@ -28006,16 +28006,16 @@
         <v>3.25</v>
       </c>
       <c r="AN152" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AO152" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AP152" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ152" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR152" t="n">
         <v>250</v>
@@ -28024,7 +28024,7 @@
         <v>2.55</v>
       </c>
       <c r="AT152" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AU152" t="n">
         <v>75</v>
@@ -28054,7 +28054,7 @@
         <v>500</v>
       </c>
       <c r="BD152" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="153">
@@ -28634,13 +28634,13 @@
         <v>3.25</v>
       </c>
       <c r="J156" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="K156" t="n">
         <v>2.27</v>
       </c>
       <c r="L156" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M156" t="n">
         <v>1.04</v>
@@ -28664,7 +28664,7 @@
         <v>1.32</v>
       </c>
       <c r="T156" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="U156" t="n">
         <v>1.53</v>
@@ -28673,16 +28673,16 @@
         <v>2.35</v>
       </c>
       <c r="W156" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X156" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="Y156" t="n">
         <v>8.5</v>
       </c>
       <c r="Z156" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA156" t="n">
         <v>14</v>
@@ -28703,7 +28703,7 @@
         <v>40</v>
       </c>
       <c r="AG156" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH156" t="n">
         <v>21</v>
@@ -28739,10 +28739,10 @@
         <v>175</v>
       </c>
       <c r="AS156" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AT156" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AU156" t="n">
         <v>45</v>
@@ -28751,13 +28751,13 @@
         <v>5.5</v>
       </c>
       <c r="AW156" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AX156" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY156" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AZ156" t="n">
         <v>90</v>
@@ -28806,37 +28806,37 @@
         <v>1.78</v>
       </c>
       <c r="H157" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I157" t="n">
         <v>3.8</v>
-      </c>
-      <c r="I157" t="n">
-        <v>3.9</v>
       </c>
       <c r="J157" t="n">
         <v>2.35</v>
       </c>
       <c r="K157" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L157" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="M157" t="n">
         <v>1.04</v>
       </c>
       <c r="N157" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O157" t="n">
         <v>1.22</v>
       </c>
       <c r="P157" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R157" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S157" t="n">
         <v>1.34</v>
@@ -28845,16 +28845,16 @@
         <v>3</v>
       </c>
       <c r="U157" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V157" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="W157" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X157" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y157" t="n">
         <v>8.25</v>
@@ -28869,7 +28869,7 @@
         <v>22</v>
       </c>
       <c r="AC157" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD157" t="n">
         <v>7.4</v>
@@ -28878,13 +28878,13 @@
         <v>13.5</v>
       </c>
       <c r="AF157" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG157" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH157" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI157" t="n">
         <v>13</v>
@@ -28896,7 +28896,7 @@
         <v>32</v>
       </c>
       <c r="AL157" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM157" t="n">
         <v>3.8</v>
@@ -28920,10 +28920,10 @@
         <v>3</v>
       </c>
       <c r="AT157" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AU157" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AV157" t="n">
         <v>5.9</v>
@@ -28935,7 +28935,7 @@
         <v>25</v>
       </c>
       <c r="AY157" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AZ157" t="n">
         <v>120</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-14.xlsx
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H3" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
         <v>1.73</v>
@@ -978,10 +978,10 @@
         <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>10</v>
@@ -990,7 +990,7 @@
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
         <v>19</v>
@@ -1050,7 +1050,7 @@
         <v>51</v>
       </c>
       <c r="AV3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AW3" t="n">
         <v>41</v>
@@ -1130,7 +1130,7 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O4" t="n">
         <v>1.14</v>
@@ -1163,16 +1163,16 @@
         <v>8.5</v>
       </c>
       <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
         <v>10</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
         <v>21</v>
@@ -1181,13 +1181,13 @@
         <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH4" t="n">
         <v>51</v>
@@ -1220,7 +1220,7 @@
         <v>34</v>
       </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
         <v>4</v>
@@ -1238,19 +1238,19 @@
         <v>41</v>
       </c>
       <c r="AX4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY4" t="n">
         <v>151</v>
       </c>
       <c r="AZ4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
         <v>501</v>
       </c>
       <c r="BB4" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="BC4" t="n">
         <v>201</v>
@@ -1297,7 +1297,7 @@
         <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
         <v>2.5</v>
@@ -1306,7 +1306,7 @@
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
         <v>2.7</v>
@@ -1503,10 +1503,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1521,7 +1521,7 @@
         <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
@@ -1533,7 +1533,7 @@
         <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
         <v>29</v>
@@ -1679,16 +1679,16 @@
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1867,10 +1867,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1978,7 +1978,7 @@
         <v>501</v>
       </c>
       <c r="BB8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2070,10 +2070,10 @@
         <v>13</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
         <v>41</v>
@@ -2097,16 +2097,16 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH9" t="n">
         <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
         <v>15</v>
@@ -2145,7 +2145,7 @@
         <v>4.33</v>
       </c>
       <c r="AW9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX9" t="n">
         <v>19</v>
@@ -2157,13 +2157,13 @@
         <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2225,10 +2225,10 @@
         <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" t="n">
         <v>1.67</v>
@@ -2306,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="AP10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AQ10" t="n">
         <v>101</v>
@@ -2389,7 +2389,7 @@
         <v>4.75</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J11" t="n">
         <v>1.91</v>
@@ -2401,10 +2401,10 @@
         <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
         <v>1.14</v>
@@ -2524,7 +2524,7 @@
         <v>401</v>
       </c>
       <c r="BB11" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
         <v>151</v>
@@ -2568,7 +2568,7 @@
         <v>6.5</v>
       </c>
       <c r="H12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
         <v>1.48</v>
@@ -2586,7 +2586,7 @@
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
         <v>1.17</v>
@@ -2601,10 +2601,10 @@
         <v>2.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U12" t="n">
         <v>1.67</v>
@@ -2616,10 +2616,10 @@
         <v>21</v>
       </c>
       <c r="X12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
         <v>67</v>
@@ -2643,13 +2643,13 @@
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH12" t="n">
         <v>8.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2658,10 +2658,10 @@
         <v>11</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AN12" t="n">
         <v>29</v>
@@ -2679,16 +2679,16 @@
         <v>151</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AT12" t="n">
         <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AV12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AW12" t="n">
         <v>7</v>
@@ -2697,7 +2697,7 @@
         <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ12" t="n">
         <v>41</v>
@@ -2768,7 +2768,7 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.3</v>
@@ -2837,7 +2837,7 @@
         <v>67</v>
       </c>
       <c r="AK13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
         <v>51</v>
@@ -3117,7 +3117,7 @@
         <v>4.33</v>
       </c>
       <c r="I15" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J15" t="n">
         <v>5.5</v>
@@ -3126,7 +3126,7 @@
         <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -3180,7 +3180,7 @@
         <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -3243,7 +3243,7 @@
         <v>17</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
         <v>41</v>
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
@@ -3431,7 +3431,7 @@
         <v>51</v>
       </c>
       <c r="BA16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB16" t="n">
         <v>151</v>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>5.25</v>
@@ -3484,7 +3484,7 @@
         <v>9</v>
       </c>
       <c r="J17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K17" t="n">
         <v>2.4</v>
@@ -3493,10 +3493,10 @@
         <v>9</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>1.29</v>
@@ -3505,10 +3505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R17" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="S17" t="n">
         <v>1.36</v>
@@ -3526,13 +3526,13 @@
         <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA17" t="n">
         <v>12</v>
@@ -3547,13 +3547,13 @@
         <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
         <v>41</v>
@@ -3562,7 +3562,7 @@
         <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK17" t="n">
         <v>67</v>
@@ -3592,13 +3592,13 @@
         <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU17" t="n">
         <v>81</v>
       </c>
       <c r="AV17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AW17" t="n">
         <v>41</v>
@@ -3657,19 +3657,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="J18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L18" t="n">
         <v>1.53</v>
@@ -3681,31 +3681,31 @@
         <v>23</v>
       </c>
       <c r="O18" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R18" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S18" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.95</v>
       </c>
-      <c r="V18" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X18" t="n">
         <v>67</v>
@@ -3717,76 +3717,76 @@
         <v>151</v>
       </c>
       <c r="AA18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AB18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD18" t="n">
         <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
         <v>10</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK18" t="n">
         <v>10</v>
       </c>
       <c r="AL18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
         <v>12</v>
       </c>
       <c r="AN18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO18" t="n">
         <v>41</v>
       </c>
       <c r="AP18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AQ18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR18" t="n">
         <v>201</v>
       </c>
-      <c r="AR18" t="n">
-        <v>301</v>
-      </c>
       <c r="AS18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AU18" t="n">
         <v>51</v>
       </c>
       <c r="AV18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AW18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY18" t="n">
         <v>11</v>
@@ -3795,16 +3795,16 @@
         <v>29</v>
       </c>
       <c r="BA18" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BB18" t="n">
         <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
@@ -4567,16 +4567,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
         <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K23" t="n">
         <v>2.1</v>
@@ -4591,22 +4591,22 @@
         <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="R23" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="S23" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T23" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U23" t="n">
         <v>1.75</v>
@@ -4621,7 +4621,7 @@
         <v>11</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z23" t="n">
         <v>21</v>
@@ -4633,7 +4633,7 @@
         <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
         <v>6</v>
@@ -4666,7 +4666,7 @@
         <v>4.33</v>
       </c>
       <c r="AN23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
         <v>23</v>
@@ -4675,13 +4675,13 @@
         <v>41</v>
       </c>
       <c r="AQ23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
         <v>151</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AT23" t="n">
         <v>8</v>
@@ -4693,7 +4693,7 @@
         <v>5</v>
       </c>
       <c r="AW23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX23" t="n">
         <v>26</v>
@@ -4714,7 +4714,7 @@
         <v>201</v>
       </c>
       <c r="BD23" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H24" t="n">
         <v>3.8</v>
@@ -4779,10 +4779,10 @@
         <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R24" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S24" t="n">
         <v>1.36</v>
@@ -4803,7 +4803,7 @@
         <v>29</v>
       </c>
       <c r="Y24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z24" t="n">
         <v>51</v>
@@ -4842,7 +4842,7 @@
         <v>13</v>
       </c>
       <c r="AL24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
         <v>7</v>
@@ -5837,7 +5837,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H30" t="n">
         <v>5</v>
@@ -5855,10 +5855,10 @@
         <v>5.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O30" t="n">
         <v>1.13</v>
@@ -5903,7 +5903,7 @@
         <v>19</v>
       </c>
       <c r="AC30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD30" t="n">
         <v>10</v>
@@ -6028,7 +6028,7 @@
         <v>3.9</v>
       </c>
       <c r="J31" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K31" t="n">
         <v>2.5</v>
@@ -6061,10 +6061,10 @@
         <v>3.75</v>
       </c>
       <c r="U31" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W31" t="n">
         <v>12</v>
@@ -6073,7 +6073,7 @@
         <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z31" t="n">
         <v>17</v>
@@ -6082,7 +6082,7 @@
         <v>13</v>
       </c>
       <c r="AB31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="n">
         <v>21</v>
@@ -6094,10 +6094,10 @@
         <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH31" t="n">
         <v>23</v>
@@ -6154,10 +6154,10 @@
         <v>51</v>
       </c>
       <c r="AZ31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA31" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BB31" t="n">
         <v>151</v>
@@ -6166,7 +6166,7 @@
         <v>101</v>
       </c>
       <c r="BD31" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
@@ -6201,22 +6201,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K32" t="n">
         <v>2.38</v>
       </c>
       <c r="L32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -6255,7 +6255,7 @@
         <v>15</v>
       </c>
       <c r="Y32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z32" t="n">
         <v>23</v>
@@ -6279,28 +6279,28 @@
         <v>34</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI32" t="n">
         <v>10</v>
       </c>
       <c r="AJ32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK32" t="n">
         <v>19</v>
       </c>
       <c r="AL32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM32" t="n">
         <v>4.75</v>
       </c>
       <c r="AN32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO32" t="n">
         <v>19</v>
@@ -6327,7 +6327,7 @@
         <v>5</v>
       </c>
       <c r="AW32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX32" t="n">
         <v>19</v>
@@ -6383,28 +6383,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="H33" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="I33" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="K33" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="L33" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O33" t="n">
         <v>1.13</v>
@@ -6425,100 +6425,100 @@
         <v>4</v>
       </c>
       <c r="U33" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="W33" t="n">
         <v>9</v>
       </c>
       <c r="X33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>151</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP33" t="n">
         <v>12</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>301</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>9.5</v>
       </c>
       <c r="AQ33" t="n">
         <v>34</v>
       </c>
       <c r="AR33" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AS33" t="n">
         <v>4</v>
       </c>
       <c r="AT33" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AU33" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AV33" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AW33" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX33" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AY33" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="AZ33" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BA33" t="n">
         <v>401</v>
@@ -6527,10 +6527,10 @@
         <v>151</v>
       </c>
       <c r="BC33" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BD33" t="n">
-        <v>151</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34">
@@ -6565,46 +6565,46 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I34" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J34" t="n">
-        <v>2.62</v>
+        <v>2.77</v>
       </c>
       <c r="K34" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="M34" t="n">
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P34" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="R34" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S34" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T34" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="U34" t="n">
         <v>1.8</v>
@@ -6613,28 +6613,28 @@
         <v>1.8</v>
       </c>
       <c r="W34" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X34" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z34" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AA34" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AB34" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC34" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD34" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE34" t="n">
         <v>15</v>
@@ -6643,61 +6643,61 @@
         <v>80</v>
       </c>
       <c r="AG34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ34" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK34" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AL34" t="n">
         <v>45</v>
       </c>
       <c r="AM34" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AN34" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AO34" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AP34" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AQ34" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AR34" t="n">
         <v>250</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AT34" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AU34" t="n">
         <v>65</v>
       </c>
       <c r="AV34" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AW34" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX34" t="n">
         <v>27</v>
       </c>
       <c r="AY34" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AZ34" t="n">
         <v>150</v>
@@ -6705,7 +6705,7 @@
       <c r="BA34" t="inlineStr"/>
       <c r="BB34" t="inlineStr"/>
       <c r="BC34" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BD34" t="n">
         <v>700</v>
@@ -6743,147 +6743,147 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I35" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="J35" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K35" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="M35" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="P35" t="n">
-        <v>2.67</v>
+        <v>2.45</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="R35" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="S35" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="T35" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="U35" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="V35" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="W35" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z35" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA35" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB35" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.25</v>
+        <v>7.2</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AE35" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG35" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="AH35" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AI35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ35" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK35" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL35" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="n">
         <v>4.55</v>
       </c>
       <c r="AN35" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP35" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AQ35" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR35" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="AT35" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AU35" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AV35" t="n">
         <v>4.2</v>
       </c>
       <c r="AW35" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AX35" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AY35" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AZ35" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="BA35" t="inlineStr"/>
       <c r="BB35" t="inlineStr"/>
       <c r="BC35" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BD35" t="n">
         <v>700</v>
@@ -6969,7 +6969,7 @@
         <v>1.95</v>
       </c>
       <c r="W36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X36" t="n">
         <v>15</v>
@@ -7020,10 +7020,10 @@
         <v>5</v>
       </c>
       <c r="AN36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP36" t="n">
         <v>51</v>
@@ -7649,22 +7649,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H40" t="n">
         <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J40" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
         <v>2.3</v>
       </c>
       <c r="L40" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M40" t="n">
         <v>1.03</v>
@@ -7685,10 +7685,10 @@
         <v>2.2</v>
       </c>
       <c r="S40" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T40" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U40" t="n">
         <v>1.53</v>
@@ -7700,13 +7700,13 @@
         <v>11</v>
       </c>
       <c r="X40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
       </c>
       <c r="Z40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA40" t="n">
         <v>19</v>
@@ -7724,10 +7724,10 @@
         <v>12</v>
       </c>
       <c r="AF40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
         <v>15</v>
@@ -7760,10 +7760,10 @@
         <v>51</v>
       </c>
       <c r="AR40" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS40" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AT40" t="n">
         <v>7</v>
@@ -7772,7 +7772,7 @@
         <v>41</v>
       </c>
       <c r="AV40" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AW40" t="n">
         <v>13</v>
@@ -7793,7 +7793,7 @@
         <v>81</v>
       </c>
       <c r="BC40" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD40" t="n">
         <v>126</v>
@@ -7852,19 +7852,19 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O41" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="S41" t="n">
         <v>1.17</v>
@@ -7873,13 +7873,13 @@
         <v>5</v>
       </c>
       <c r="U41" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V41" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X41" t="n">
         <v>7.5</v>
@@ -7897,7 +7897,7 @@
         <v>41</v>
       </c>
       <c r="AC41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD41" t="n">
         <v>23</v>
@@ -7906,7 +7906,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG41" t="n">
         <v>51</v>
@@ -7921,13 +7921,13 @@
         <v>351</v>
       </c>
       <c r="AK41" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL41" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AM41" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AN41" t="n">
         <v>4.33</v>
@@ -7942,7 +7942,7 @@
         <v>29</v>
       </c>
       <c r="AR41" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS41" t="n">
         <v>5</v>
@@ -7951,10 +7951,10 @@
         <v>13</v>
       </c>
       <c r="AU41" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AV41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW41" t="n">
         <v>81</v>
@@ -8009,13 +8009,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H42" t="n">
         <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J42" t="n">
         <v>4.33</v>
@@ -8039,10 +8039,10 @@
         <v>3.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R42" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S42" t="n">
         <v>1.4</v>
@@ -8057,10 +8057,10 @@
         <v>1.91</v>
       </c>
       <c r="W42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y42" t="n">
         <v>13</v>
@@ -8069,7 +8069,7 @@
         <v>41</v>
       </c>
       <c r="AA42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB42" t="n">
         <v>41</v>
@@ -8090,10 +8090,10 @@
         <v>7.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ42" t="n">
         <v>17</v>
@@ -8105,7 +8105,7 @@
         <v>26</v>
       </c>
       <c r="AM42" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AN42" t="n">
         <v>21</v>
@@ -8135,7 +8135,7 @@
         <v>4</v>
       </c>
       <c r="AW42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX42" t="n">
         <v>21</v>
@@ -8365,19 +8365,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>4.5</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K44" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L44" t="n">
         <v>6</v>
@@ -8422,13 +8422,13 @@
         <v>8.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA44" t="n">
         <v>12</v>
       </c>
       <c r="AB44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC44" t="n">
         <v>13</v>
@@ -8443,13 +8443,13 @@
         <v>51</v>
       </c>
       <c r="AG44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI44" t="n">
         <v>17</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>19</v>
       </c>
       <c r="AJ44" t="n">
         <v>67</v>
@@ -8467,7 +8467,7 @@
         <v>7.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP44" t="n">
         <v>21</v>
@@ -8491,13 +8491,13 @@
         <v>7.5</v>
       </c>
       <c r="AW44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AX44" t="n">
         <v>34</v>
       </c>
       <c r="AY44" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AZ44" t="n">
         <v>126</v>
@@ -8564,7 +8564,7 @@
         <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O45" t="n">
         <v>1.22</v>
@@ -8907,112 +8907,112 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="H47" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="J47" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K47" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O47" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P47" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R47" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S47" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T47" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="U47" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W47" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="X47" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="Y47" t="n">
         <v>8.75</v>
       </c>
       <c r="Z47" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AE47" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF47" t="n">
         <v>70</v>
       </c>
       <c r="AG47" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI47" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ47" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AK47" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="n">
         <v>45</v>
       </c>
       <c r="AM47" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AN47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO47" t="n">
         <v>17.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AQ47" t="n">
         <v>60</v>
@@ -9021,28 +9021,28 @@
         <v>250</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="AT47" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AU47" t="n">
         <v>65</v>
       </c>
       <c r="AV47" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AW47" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX47" t="n">
         <v>29</v>
       </c>
       <c r="AY47" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AZ47" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA47" t="inlineStr"/>
       <c r="BB47" t="inlineStr"/>
@@ -9050,7 +9050,7 @@
         <v>400</v>
       </c>
       <c r="BD47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48">
@@ -9085,22 +9085,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H48" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I48" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="K48" t="n">
         <v>2.12</v>
       </c>
       <c r="L48" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="M48" t="n">
         <v>1.06</v>
@@ -9115,7 +9115,7 @@
         <v>3.4</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R48" t="n">
         <v>1.88</v>
@@ -9154,13 +9154,13 @@
         <v>7.9</v>
       </c>
       <c r="AD48" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AE48" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF48" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG48" t="n">
         <v>14</v>
@@ -9169,28 +9169,28 @@
         <v>40</v>
       </c>
       <c r="AI48" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ48" t="n">
         <v>150</v>
       </c>
       <c r="AK48" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL48" t="n">
         <v>70</v>
       </c>
-      <c r="AL48" t="n">
-        <v>65</v>
-      </c>
       <c r="AM48" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AN48" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AO48" t="n">
         <v>18.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ48" t="n">
         <v>60</v>
@@ -9202,13 +9202,13 @@
         <v>2.67</v>
       </c>
       <c r="AT48" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AU48" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AV48" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AW48" t="n">
         <v>35</v>
@@ -9228,7 +9228,7 @@
         <v>500</v>
       </c>
       <c r="BD48" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="49">
@@ -9445,13 +9445,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H50" t="n">
         <v>3.7</v>
       </c>
       <c r="I50" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J50" t="n">
         <v>2.5</v>
@@ -9460,7 +9460,7 @@
         <v>2.3</v>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
@@ -9487,13 +9487,13 @@
         <v>3.25</v>
       </c>
       <c r="U50" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V50" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X50" t="n">
         <v>10</v>
@@ -9538,7 +9538,7 @@
         <v>29</v>
       </c>
       <c r="AL50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM50" t="n">
         <v>4</v>
@@ -9991,22 +9991,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H53" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I53" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J53" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K53" t="n">
         <v>2.2</v>
       </c>
       <c r="L53" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
@@ -10015,22 +10015,22 @@
         <v>11</v>
       </c>
       <c r="O53" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P53" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R53" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S53" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T53" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U53" t="n">
         <v>1.73</v>
@@ -10039,13 +10039,13 @@
         <v>2</v>
       </c>
       <c r="W53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X53" t="n">
         <v>9.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z53" t="n">
         <v>17</v>
@@ -10060,19 +10060,19 @@
         <v>11</v>
       </c>
       <c r="AD53" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF53" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI53" t="n">
         <v>13</v>
@@ -10090,7 +10090,7 @@
         <v>4</v>
       </c>
       <c r="AN53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO53" t="n">
         <v>21</v>
@@ -10105,7 +10105,7 @@
         <v>151</v>
       </c>
       <c r="AS53" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT53" t="n">
         <v>8</v>
@@ -10120,7 +10120,7 @@
         <v>21</v>
       </c>
       <c r="AX53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY53" t="n">
         <v>67</v>
@@ -10351,7 +10351,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H55" t="n">
         <v>3.6</v>
@@ -10360,7 +10360,7 @@
         <v>4.75</v>
       </c>
       <c r="J55" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K55" t="n">
         <v>2.25</v>
@@ -10402,13 +10402,13 @@
         <v>8</v>
       </c>
       <c r="X55" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y55" t="n">
         <v>8.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA55" t="n">
         <v>13</v>
@@ -10432,7 +10432,7 @@
         <v>15</v>
       </c>
       <c r="AH55" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI55" t="n">
         <v>15</v>
@@ -10441,7 +10441,7 @@
         <v>51</v>
       </c>
       <c r="AK55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL55" t="n">
         <v>41</v>
@@ -10474,7 +10474,7 @@
         <v>51</v>
       </c>
       <c r="AV55" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AW55" t="n">
         <v>23</v>
@@ -10533,16 +10533,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H56" t="n">
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J56" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K56" t="n">
         <v>2.1</v>
@@ -10551,10 +10551,10 @@
         <v>2.3</v>
       </c>
       <c r="M56" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O56" t="n">
         <v>1.36</v>
@@ -10584,10 +10584,10 @@
         <v>11</v>
       </c>
       <c r="X56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z56" t="n">
         <v>51</v>
@@ -10596,10 +10596,10 @@
         <v>41</v>
       </c>
       <c r="AB56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD56" t="n">
         <v>7.5</v>
@@ -10626,19 +10626,19 @@
         <v>15</v>
       </c>
       <c r="AL56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM56" t="n">
         <v>7</v>
       </c>
       <c r="AN56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO56" t="n">
         <v>41</v>
       </c>
       <c r="AP56" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AQ56" t="n">
         <v>151</v>
@@ -10659,10 +10659,10 @@
         <v>3.5</v>
       </c>
       <c r="AW56" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY56" t="n">
         <v>29</v>
@@ -10677,10 +10677,10 @@
         <v>151</v>
       </c>
       <c r="BC56" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD56" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57">
@@ -10921,10 +10921,10 @@
         <v>10</v>
       </c>
       <c r="O58" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P58" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q58" t="n">
         <v>2.1</v>
@@ -11291,10 +11291,10 @@
         <v>4.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R60" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S60" t="n">
         <v>1.3</v>
@@ -11399,7 +11399,7 @@
         <v>251</v>
       </c>
       <c r="BA60" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB60" t="n">
         <v>151</v>
@@ -11625,28 +11625,28 @@
         </is>
       </c>
       <c r="G62" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I62" t="n">
         <v>2.7</v>
-      </c>
-      <c r="H62" t="n">
-        <v>3</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2.8</v>
       </c>
       <c r="J62" t="n">
         <v>3.4</v>
       </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L62" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M62" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N62" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O62" t="n">
         <v>1.36</v>
@@ -11655,16 +11655,16 @@
         <v>3.2</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R62" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S62" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T62" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U62" t="n">
         <v>1.83</v>
@@ -11679,7 +11679,7 @@
         <v>12</v>
       </c>
       <c r="Y62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z62" t="n">
         <v>26</v>
@@ -11691,7 +11691,7 @@
         <v>34</v>
       </c>
       <c r="AC62" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD62" t="n">
         <v>6</v>
@@ -11709,7 +11709,7 @@
         <v>13</v>
       </c>
       <c r="AI62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ62" t="n">
         <v>29</v>
@@ -11739,10 +11739,10 @@
         <v>201</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AT62" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AU62" t="n">
         <v>51</v>
@@ -11751,7 +11751,7 @@
         <v>4.75</v>
       </c>
       <c r="AW62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX62" t="n">
         <v>26</v>
@@ -11825,10 +11825,10 @@
         <v>5</v>
       </c>
       <c r="M63" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O63" t="n">
         <v>1.29</v>
@@ -11989,16 +11989,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H64" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I64" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J64" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K64" t="n">
         <v>2.2</v>
@@ -12007,28 +12007,28 @@
         <v>6.5</v>
       </c>
       <c r="M64" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N64" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O64" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P64" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R64" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S64" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T64" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U64" t="n">
         <v>2.05</v>
@@ -12094,7 +12094,7 @@
         <v>21</v>
       </c>
       <c r="AP64" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ64" t="n">
         <v>51</v>
@@ -12103,7 +12103,7 @@
         <v>151</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AT64" t="n">
         <v>9</v>
@@ -12136,7 +12136,7 @@
         <v>351</v>
       </c>
       <c r="BD64" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65">
@@ -12174,25 +12174,25 @@
         <v>1.25</v>
       </c>
       <c r="H65" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I65" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J65" t="n">
         <v>1.67</v>
       </c>
       <c r="K65" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L65" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M65" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O65" t="n">
         <v>1.17</v>
@@ -12213,10 +12213,10 @@
         <v>3.5</v>
       </c>
       <c r="U65" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V65" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W65" t="n">
         <v>8</v>
@@ -12225,19 +12225,19 @@
         <v>6.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA65" t="n">
         <v>11</v>
       </c>
       <c r="AB65" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD65" t="n">
         <v>11</v>
@@ -12276,7 +12276,7 @@
         <v>17</v>
       </c>
       <c r="AP65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ65" t="n">
         <v>41</v>
@@ -12288,13 +12288,13 @@
         <v>3.5</v>
       </c>
       <c r="AT65" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AU65" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AV65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW65" t="n">
         <v>41</v>
@@ -12303,7 +12303,7 @@
         <v>41</v>
       </c>
       <c r="AY65" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AZ65" t="n">
         <v>201</v>
@@ -12318,7 +12318,7 @@
         <v>351</v>
       </c>
       <c r="BD65" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66">
@@ -12383,10 +12383,10 @@
         <v>3.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R66" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S66" t="n">
         <v>1.4</v>
@@ -12899,22 +12899,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H69" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I69" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J69" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K69" t="n">
         <v>2.5</v>
       </c>
       <c r="L69" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M69" t="n">
         <v>1.02</v>
@@ -12929,10 +12929,10 @@
         <v>5.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R69" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S69" t="n">
         <v>1.25</v>
@@ -12941,22 +12941,22 @@
         <v>3.75</v>
       </c>
       <c r="U69" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V69" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W69" t="n">
         <v>10</v>
       </c>
       <c r="X69" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y69" t="n">
         <v>8.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA69" t="n">
         <v>12</v>
@@ -12980,7 +12980,7 @@
         <v>19</v>
       </c>
       <c r="AH69" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI69" t="n">
         <v>15</v>
@@ -12992,13 +12992,13 @@
         <v>34</v>
       </c>
       <c r="AL69" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM69" t="n">
         <v>4</v>
       </c>
       <c r="AN69" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO69" t="n">
         <v>15</v>
@@ -13022,19 +13022,19 @@
         <v>41</v>
       </c>
       <c r="AV69" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AW69" t="n">
         <v>23</v>
       </c>
       <c r="AX69" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY69" t="n">
         <v>67</v>
       </c>
       <c r="AZ69" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA69" t="n">
         <v>351</v>
@@ -13081,16 +13081,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
         <v>3.5</v>
       </c>
       <c r="I70" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K70" t="n">
         <v>2.3</v>
@@ -13153,34 +13153,34 @@
         <v>7</v>
       </c>
       <c r="AE70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG70" t="n">
         <v>12</v>
       </c>
       <c r="AH70" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ70" t="n">
         <v>29</v>
       </c>
       <c r="AK70" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL70" t="n">
         <v>23</v>
       </c>
       <c r="AM70" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AN70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO70" t="n">
         <v>19</v>
@@ -13469,16 +13469,16 @@
         <v>11</v>
       </c>
       <c r="O72" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P72" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R72" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S72" t="n">
         <v>1.4</v>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>3.2</v>
@@ -13756,7 +13756,7 @@
         <v>15</v>
       </c>
       <c r="AX73" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY73" t="n">
         <v>51</v>
@@ -13839,10 +13839,10 @@
         <v>3.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R74" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S74" t="n">
         <v>1.4</v>
@@ -14173,16 +14173,16 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H76" t="n">
         <v>3.2</v>
       </c>
       <c r="I76" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J76" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K76" t="n">
         <v>2.05</v>
@@ -14191,10 +14191,10 @@
         <v>3.4</v>
       </c>
       <c r="M76" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O76" t="n">
         <v>1.33</v>
@@ -14233,7 +14233,7 @@
         <v>26</v>
       </c>
       <c r="AA76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB76" t="n">
         <v>34</v>
@@ -14254,10 +14254,10 @@
         <v>8</v>
       </c>
       <c r="AH76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ76" t="n">
         <v>26</v>
@@ -14296,7 +14296,7 @@
         <v>51</v>
       </c>
       <c r="AV76" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AW76" t="n">
         <v>15</v>
@@ -14537,22 +14537,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H78" t="n">
         <v>3.6</v>
       </c>
       <c r="I78" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J78" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K78" t="n">
         <v>2.3</v>
       </c>
       <c r="L78" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M78" t="n">
         <v>1.03</v>
@@ -14585,7 +14585,7 @@
         <v>2.5</v>
       </c>
       <c r="W78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X78" t="n">
         <v>17</v>
@@ -14597,7 +14597,7 @@
         <v>29</v>
       </c>
       <c r="AA78" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB78" t="n">
         <v>23</v>
@@ -14618,7 +14618,7 @@
         <v>11</v>
       </c>
       <c r="AH78" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI78" t="n">
         <v>9.5</v>
@@ -14648,7 +14648,7 @@
         <v>51</v>
       </c>
       <c r="AR78" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS78" t="n">
         <v>3.4</v>
@@ -14663,7 +14663,7 @@
         <v>4.75</v>
       </c>
       <c r="AW78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX78" t="n">
         <v>19</v>
@@ -14719,13 +14719,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H79" t="n">
         <v>3.4</v>
       </c>
       <c r="I79" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J79" t="n">
         <v>3.1</v>
@@ -14737,10 +14737,10 @@
         <v>3.1</v>
       </c>
       <c r="M79" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N79" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O79" t="n">
         <v>1.2</v>
@@ -14749,10 +14749,10 @@
         <v>4.33</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R79" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S79" t="n">
         <v>1.33</v>
@@ -14761,13 +14761,13 @@
         <v>3.25</v>
       </c>
       <c r="U79" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V79" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X79" t="n">
         <v>15</v>
@@ -14785,16 +14785,16 @@
         <v>23</v>
       </c>
       <c r="AC79" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD79" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE79" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF79" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG79" t="n">
         <v>11</v>
@@ -14836,7 +14836,7 @@
         <v>3.25</v>
       </c>
       <c r="AT79" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AU79" t="n">
         <v>41</v>
@@ -15447,19 +15447,19 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H83" t="n">
         <v>3.7</v>
       </c>
       <c r="I83" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J83" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K83" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L83" t="n">
         <v>3.1</v>
@@ -15468,7 +15468,7 @@
         <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O83" t="n">
         <v>1.18</v>
@@ -15489,13 +15489,13 @@
         <v>3.4</v>
       </c>
       <c r="U83" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V83" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W83" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X83" t="n">
         <v>15</v>
@@ -15507,13 +15507,13 @@
         <v>26</v>
       </c>
       <c r="AA83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB83" t="n">
         <v>23</v>
       </c>
       <c r="AC83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD83" t="n">
         <v>7.5</v>
@@ -15570,7 +15570,7 @@
         <v>41</v>
       </c>
       <c r="AV83" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AW83" t="n">
         <v>13</v>
@@ -15594,7 +15594,7 @@
         <v>101</v>
       </c>
       <c r="BD83" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84">
@@ -15629,22 +15629,22 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H84" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I84" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J84" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K84" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L84" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M84" t="n">
         <v>1.04</v>
@@ -15680,13 +15680,13 @@
         <v>9</v>
       </c>
       <c r="X84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
       </c>
       <c r="Z84" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA84" t="n">
         <v>15</v>
@@ -15698,7 +15698,7 @@
         <v>13</v>
       </c>
       <c r="AD84" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE84" t="n">
         <v>13</v>
@@ -15716,7 +15716,7 @@
         <v>12</v>
       </c>
       <c r="AJ84" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK84" t="n">
         <v>26</v>
@@ -15725,10 +15725,10 @@
         <v>29</v>
       </c>
       <c r="AM84" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AN84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO84" t="n">
         <v>19</v>
@@ -16175,22 +16175,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H87" t="n">
         <v>3.4</v>
       </c>
       <c r="I87" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J87" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K87" t="n">
         <v>2.3</v>
       </c>
       <c r="L87" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M87" t="n">
         <v>1.04</v>
@@ -16205,10 +16205,10 @@
         <v>4.33</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R87" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S87" t="n">
         <v>1.33</v>
@@ -16244,7 +16244,7 @@
         <v>13</v>
       </c>
       <c r="AD87" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE87" t="n">
         <v>12</v>
@@ -16256,7 +16256,7 @@
         <v>12</v>
       </c>
       <c r="AH87" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI87" t="n">
         <v>11</v>
@@ -16271,13 +16271,13 @@
         <v>26</v>
       </c>
       <c r="AM87" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AN87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO87" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP87" t="n">
         <v>41</v>
@@ -16307,7 +16307,7 @@
         <v>21</v>
       </c>
       <c r="AY87" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ87" t="n">
         <v>51</v>
@@ -16357,28 +16357,28 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H88" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I88" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="J88" t="n">
         <v>11</v>
       </c>
       <c r="K88" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L88" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M88" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N88" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O88" t="n">
         <v>1.22</v>
@@ -16387,10 +16387,10 @@
         <v>4</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R88" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S88" t="n">
         <v>1.33</v>
@@ -16405,25 +16405,25 @@
         <v>1.53</v>
       </c>
       <c r="W88" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X88" t="n">
         <v>51</v>
       </c>
       <c r="Y88" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z88" t="n">
         <v>151</v>
       </c>
       <c r="AA88" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AB88" t="n">
         <v>81</v>
       </c>
       <c r="AC88" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD88" t="n">
         <v>11</v>
@@ -16441,7 +16441,7 @@
         <v>5.5</v>
       </c>
       <c r="AI88" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ88" t="n">
         <v>7</v>
@@ -16453,7 +16453,7 @@
         <v>34</v>
       </c>
       <c r="AM88" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN88" t="n">
         <v>51</v>
@@ -16556,7 +16556,7 @@
         <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O89" t="n">
         <v>1.33</v>
@@ -16914,19 +16914,19 @@
         <v>1.04</v>
       </c>
       <c r="N91" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O91" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P91" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R91" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S91" t="n">
         <v>1.36</v>
@@ -16941,7 +16941,7 @@
         <v>2.1</v>
       </c>
       <c r="W91" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X91" t="n">
         <v>10</v>
@@ -17019,7 +17019,7 @@
         <v>5.5</v>
       </c>
       <c r="AW91" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX91" t="n">
         <v>26</v>
@@ -17036,7 +17036,7 @@
         <v>151</v>
       </c>
       <c r="BD91" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92">
@@ -17249,22 +17249,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H93" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I93" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="J93" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="K93" t="n">
         <v>2.2</v>
       </c>
       <c r="L93" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M93" t="n">
         <v>1.05</v>
@@ -17291,25 +17291,25 @@
         <v>2.75</v>
       </c>
       <c r="U93" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V93" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W93" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X93" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y93" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y93" t="n">
-        <v>9</v>
-      </c>
       <c r="Z93" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA93" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB93" t="n">
         <v>26</v>
@@ -17324,31 +17324,31 @@
         <v>15</v>
       </c>
       <c r="AF93" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG93" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI93" t="n">
         <v>11</v>
       </c>
-      <c r="AH93" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ93" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AK93" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL93" t="n">
         <v>29</v>
       </c>
-      <c r="AL93" t="n">
-        <v>34</v>
-      </c>
       <c r="AM93" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AN93" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO93" t="n">
         <v>21</v>
@@ -17366,33 +17366,33 @@
         <v>2.75</v>
       </c>
       <c r="AT93" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AU93" t="n">
         <v>51</v>
       </c>
       <c r="AV93" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AW93" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AX93" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY93" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ93" t="n">
         <v>67</v>
-      </c>
-      <c r="AZ93" t="n">
-        <v>81</v>
       </c>
       <c r="BA93" t="inlineStr"/>
       <c r="BB93" t="inlineStr"/>
       <c r="BC93" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD93" t="n">
         <v>201</v>
-      </c>
-      <c r="BD93" t="n">
-        <v>251</v>
       </c>
     </row>
     <row r="94">
@@ -17961,13 +17961,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H97" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="I97" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J97" t="n">
         <v>1.93</v>
@@ -17985,34 +17985,34 @@
         <v>12.8</v>
       </c>
       <c r="O97" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P97" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R97" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="S97" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="T97" t="n">
-        <v>3.28</v>
+        <v>3.15</v>
       </c>
       <c r="U97" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V97" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="W97" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="X97" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -18021,31 +18021,31 @@
         <v>10</v>
       </c>
       <c r="AA97" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AB97" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC97" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD97" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE97" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF97" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG97" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AH97" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI97" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ97" t="n">
         <v>150</v>
@@ -18054,7 +18054,7 @@
         <v>65</v>
       </c>
       <c r="AL97" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM97" t="n">
         <v>3.3</v>
@@ -18066,7 +18066,7 @@
         <v>15.5</v>
       </c>
       <c r="AP97" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ97" t="n">
         <v>45</v>
@@ -18075,22 +18075,22 @@
         <v>200</v>
       </c>
       <c r="AS97" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AT97" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AU97" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AV97" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AW97" t="n">
         <v>35</v>
       </c>
       <c r="AX97" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AY97" t="n">
         <v>250</v>
@@ -18104,7 +18104,7 @@
         <v>450</v>
       </c>
       <c r="BD97" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="98">
@@ -18142,7 +18142,7 @@
         <v>2.25</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I98" t="n">
         <v>3</v>
@@ -18154,7 +18154,7 @@
         <v>2.1</v>
       </c>
       <c r="L98" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M98" t="n">
         <v>1.06</v>
@@ -18163,34 +18163,34 @@
         <v>10</v>
       </c>
       <c r="O98" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P98" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="R98" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="S98" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T98" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U98" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V98" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W98" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X98" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y98" t="n">
         <v>9.5</v>
@@ -18202,10 +18202,10 @@
         <v>19</v>
       </c>
       <c r="AB98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD98" t="n">
         <v>6</v>
@@ -18214,10 +18214,10 @@
         <v>13</v>
       </c>
       <c r="AF98" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG98" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH98" t="n">
         <v>15</v>
@@ -18229,7 +18229,7 @@
         <v>34</v>
       </c>
       <c r="AK98" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL98" t="n">
         <v>34</v>
@@ -18253,7 +18253,7 @@
         <v>151</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AT98" t="n">
         <v>8</v>
@@ -18274,15 +18274,15 @@
         <v>51</v>
       </c>
       <c r="AZ98" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA98" t="inlineStr"/>
       <c r="BB98" t="inlineStr"/>
       <c r="BC98" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD98" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99">
@@ -18338,7 +18338,7 @@
         <v>1.04</v>
       </c>
       <c r="N99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O99" t="n">
         <v>1.22</v>
@@ -18513,10 +18513,10 @@
         <v>4.75</v>
       </c>
       <c r="M100" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N100" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O100" t="n">
         <v>1.36</v>
@@ -19405,16 +19405,16 @@
         <v>3.5</v>
       </c>
       <c r="K105" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L105" t="n">
         <v>3.4</v>
       </c>
       <c r="M105" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N105" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O105" t="n">
         <v>1.4</v>
@@ -19423,16 +19423,16 @@
         <v>2.75</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R105" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S105" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T105" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U105" t="n">
         <v>1.95</v>
@@ -19459,7 +19459,7 @@
         <v>41</v>
       </c>
       <c r="AC105" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD105" t="n">
         <v>5.5</v>
@@ -19480,13 +19480,13 @@
         <v>11</v>
       </c>
       <c r="AJ105" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK105" t="n">
         <v>23</v>
       </c>
       <c r="AL105" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM105" t="n">
         <v>4.75</v>
@@ -19507,7 +19507,7 @@
         <v>251</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT105" t="n">
         <v>8.5</v>
@@ -19575,19 +19575,19 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H106" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I106" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J106" t="n">
         <v>2.63</v>
       </c>
       <c r="K106" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L106" t="n">
         <v>5</v>
@@ -19605,10 +19605,10 @@
         <v>2.63</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R106" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S106" t="n">
         <v>1.53</v>
@@ -19626,13 +19626,13 @@
         <v>5.5</v>
       </c>
       <c r="X106" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y106" t="n">
         <v>9</v>
       </c>
       <c r="Z106" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA106" t="n">
         <v>19</v>
@@ -19653,13 +19653,13 @@
         <v>67</v>
       </c>
       <c r="AG106" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH106" t="n">
         <v>21</v>
       </c>
       <c r="AI106" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ106" t="n">
         <v>51</v>
@@ -19671,7 +19671,7 @@
         <v>51</v>
       </c>
       <c r="AM106" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AN106" t="n">
         <v>11</v>
@@ -19692,10 +19692,10 @@
         <v>2.38</v>
       </c>
       <c r="AT106" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AU106" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AV106" t="n">
         <v>6</v>
@@ -19719,7 +19719,7 @@
         <v>81</v>
       </c>
       <c r="BC106" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD106" t="n">
         <v>501</v>
@@ -19939,22 +19939,22 @@
         </is>
       </c>
       <c r="G108" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I108" t="n">
         <v>2.55</v>
       </c>
-      <c r="H108" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2.7</v>
-      </c>
       <c r="J108" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K108" t="n">
         <v>2</v>
       </c>
       <c r="L108" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M108" t="n">
         <v>1.08</v>
@@ -19987,22 +19987,22 @@
         <v>1.8</v>
       </c>
       <c r="W108" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y108" t="n">
         <v>11</v>
       </c>
       <c r="Z108" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA108" t="n">
         <v>26</v>
       </c>
-      <c r="AA108" t="n">
-        <v>23</v>
-      </c>
       <c r="AB108" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC108" t="n">
         <v>7.5</v>
@@ -20017,28 +20017,28 @@
         <v>51</v>
       </c>
       <c r="AG108" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH108" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI108" t="n">
         <v>11</v>
       </c>
       <c r="AJ108" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK108" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL108" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM108" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AN108" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO108" t="n">
         <v>29</v>
@@ -20062,10 +20062,10 @@
         <v>67</v>
       </c>
       <c r="AV108" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AW108" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX108" t="n">
         <v>29</v>
@@ -20293,16 +20293,16 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I110" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J110" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K110" t="n">
         <v>1.95</v>
@@ -20317,10 +20317,10 @@
         <v>6.5</v>
       </c>
       <c r="O110" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P110" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q110" t="n">
         <v>2.5</v>
@@ -20341,10 +20341,10 @@
         <v>1.67</v>
       </c>
       <c r="W110" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X110" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y110" t="n">
         <v>9.5</v>
@@ -20353,13 +20353,13 @@
         <v>17</v>
       </c>
       <c r="AA110" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB110" t="n">
         <v>41</v>
       </c>
       <c r="AC110" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD110" t="n">
         <v>6</v>
@@ -20380,7 +20380,7 @@
         <v>15</v>
       </c>
       <c r="AJ110" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK110" t="n">
         <v>41</v>
@@ -20395,13 +20395,13 @@
         <v>12</v>
       </c>
       <c r="AO110" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP110" t="n">
         <v>41</v>
       </c>
       <c r="AQ110" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR110" t="n">
         <v>251</v>
@@ -20653,10 +20653,10 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I112" t="n">
         <v>2.63</v>
@@ -20668,7 +20668,7 @@
         <v>1.95</v>
       </c>
       <c r="L112" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M112" t="n">
         <v>1.08</v>
@@ -20677,16 +20677,16 @@
         <v>8</v>
       </c>
       <c r="O112" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P112" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R112" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S112" t="n">
         <v>1.53</v>
@@ -20695,10 +20695,10 @@
         <v>2.38</v>
       </c>
       <c r="U112" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V112" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W112" t="n">
         <v>7.5</v>
@@ -20719,7 +20719,7 @@
         <v>41</v>
       </c>
       <c r="AC112" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD112" t="n">
         <v>6</v>
@@ -20728,7 +20728,7 @@
         <v>17</v>
       </c>
       <c r="AF112" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG112" t="n">
         <v>7</v>
@@ -20743,7 +20743,7 @@
         <v>26</v>
       </c>
       <c r="AK112" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL112" t="n">
         <v>41</v>
@@ -20761,7 +20761,7 @@
         <v>51</v>
       </c>
       <c r="AQ112" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR112" t="n">
         <v>251</v>
@@ -20770,7 +20770,7 @@
         <v>2.38</v>
       </c>
       <c r="AT112" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AU112" t="n">
         <v>67</v>
@@ -20779,7 +20779,7 @@
         <v>4.5</v>
       </c>
       <c r="AW112" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX112" t="n">
         <v>29</v>
@@ -20800,7 +20800,7 @@
         <v>251</v>
       </c>
       <c r="BD112" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
     </row>
     <row r="113">
@@ -21041,16 +21041,16 @@
         <v>29</v>
       </c>
       <c r="O114" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P114" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R114" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="S114" t="n">
         <v>1.17</v>
@@ -21220,7 +21220,7 @@
         <v>1.07</v>
       </c>
       <c r="N115" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O115" t="n">
         <v>1.36</v>
@@ -21384,10 +21384,10 @@
         <v>2.75</v>
       </c>
       <c r="H116" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I116" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J116" t="n">
         <v>3.6</v>
@@ -21399,10 +21399,10 @@
         <v>3.25</v>
       </c>
       <c r="M116" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N116" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O116" t="n">
         <v>1.4</v>
@@ -21429,7 +21429,7 @@
         <v>1.8</v>
       </c>
       <c r="W116" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X116" t="n">
         <v>13</v>
@@ -21450,7 +21450,7 @@
         <v>8</v>
       </c>
       <c r="AD116" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE116" t="n">
         <v>17</v>
@@ -21471,7 +21471,7 @@
         <v>23</v>
       </c>
       <c r="AK116" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL116" t="n">
         <v>34</v>
@@ -21504,7 +21504,7 @@
         <v>67</v>
       </c>
       <c r="AV116" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AW116" t="n">
         <v>15</v>
@@ -21563,19 +21563,19 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H117" t="n">
         <v>3.1</v>
       </c>
       <c r="I117" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J117" t="n">
         <v>3.5</v>
       </c>
       <c r="K117" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L117" t="n">
         <v>3.5</v>
@@ -21587,31 +21587,31 @@
         <v>8</v>
       </c>
       <c r="O117" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P117" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R117" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S117" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T117" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U117" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V117" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W117" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X117" t="n">
         <v>12</v>
@@ -21620,10 +21620,10 @@
         <v>11</v>
       </c>
       <c r="Z117" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA117" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB117" t="n">
         <v>41</v>
@@ -21638,10 +21638,10 @@
         <v>17</v>
       </c>
       <c r="AF117" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG117" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH117" t="n">
         <v>12</v>
@@ -21677,7 +21677,7 @@
         <v>251</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AT117" t="n">
         <v>8.5</v>
@@ -21745,22 +21745,22 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H118" t="n">
         <v>3.2</v>
       </c>
       <c r="I118" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J118" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K118" t="n">
         <v>2.05</v>
       </c>
       <c r="L118" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M118" t="n">
         <v>1.07</v>
@@ -21796,7 +21796,7 @@
         <v>8.5</v>
       </c>
       <c r="X118" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y118" t="n">
         <v>11</v>
@@ -21805,7 +21805,7 @@
         <v>29</v>
       </c>
       <c r="AA118" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB118" t="n">
         <v>34</v>
@@ -21814,7 +21814,7 @@
         <v>8.5</v>
       </c>
       <c r="AD118" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE118" t="n">
         <v>15</v>
@@ -21826,10 +21826,10 @@
         <v>7.5</v>
       </c>
       <c r="AH118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI118" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ118" t="n">
         <v>23</v>
@@ -21841,13 +21841,13 @@
         <v>34</v>
       </c>
       <c r="AM118" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AN118" t="n">
         <v>17</v>
       </c>
       <c r="AO118" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP118" t="n">
         <v>51</v>
@@ -21868,16 +21868,16 @@
         <v>51</v>
       </c>
       <c r="AV118" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AW118" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX118" t="n">
         <v>26</v>
       </c>
       <c r="AY118" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ118" t="n">
         <v>67</v>
@@ -22112,13 +22112,13 @@
         <v>2.4</v>
       </c>
       <c r="H120" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I120" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J120" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K120" t="n">
         <v>2.1</v>
@@ -22130,7 +22130,7 @@
         <v>1.06</v>
       </c>
       <c r="N120" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O120" t="n">
         <v>1.33</v>
@@ -22175,7 +22175,7 @@
         <v>29</v>
       </c>
       <c r="AC120" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD120" t="n">
         <v>6.5</v>
@@ -22193,7 +22193,7 @@
         <v>13</v>
       </c>
       <c r="AI120" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ120" t="n">
         <v>29</v>
@@ -22208,13 +22208,13 @@
         <v>4.5</v>
       </c>
       <c r="AN120" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO120" t="n">
         <v>23</v>
       </c>
       <c r="AP120" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ120" t="n">
         <v>67</v>
@@ -22256,7 +22256,7 @@
         <v>201</v>
       </c>
       <c r="BD120" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121">
@@ -22303,7 +22303,7 @@
         <v>3.6</v>
       </c>
       <c r="K121" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L121" t="n">
         <v>3.1</v>
@@ -22312,13 +22312,13 @@
         <v>1.06</v>
       </c>
       <c r="N121" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O121" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P121" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q121" t="n">
         <v>2.1</v>
@@ -22333,10 +22333,10 @@
         <v>2.63</v>
       </c>
       <c r="U121" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V121" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W121" t="n">
         <v>8.5</v>
@@ -22369,7 +22369,7 @@
         <v>51</v>
       </c>
       <c r="AG121" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH121" t="n">
         <v>11</v>
@@ -22435,10 +22435,10 @@
         <v>126</v>
       </c>
       <c r="BC121" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD121" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122">
@@ -22491,10 +22491,10 @@
         <v>3.4</v>
       </c>
       <c r="M122" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N122" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O122" t="n">
         <v>1.33</v>
@@ -22560,7 +22560,7 @@
         <v>11</v>
       </c>
       <c r="AJ122" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK122" t="n">
         <v>23</v>
@@ -22584,7 +22584,7 @@
         <v>67</v>
       </c>
       <c r="AR122" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS122" t="n">
         <v>2.63</v>
@@ -22599,7 +22599,7 @@
         <v>4.75</v>
       </c>
       <c r="AW122" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX122" t="n">
         <v>26</v>
@@ -22655,46 +22655,46 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="H123" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I123" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J123" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K123" t="n">
         <v>2.1</v>
       </c>
       <c r="L123" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M123" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N123" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O123" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P123" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R123" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S123" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T123" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U123" t="n">
         <v>1.91</v>
@@ -22703,25 +22703,25 @@
         <v>1.8</v>
       </c>
       <c r="W123" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X123" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y123" t="n">
         <v>15</v>
       </c>
       <c r="Z123" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA123" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB123" t="n">
         <v>41</v>
       </c>
       <c r="AC123" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD123" t="n">
         <v>7</v>
@@ -22733,16 +22733,16 @@
         <v>51</v>
       </c>
       <c r="AG123" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH123" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI123" t="n">
         <v>9</v>
       </c>
       <c r="AJ123" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK123" t="n">
         <v>15</v>
@@ -22751,10 +22751,10 @@
         <v>29</v>
       </c>
       <c r="AM123" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AN123" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO123" t="n">
         <v>34</v>
@@ -22766,10 +22766,10 @@
         <v>101</v>
       </c>
       <c r="AR123" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AT123" t="n">
         <v>8.5</v>
@@ -22781,13 +22781,13 @@
         <v>3.75</v>
       </c>
       <c r="AW123" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX123" t="n">
         <v>21</v>
       </c>
       <c r="AY123" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ123" t="n">
         <v>51</v>
@@ -22802,7 +22802,7 @@
         <v>151</v>
       </c>
       <c r="BD123" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="124">
@@ -23019,16 +23019,16 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H125" t="n">
         <v>3.1</v>
       </c>
       <c r="I125" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J125" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K125" t="n">
         <v>1.95</v>
@@ -23076,7 +23076,7 @@
         <v>10</v>
       </c>
       <c r="Z125" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA125" t="n">
         <v>21</v>
@@ -23097,7 +23097,7 @@
         <v>67</v>
       </c>
       <c r="AG125" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH125" t="n">
         <v>15</v>
@@ -23109,7 +23109,7 @@
         <v>34</v>
       </c>
       <c r="AK125" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL125" t="n">
         <v>41</v>
@@ -23121,7 +23121,7 @@
         <v>13</v>
       </c>
       <c r="AO125" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP125" t="n">
         <v>41</v>
@@ -23130,7 +23130,7 @@
         <v>81</v>
       </c>
       <c r="AR125" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AS125" t="n">
         <v>2.38</v>
@@ -23163,7 +23163,7 @@
         <v>81</v>
       </c>
       <c r="BC125" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BD125" t="n">
         <v>1000</v>
@@ -23201,7 +23201,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H126" t="n">
         <v>3.05</v>
@@ -23210,43 +23210,43 @@
         <v>2.7</v>
       </c>
       <c r="J126" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K126" t="n">
         <v>2.07</v>
       </c>
       <c r="L126" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="M126" t="n">
         <v>1.07</v>
       </c>
       <c r="N126" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="O126" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P126" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R126" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S126" t="n">
         <v>1.4</v>
       </c>
       <c r="T126" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U126" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V126" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W126" t="n">
         <v>8.25</v>
@@ -23255,55 +23255,55 @@
         <v>13</v>
       </c>
       <c r="Y126" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z126" t="n">
         <v>28</v>
       </c>
       <c r="AA126" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB126" t="n">
         <v>29</v>
       </c>
       <c r="AC126" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AD126" t="n">
         <v>6</v>
       </c>
       <c r="AE126" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF126" t="n">
         <v>60</v>
       </c>
       <c r="AG126" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AH126" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI126" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AJ126" t="n">
         <v>32</v>
       </c>
       <c r="AK126" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL126" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM126" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AN126" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO126" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AP126" t="n">
         <v>55</v>
@@ -23315,10 +23315,10 @@
         <v>250</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AT126" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AU126" t="n">
         <v>55</v>
@@ -23327,24 +23327,24 @@
         <v>4.75</v>
       </c>
       <c r="AW126" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AX126" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY126" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AZ126" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA126" t="inlineStr"/>
       <c r="BB126" t="inlineStr"/>
       <c r="BC126" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD126" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="127">
@@ -23555,55 +23555,55 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H128" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I128" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="J128" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="K128" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L128" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="M128" t="n">
         <v>1.06</v>
       </c>
       <c r="N128" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="O128" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P128" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R128" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S128" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T128" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="U128" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V128" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W128" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X128" t="n">
         <v>9.75</v>
@@ -23612,43 +23612,43 @@
         <v>8.75</v>
       </c>
       <c r="Z128" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA128" t="n">
         <v>15.5</v>
       </c>
       <c r="AB128" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC128" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD128" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AE128" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI128" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AF128" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG128" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH128" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI128" t="n">
-        <v>14</v>
       </c>
       <c r="AJ128" t="n">
         <v>70</v>
       </c>
       <c r="AK128" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL128" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM128" t="n">
         <v>3.75</v>
@@ -23669,28 +23669,28 @@
         <v>250</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AT128" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AU128" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AV128" t="n">
         <v>5.8</v>
       </c>
       <c r="AW128" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX128" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AY128" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AZ128" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA128" t="n">
         <v>51</v>
@@ -23699,10 +23699,10 @@
         <v>51</v>
       </c>
       <c r="BC128" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BD128" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="129">
@@ -23737,16 +23737,16 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H129" t="n">
         <v>3.5</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J129" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="K129" t="n">
         <v>2.18</v>
@@ -23761,10 +23761,10 @@
         <v>8.75</v>
       </c>
       <c r="O129" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P129" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q129" t="n">
         <v>1.7</v>
@@ -23776,16 +23776,16 @@
         <v>1.36</v>
       </c>
       <c r="T129" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="U129" t="n">
         <v>1.57</v>
       </c>
       <c r="V129" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W129" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X129" t="n">
         <v>13.5</v>
@@ -23815,7 +23815,7 @@
         <v>50</v>
       </c>
       <c r="AG129" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH129" t="n">
         <v>18</v>
@@ -23830,13 +23830,13 @@
         <v>25</v>
       </c>
       <c r="AL129" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM129" t="n">
         <v>4.3</v>
       </c>
       <c r="AN129" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AO129" t="n">
         <v>17.5</v>
@@ -23851,7 +23851,7 @@
         <v>200</v>
       </c>
       <c r="AS129" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AT129" t="n">
         <v>6.6</v>
@@ -23860,7 +23860,7 @@
         <v>50</v>
       </c>
       <c r="AV129" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AW129" t="n">
         <v>16</v>
@@ -23922,55 +23922,55 @@
         <v>1.5</v>
       </c>
       <c r="H130" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="I130" t="n">
         <v>6.5</v>
       </c>
       <c r="J130" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="K130" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L130" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M130" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N130" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="O130" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P130" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="R130" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S130" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T130" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="U130" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V130" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W130" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="X130" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y130" t="n">
         <v>8.5</v>
@@ -23979,16 +23979,16 @@
         <v>11</v>
       </c>
       <c r="AA130" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB130" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC130" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AD130" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE130" t="n">
         <v>19.5</v>
@@ -24006,34 +24006,34 @@
         <v>21</v>
       </c>
       <c r="AJ130" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AK130" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL130" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM130" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AN130" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AO130" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AP130" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ130" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR130" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="AT130" t="n">
         <v>8</v>
@@ -24066,7 +24066,7 @@
         <v>500</v>
       </c>
       <c r="BD130" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="131">
@@ -24101,34 +24101,34 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H131" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I131" t="n">
-        <v>4.65</v>
+        <v>4.4</v>
       </c>
       <c r="J131" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K131" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L131" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="M131" t="n">
         <v>1.05</v>
       </c>
       <c r="N131" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O131" t="n">
         <v>1.24</v>
       </c>
       <c r="P131" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="Q131" t="n">
         <v>1.72</v>
@@ -24137,10 +24137,10 @@
         <v>2.05</v>
       </c>
       <c r="S131" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T131" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="U131" t="n">
         <v>1.7</v>
@@ -24149,28 +24149,28 @@
         <v>2.05</v>
       </c>
       <c r="W131" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X131" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y131" t="n">
         <v>8.5</v>
       </c>
       <c r="Z131" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA131" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB131" t="n">
         <v>25</v>
       </c>
       <c r="AC131" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD131" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE131" t="n">
         <v>15</v>
@@ -24179,16 +24179,16 @@
         <v>65</v>
       </c>
       <c r="AG131" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH131" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI131" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ131" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK131" t="n">
         <v>45</v>
@@ -24197,16 +24197,16 @@
         <v>45</v>
       </c>
       <c r="AM131" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AN131" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AO131" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AP131" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ131" t="n">
         <v>55</v>
@@ -24215,7 +24215,7 @@
         <v>200</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="AT131" t="n">
         <v>7.1</v>
@@ -24224,10 +24224,10 @@
         <v>60</v>
       </c>
       <c r="AV131" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AW131" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX131" t="n">
         <v>28</v>
@@ -24283,13 +24283,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H132" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I132" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J132" t="n">
         <v>2.38</v>
@@ -24298,7 +24298,7 @@
         <v>2.3</v>
       </c>
       <c r="L132" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M132" t="n">
         <v>1.04</v>
@@ -24319,10 +24319,10 @@
         <v>2.05</v>
       </c>
       <c r="S132" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T132" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U132" t="n">
         <v>1.73</v>
@@ -24376,10 +24376,10 @@
         <v>34</v>
       </c>
       <c r="AL132" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM132" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AN132" t="n">
         <v>9</v>
@@ -24397,7 +24397,7 @@
         <v>126</v>
       </c>
       <c r="AS132" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AT132" t="n">
         <v>8</v>
@@ -24415,7 +24415,7 @@
         <v>29</v>
       </c>
       <c r="AY132" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AZ132" t="n">
         <v>81</v>
@@ -24427,7 +24427,7 @@
         <v>81</v>
       </c>
       <c r="BC132" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD132" t="n">
         <v>201</v>
@@ -24465,22 +24465,22 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H133" t="n">
         <v>3.4</v>
       </c>
       <c r="I133" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J133" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K133" t="n">
         <v>2.1</v>
       </c>
       <c r="L133" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M133" t="n">
         <v>1.06</v>
@@ -24507,22 +24507,22 @@
         <v>2.63</v>
       </c>
       <c r="U133" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V133" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W133" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X133" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y133" t="n">
         <v>9</v>
       </c>
       <c r="Z133" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA133" t="n">
         <v>17</v>
@@ -24543,31 +24543,31 @@
         <v>51</v>
       </c>
       <c r="AG133" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH133" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI133" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ133" t="n">
         <v>41</v>
       </c>
       <c r="AK133" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL133" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM133" t="n">
         <v>4</v>
       </c>
       <c r="AN133" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO133" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP133" t="n">
         <v>41</v>
@@ -24591,7 +24591,7 @@
         <v>5.5</v>
       </c>
       <c r="AW133" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX133" t="n">
         <v>29</v>
@@ -24600,7 +24600,7 @@
         <v>67</v>
       </c>
       <c r="AZ133" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA133" t="n">
         <v>81</v>
@@ -24647,19 +24647,19 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H134" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I134" t="n">
         <v>7.5</v>
       </c>
       <c r="J134" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K134" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L134" t="n">
         <v>6.5</v>
@@ -24668,19 +24668,19 @@
         <v>1.04</v>
       </c>
       <c r="N134" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O134" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P134" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R134" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S134" t="n">
         <v>1.33</v>
@@ -24695,16 +24695,16 @@
         <v>1.83</v>
       </c>
       <c r="W134" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X134" t="n">
         <v>7</v>
       </c>
       <c r="Y134" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z134" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA134" t="n">
         <v>12</v>
@@ -24716,10 +24716,10 @@
         <v>12</v>
       </c>
       <c r="AD134" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE134" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF134" t="n">
         <v>51</v>
@@ -24829,28 +24829,28 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H135" t="n">
         <v>3</v>
       </c>
       <c r="I135" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J135" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K135" t="n">
         <v>1.95</v>
       </c>
       <c r="L135" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M135" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N135" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O135" t="n">
         <v>1.44</v>
@@ -24865,22 +24865,22 @@
         <v>1.5</v>
       </c>
       <c r="S135" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T135" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U135" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V135" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W135" t="n">
         <v>6.5</v>
       </c>
       <c r="X135" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y135" t="n">
         <v>10</v>
@@ -24907,10 +24907,10 @@
         <v>67</v>
       </c>
       <c r="AG135" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH135" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI135" t="n">
         <v>12</v>
@@ -24943,7 +24943,7 @@
         <v>251</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AT135" t="n">
         <v>9</v>
@@ -24952,7 +24952,7 @@
         <v>67</v>
       </c>
       <c r="AV135" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AW135" t="n">
         <v>19</v>
@@ -25035,10 +25035,10 @@
         <v>7</v>
       </c>
       <c r="O136" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P136" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q136" t="n">
         <v>2.5</v>
@@ -25157,7 +25157,9 @@
       <c r="BC136" t="n">
         <v>251</v>
       </c>
-      <c r="BD136" t="inlineStr"/>
+      <c r="BD136" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -25209,22 +25211,22 @@
         <v>4.33</v>
       </c>
       <c r="M137" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N137" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O137" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P137" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R137" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S137" t="n">
         <v>1.5</v>
@@ -25919,58 +25921,58 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="H141" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I141" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J141" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K141" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="L141" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="M141" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N141" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O141" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P141" t="n">
-        <v>4.1</v>
+        <v>4.45</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="R141" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="S141" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="T141" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="U141" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="V141" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="W141" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="X141" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y141" t="n">
         <v>10.25</v>
@@ -25979,28 +25981,28 @@
         <v>37</v>
       </c>
       <c r="AA141" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB141" t="n">
         <v>21</v>
       </c>
-      <c r="AB141" t="n">
-        <v>22</v>
-      </c>
       <c r="AC141" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD141" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AE141" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF141" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG141" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AH141" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI141" t="n">
         <v>9</v>
@@ -26009,60 +26011,62 @@
         <v>25</v>
       </c>
       <c r="AK141" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL141" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM141" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AN141" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO141" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP141" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ141" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AR141" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS141" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AT141" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AU141" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AV141" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="AW141" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AX141" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AY141" t="n">
         <v>45</v>
       </c>
       <c r="AZ141" t="n">
-        <v>65</v>
-      </c>
-      <c r="BA141" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>500</v>
+      </c>
       <c r="BB141" t="inlineStr"/>
       <c r="BC141" t="n">
+        <v>150</v>
+      </c>
+      <c r="BD141" t="n">
         <v>175</v>
-      </c>
-      <c r="BD141" t="n">
-        <v>200</v>
       </c>
     </row>
     <row r="142">
@@ -26823,13 +26827,13 @@
         <v>3.2</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J146" t="n">
         <v>3</v>
       </c>
       <c r="K146" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L146" t="n">
         <v>3.75</v>
@@ -26838,7 +26842,7 @@
         <v>1.06</v>
       </c>
       <c r="N146" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O146" t="n">
         <v>1.33</v>
@@ -26865,10 +26869,10 @@
         <v>1.83</v>
       </c>
       <c r="W146" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X146" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y146" t="n">
         <v>9.5</v>
@@ -26883,7 +26887,7 @@
         <v>29</v>
       </c>
       <c r="AC146" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD146" t="n">
         <v>6.5</v>
@@ -26901,7 +26905,7 @@
         <v>15</v>
       </c>
       <c r="AI146" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ146" t="n">
         <v>34</v>
@@ -26910,7 +26914,7 @@
         <v>26</v>
       </c>
       <c r="AL146" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM146" t="n">
         <v>4.33</v>
@@ -26928,7 +26932,7 @@
         <v>67</v>
       </c>
       <c r="AR146" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AS146" t="n">
         <v>2.63</v>
@@ -27184,7 +27188,7 @@
         <v>1.65</v>
       </c>
       <c r="H148" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I148" t="n">
         <v>4.5</v>
@@ -27193,46 +27197,46 @@
         <v>2.3</v>
       </c>
       <c r="K148" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L148" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M148" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N148" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O148" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P148" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R148" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S148" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T148" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U148" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V148" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W148" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X148" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y148" t="n">
         <v>8.5</v>
@@ -27241,13 +27245,13 @@
         <v>13</v>
       </c>
       <c r="AA148" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB148" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC148" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD148" t="n">
         <v>7.5</v>
@@ -27259,7 +27263,7 @@
         <v>51</v>
       </c>
       <c r="AG148" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH148" t="n">
         <v>23</v>
@@ -27280,10 +27284,10 @@
         <v>3.6</v>
       </c>
       <c r="AN148" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO148" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP148" t="n">
         <v>29</v>
@@ -27295,7 +27299,7 @@
         <v>151</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AT148" t="n">
         <v>8.5</v>
@@ -27313,10 +27317,10 @@
         <v>34</v>
       </c>
       <c r="AY148" t="n">
+        <v>81</v>
+      </c>
+      <c r="AZ148" t="n">
         <v>101</v>
-      </c>
-      <c r="AZ148" t="n">
-        <v>126</v>
       </c>
       <c r="BA148" t="n">
         <v>126</v>
@@ -27328,7 +27332,7 @@
         <v>251</v>
       </c>
       <c r="BD148" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
     </row>
     <row r="149">
@@ -27746,7 +27750,7 @@
         <v>1.03</v>
       </c>
       <c r="N151" t="n">
-        <v>9.85</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O151" t="n">
         <v>1.33</v>
@@ -28089,142 +28093,142 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="H153" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I153" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="J153" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K153" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="L153" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="M153" t="n">
         <v>1.04</v>
       </c>
       <c r="N153" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O153" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P153" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="Q153" t="n">
         <v>1.62</v>
       </c>
       <c r="R153" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="S153" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T153" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U153" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V153" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="W153" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="X153" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y153" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="Z153" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AA153" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AB153" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AC153" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI153" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD153" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE153" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF153" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG153" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AH153" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI153" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AJ153" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AK153" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AL153" t="n">
         <v>21</v>
       </c>
       <c r="AM153" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AN153" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AO153" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP153" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AQ153" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR153" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS153" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AT153" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AU153" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AV153" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="AW153" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AX153" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AY153" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AZ153" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BA153" t="inlineStr"/>
       <c r="BB153" t="inlineStr"/>
@@ -28232,7 +28236,7 @@
         <v>175</v>
       </c>
       <c r="BD153" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154">

--- a/Jogos_da_Semana_FlashScore_2024-12-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-14.xlsx
@@ -759,7 +759,7 @@
         <v>1.67</v>
       </c>
       <c r="K2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L2" t="n">
         <v>11</v>
@@ -795,7 +795,7 @@
         <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
         <v>6</v>
@@ -825,25 +825,25 @@
         <v>126</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AH2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AK2" t="n">
         <v>101</v>
       </c>
       <c r="AL2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AN2" t="n">
         <v>5.5</v>
@@ -852,7 +852,7 @@
         <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -882,7 +882,7 @@
         <v>351</v>
       </c>
       <c r="AZ2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BA2" t="n">
         <v>140</v>
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
         <v>1.73</v>
@@ -942,7 +942,7 @@
         <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -975,13 +975,13 @@
         <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
         <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>10</v>
@@ -990,7 +990,7 @@
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
         <v>19</v>
@@ -1005,13 +1005,13 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI3" t="n">
         <v>26</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>101</v>
@@ -1062,7 +1062,7 @@
         <v>151</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
         <v>501</v>
@@ -1074,7 +1074,7 @@
         <v>201</v>
       </c>
       <c r="BD3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4">
@@ -1109,19 +1109,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K4" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L4" t="n">
         <v>7.5</v>
@@ -1130,19 +1130,19 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
         <v>1.22</v>
@@ -1151,10 +1151,10 @@
         <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
         <v>11</v>
@@ -1163,7 +1163,7 @@
         <v>8.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>10</v>
@@ -1196,7 +1196,7 @@
         <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
@@ -1232,7 +1232,7 @@
         <v>51</v>
       </c>
       <c r="AV4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
         <v>41</v>
@@ -1247,10 +1247,10 @@
         <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BB4" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="BC4" t="n">
         <v>201</v>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
         <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
         <v>2.5</v>
@@ -1315,10 +1315,10 @@
         <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
         <v>1.73</v>
@@ -1351,7 +1351,7 @@
         <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>26</v>
@@ -1375,13 +1375,13 @@
         <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
         <v>34</v>
@@ -1414,10 +1414,10 @@
         <v>51</v>
       </c>
       <c r="AV5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AW5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX5" t="n">
         <v>26</v>
@@ -1679,16 +1679,16 @@
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="R7" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J8" t="n">
         <v>4.33</v>
@@ -1852,7 +1852,7 @@
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1888,7 +1888,7 @@
         <v>12</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>13</v>
@@ -1903,16 +1903,16 @@
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
         <v>8</v>
@@ -1933,13 +1933,13 @@
         <v>23</v>
       </c>
       <c r="AM8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AN8" t="n">
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP8" t="n">
         <v>67</v>
@@ -2225,16 +2225,16 @@
         <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>
@@ -2306,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="AP10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AQ10" t="n">
         <v>101</v>
@@ -2345,7 +2345,7 @@
         <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
         <v>201</v>
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H11" t="n">
         <v>4.75</v>
       </c>
       <c r="I11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
         <v>1.91</v>
@@ -2401,10 +2401,10 @@
         <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O11" t="n">
         <v>1.14</v>
@@ -2413,10 +2413,10 @@
         <v>5.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S11" t="n">
         <v>1.25</v>
@@ -2425,13 +2425,13 @@
         <v>3.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X11" t="n">
         <v>8.5</v>
@@ -2446,16 +2446,16 @@
         <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
         <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
@@ -2479,16 +2479,16 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO11" t="n">
         <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>34</v>
@@ -2530,7 +2530,7 @@
         <v>151</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -2577,7 +2577,7 @@
         <v>5.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.95</v>
@@ -2586,7 +2586,7 @@
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
         <v>1.17</v>
@@ -2607,10 +2607,10 @@
         <v>3.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W12" t="n">
         <v>21</v>
@@ -2619,7 +2619,7 @@
         <v>41</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="n">
         <v>67</v>
@@ -2643,13 +2643,13 @@
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH12" t="n">
         <v>8.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2658,7 +2658,7 @@
         <v>11</v>
       </c>
       <c r="AL12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
         <v>8</v>
@@ -2703,13 +2703,13 @@
         <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BB12" t="n">
         <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H13" t="n">
         <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J13" t="n">
         <v>2.2</v>
@@ -2768,34 +2768,34 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R13" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
         <v>7</v>
@@ -2813,19 +2813,19 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
         <v>29</v>
@@ -2843,7 +2843,7 @@
         <v>51</v>
       </c>
       <c r="AM13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AN13" t="n">
         <v>8</v>
@@ -2861,7 +2861,7 @@
         <v>151</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AT13" t="n">
         <v>9</v>
@@ -2891,10 +2891,10 @@
         <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD13" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14">
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J14" t="n">
         <v>3.25</v>
@@ -2944,7 +2944,7 @@
         <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2977,7 +2977,7 @@
         <v>2.05</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X14" t="n">
         <v>13</v>
@@ -3114,10 +3114,10 @@
         <v>5.5</v>
       </c>
       <c r="H15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J15" t="n">
         <v>5.5</v>
@@ -3207,16 +3207,16 @@
         <v>21</v>
       </c>
       <c r="AM15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO15" t="n">
         <v>29</v>
       </c>
       <c r="AP15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AQ15" t="n">
         <v>101</v>
@@ -3234,7 +3234,7 @@
         <v>51</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AW15" t="n">
         <v>7.5</v>
@@ -3499,16 +3499,16 @@
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="R17" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="S17" t="n">
         <v>1.36</v>
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
         <v>6.5</v>
@@ -3666,46 +3666,46 @@
         <v>1.2</v>
       </c>
       <c r="J18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
         <v>1.53</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O18" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R18" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.8</v>
       </c>
-      <c r="V18" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X18" t="n">
         <v>67</v>
@@ -3717,34 +3717,34 @@
         <v>151</v>
       </c>
       <c r="AA18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB18" t="n">
         <v>67</v>
       </c>
-      <c r="AB18" t="n">
-        <v>51</v>
-      </c>
       <c r="AC18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD18" t="n">
         <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI18" t="n">
         <v>10</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
         <v>10</v>
@@ -3756,22 +3756,22 @@
         <v>12</v>
       </c>
       <c r="AN18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO18" t="n">
         <v>41</v>
       </c>
       <c r="AP18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>201</v>
       </c>
-      <c r="AQ18" t="n">
-        <v>151</v>
-      </c>
       <c r="AR18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AS18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AT18" t="n">
         <v>9.5</v>
@@ -3780,13 +3780,13 @@
         <v>51</v>
       </c>
       <c r="AV18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AW18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY18" t="n">
         <v>11</v>
@@ -3795,16 +3795,16 @@
         <v>29</v>
       </c>
       <c r="BA18" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BB18" t="n">
         <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19">
@@ -4021,10 +4021,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
         <v>15</v>
@@ -4039,22 +4039,22 @@
         <v>10</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O20" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="P20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R20" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S20" t="n">
         <v>1.22</v>
@@ -4087,10 +4087,10 @@
         <v>26</v>
       </c>
       <c r="AC20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
@@ -4099,22 +4099,22 @@
         <v>67</v>
       </c>
       <c r="AG20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH20" t="n">
         <v>67</v>
       </c>
       <c r="AI20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ20" t="n">
         <v>201</v>
       </c>
       <c r="AK20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM20" t="n">
         <v>3.25</v>
@@ -4203,13 +4203,13 @@
         </is>
       </c>
       <c r="G21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I21" t="n">
         <v>2.75</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.6</v>
       </c>
       <c r="J21" t="n">
         <v>3.5</v>
@@ -4218,19 +4218,19 @@
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
         <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q21" t="n">
         <v>2.3</v>
@@ -4254,22 +4254,22 @@
         <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
         <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA21" t="n">
         <v>23</v>
       </c>
       <c r="AB21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
@@ -4287,22 +4287,22 @@
         <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4329,7 +4329,7 @@
         <v>4.5</v>
       </c>
       <c r="AW21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
@@ -4347,10 +4347,10 @@
         <v>151</v>
       </c>
       <c r="BC21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD21" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22">
@@ -4403,16 +4403,16 @@
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
         <v>7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P22" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q22" t="n">
         <v>2.38</v>
@@ -4573,7 +4573,7 @@
         <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
         <v>2.88</v>
@@ -4582,10 +4582,10 @@
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
         <v>10</v>
@@ -4594,31 +4594,31 @@
         <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="R23" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="S23" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U23" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
         <v>9</v>
@@ -4627,13 +4627,13 @@
         <v>21</v>
       </c>
       <c r="AA23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB23" t="n">
         <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD23" t="n">
         <v>6</v>
@@ -4675,13 +4675,13 @@
         <v>41</v>
       </c>
       <c r="AQ23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR23" t="n">
         <v>151</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AT23" t="n">
         <v>8</v>
@@ -4696,7 +4696,7 @@
         <v>19</v>
       </c>
       <c r="AX23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
         <v>51</v>
@@ -4714,7 +4714,7 @@
         <v>201</v>
       </c>
       <c r="BD23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
@@ -4779,10 +4779,10 @@
         <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R24" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S24" t="n">
         <v>1.36</v>
@@ -5846,7 +5846,7 @@
         <v>5.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K30" t="n">
         <v>2.63</v>
@@ -5867,10 +5867,10 @@
         <v>6</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
         <v>1.22</v>
@@ -5924,10 +5924,10 @@
         <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="n">
         <v>34</v>
@@ -5960,10 +5960,10 @@
         <v>41</v>
       </c>
       <c r="AV30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AW30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AX30" t="n">
         <v>26</v>
@@ -5981,7 +5981,7 @@
         <v>151</v>
       </c>
       <c r="BC30" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD30" t="n">
         <v>126</v>
@@ -6022,16 +6022,16 @@
         <v>1.83</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J31" t="n">
         <v>2.3</v>
       </c>
       <c r="K31" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L31" t="n">
         <v>4</v>
@@ -6043,10 +6043,10 @@
         <v>19</v>
       </c>
       <c r="O31" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P31" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q31" t="n">
         <v>1.44</v>
@@ -6055,10 +6055,10 @@
         <v>2.75</v>
       </c>
       <c r="S31" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U31" t="n">
         <v>1.44</v>
@@ -6067,7 +6067,7 @@
         <v>2.63</v>
       </c>
       <c r="W31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X31" t="n">
         <v>12</v>
@@ -6091,7 +6091,7 @@
         <v>8.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF31" t="n">
         <v>29</v>
@@ -6100,7 +6100,7 @@
         <v>19</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
         <v>13</v>
@@ -6112,7 +6112,7 @@
         <v>26</v>
       </c>
       <c r="AL31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM31" t="n">
         <v>4.33</v>
@@ -6133,7 +6133,7 @@
         <v>81</v>
       </c>
       <c r="AS31" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AT31" t="n">
         <v>7</v>
@@ -6201,22 +6201,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H32" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I32" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J32" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
         <v>2.38</v>
       </c>
       <c r="L32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -6255,10 +6255,10 @@
         <v>15</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA32" t="n">
         <v>17</v>
@@ -6279,28 +6279,28 @@
         <v>34</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI32" t="n">
         <v>10</v>
       </c>
       <c r="AJ32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK32" t="n">
         <v>19</v>
       </c>
       <c r="AL32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM32" t="n">
         <v>4.75</v>
       </c>
       <c r="AN32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO32" t="n">
         <v>19</v>
@@ -6327,7 +6327,7 @@
         <v>5</v>
       </c>
       <c r="AW32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX32" t="n">
         <v>19</v>
@@ -6383,7 +6383,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
         <v>8.5</v>
@@ -6455,7 +6455,7 @@
         <v>17</v>
       </c>
       <c r="AE33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF33" t="n">
         <v>81</v>
@@ -6470,7 +6470,7 @@
         <v>26</v>
       </c>
       <c r="AJ33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AK33" t="n">
         <v>67</v>
@@ -6518,7 +6518,7 @@
         <v>251</v>
       </c>
       <c r="AZ33" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA33" t="n">
         <v>401</v>
@@ -6586,7 +6586,7 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="O34" t="n">
         <v>1.37</v>
@@ -6942,25 +6942,25 @@
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q36" t="n">
         <v>2.05</v>
       </c>
       <c r="R36" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S36" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T36" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U36" t="n">
         <v>1.8</v>
@@ -6987,7 +6987,7 @@
         <v>34</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD36" t="n">
         <v>6.5</v>
@@ -6999,7 +6999,7 @@
         <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH36" t="n">
         <v>11</v>
@@ -7035,7 +7035,7 @@
         <v>201</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AT36" t="n">
         <v>8</v>
@@ -7303,10 +7303,10 @@
         <v>3.75</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O38" t="n">
         <v>1.33</v>
@@ -7315,10 +7315,10 @@
         <v>3.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R38" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S38" t="n">
         <v>1.44</v>
@@ -7351,7 +7351,7 @@
         <v>29</v>
       </c>
       <c r="AC38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD38" t="n">
         <v>6.5</v>
@@ -7411,10 +7411,10 @@
         <v>5</v>
       </c>
       <c r="AW38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY38" t="n">
         <v>51</v>
@@ -7488,19 +7488,19 @@
         <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O39" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R39" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S39" t="n">
         <v>1.36</v>
@@ -7840,31 +7840,31 @@
         <v>26</v>
       </c>
       <c r="J41" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="K41" t="n">
         <v>3.75</v>
       </c>
       <c r="L41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M41" t="n">
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O41" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R41" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
         <v>1.17</v>
@@ -8009,28 +8009,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I42" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="J42" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="K42" t="n">
         <v>2.2</v>
       </c>
       <c r="L42" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="M42" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O42" t="n">
         <v>1.29</v>
@@ -8039,10 +8039,10 @@
         <v>3.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R42" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S42" t="n">
         <v>1.4</v>
@@ -8051,22 +8051,22 @@
         <v>2.75</v>
       </c>
       <c r="U42" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V42" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA42" t="n">
         <v>34</v>
@@ -8075,10 +8075,10 @@
         <v>41</v>
       </c>
       <c r="AC42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE42" t="n">
         <v>15</v>
@@ -8087,16 +8087,16 @@
         <v>51</v>
       </c>
       <c r="AG42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI42" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ42" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK42" t="n">
         <v>15</v>
@@ -8105,19 +8105,19 @@
         <v>26</v>
       </c>
       <c r="AM42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AN42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ42" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR42" t="n">
         <v>201</v>
@@ -8132,16 +8132,16 @@
         <v>51</v>
       </c>
       <c r="AV42" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AW42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX42" t="n">
         <v>21</v>
       </c>
       <c r="AY42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ42" t="n">
         <v>51</v>
@@ -8187,22 +8187,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="H43" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K43" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -8229,25 +8229,25 @@
         <v>3.25</v>
       </c>
       <c r="U43" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V43" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y43" t="n">
         <v>9</v>
       </c>
-      <c r="X43" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA43" t="n">
         <v>17</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>15</v>
       </c>
       <c r="AB43" t="n">
         <v>23</v>
@@ -8259,7 +8259,7 @@
         <v>7</v>
       </c>
       <c r="AE43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF43" t="n">
         <v>41</v>
@@ -8268,31 +8268,31 @@
         <v>12</v>
       </c>
       <c r="AH43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL43" t="n">
         <v>29</v>
       </c>
       <c r="AM43" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AN43" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ43" t="n">
         <v>51</v>
@@ -8310,19 +8310,19 @@
         <v>51</v>
       </c>
       <c r="AV43" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AW43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY43" t="n">
         <v>51</v>
       </c>
       <c r="AZ43" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA43" t="inlineStr"/>
       <c r="BB43" t="inlineStr"/>
@@ -8543,22 +8543,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H45" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I45" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K45" t="n">
         <v>2.38</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M45" t="n">
         <v>1.04</v>
@@ -8573,10 +8573,10 @@
         <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R45" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S45" t="n">
         <v>1.33</v>
@@ -8591,22 +8591,22 @@
         <v>1.83</v>
       </c>
       <c r="W45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X45" t="n">
         <v>34</v>
       </c>
       <c r="Y45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z45" t="n">
         <v>67</v>
       </c>
       <c r="AA45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC45" t="n">
         <v>12</v>
@@ -8621,16 +8621,16 @@
         <v>51</v>
       </c>
       <c r="AG45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH45" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>7</v>
       </c>
       <c r="AI45" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK45" t="n">
         <v>12</v>
@@ -8639,7 +8639,7 @@
         <v>26</v>
       </c>
       <c r="AM45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN45" t="n">
         <v>34</v>
@@ -8669,7 +8669,7 @@
         <v>3.5</v>
       </c>
       <c r="AW45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX45" t="n">
         <v>19</v>
@@ -8725,46 +8725,46 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K46" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R46" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S46" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T46" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U46" t="n">
         <v>2.1</v>
@@ -8773,7 +8773,7 @@
         <v>1.67</v>
       </c>
       <c r="W46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X46" t="n">
         <v>7</v>
@@ -8782,7 +8782,7 @@
         <v>9</v>
       </c>
       <c r="Z46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA46" t="n">
         <v>15</v>
@@ -8797,19 +8797,19 @@
         <v>7</v>
       </c>
       <c r="AE46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF46" t="n">
         <v>67</v>
       </c>
       <c r="AG46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH46" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ46" t="n">
         <v>51</v>
@@ -8830,7 +8830,7 @@
         <v>23</v>
       </c>
       <c r="AP46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ46" t="n">
         <v>51</v>
@@ -8839,7 +8839,7 @@
         <v>201</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AT46" t="n">
         <v>9.5</v>
@@ -8848,7 +8848,7 @@
         <v>67</v>
       </c>
       <c r="AV46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AW46" t="n">
         <v>29</v>
@@ -9263,22 +9263,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H49" t="n">
         <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J49" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K49" t="n">
         <v>2.1</v>
       </c>
       <c r="L49" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M49" t="n">
         <v>1.07</v>
@@ -9293,10 +9293,10 @@
         <v>3.25</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R49" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S49" t="n">
         <v>1.44</v>
@@ -9311,7 +9311,7 @@
         <v>1.91</v>
       </c>
       <c r="W49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X49" t="n">
         <v>21</v>
@@ -9323,7 +9323,7 @@
         <v>41</v>
       </c>
       <c r="AA49" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB49" t="n">
         <v>41</v>
@@ -9341,7 +9341,7 @@
         <v>51</v>
       </c>
       <c r="AG49" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH49" t="n">
         <v>8.5</v>
@@ -9445,13 +9445,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
         <v>3.7</v>
       </c>
       <c r="I50" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J50" t="n">
         <v>2.5</v>
@@ -9460,7 +9460,7 @@
         <v>2.3</v>
       </c>
       <c r="L50" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
@@ -9475,10 +9475,10 @@
         <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R50" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S50" t="n">
         <v>1.33</v>
@@ -9508,7 +9508,7 @@
         <v>15</v>
       </c>
       <c r="AB50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC50" t="n">
         <v>13</v>
@@ -9645,22 +9645,22 @@
         <v>2.88</v>
       </c>
       <c r="M51" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O51" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S51" t="n">
         <v>1.4</v>
@@ -9809,19 +9809,19 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H52" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I52" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K52" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L52" t="n">
         <v>6</v>
@@ -9845,10 +9845,10 @@
         <v>2.08</v>
       </c>
       <c r="S52" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T52" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U52" t="n">
         <v>1.91</v>
@@ -9860,13 +9860,13 @@
         <v>7</v>
       </c>
       <c r="X52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y52" t="n">
         <v>8.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA52" t="n">
         <v>12</v>
@@ -9881,16 +9881,16 @@
         <v>8</v>
       </c>
       <c r="AE52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF52" t="n">
         <v>51</v>
       </c>
       <c r="AG52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI52" t="n">
         <v>19</v>
@@ -9914,7 +9914,7 @@
         <v>19</v>
       </c>
       <c r="AP52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ52" t="n">
         <v>41</v>
@@ -9923,7 +9923,7 @@
         <v>126</v>
       </c>
       <c r="AS52" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AT52" t="n">
         <v>8.5</v>
@@ -9935,13 +9935,13 @@
         <v>7.5</v>
       </c>
       <c r="AW52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AX52" t="n">
         <v>34</v>
       </c>
       <c r="AY52" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AZ52" t="n">
         <v>126</v>
@@ -10021,10 +10021,10 @@
         <v>3.75</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R53" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S53" t="n">
         <v>1.4</v>
@@ -10599,7 +10599,7 @@
         <v>41</v>
       </c>
       <c r="AC56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD56" t="n">
         <v>7.5</v>
@@ -10626,7 +10626,7 @@
         <v>15</v>
       </c>
       <c r="AL56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM56" t="n">
         <v>7</v>
@@ -10638,7 +10638,7 @@
         <v>41</v>
       </c>
       <c r="AP56" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AQ56" t="n">
         <v>151</v>
@@ -10677,10 +10677,10 @@
         <v>151</v>
       </c>
       <c r="BC56" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD56" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57">
@@ -10715,13 +10715,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>3.4</v>
       </c>
       <c r="I57" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J57" t="n">
         <v>2.88</v>
@@ -10757,10 +10757,10 @@
         <v>2.63</v>
       </c>
       <c r="U57" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V57" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W57" t="n">
         <v>7.5</v>
@@ -10775,7 +10775,7 @@
         <v>19</v>
       </c>
       <c r="AA57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB57" t="n">
         <v>29</v>
@@ -10802,7 +10802,7 @@
         <v>12</v>
       </c>
       <c r="AJ57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK57" t="n">
         <v>29</v>
@@ -10838,7 +10838,7 @@
         <v>51</v>
       </c>
       <c r="AV57" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AW57" t="n">
         <v>19</v>
@@ -11035,7 +11035,7 @@
         <v>151</v>
       </c>
       <c r="BA58" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB58" t="n">
         <v>151</v>
@@ -11220,7 +11220,7 @@
         <v>126</v>
       </c>
       <c r="BB59" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC59" t="n">
         <v>201</v>
@@ -11399,7 +11399,7 @@
         <v>251</v>
       </c>
       <c r="BA60" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB60" t="n">
         <v>151</v>
@@ -11581,7 +11581,7 @@
         <v>81</v>
       </c>
       <c r="BA61" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB61" t="n">
         <v>151</v>
@@ -12189,22 +12189,22 @@
         <v>9</v>
       </c>
       <c r="M65" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N65" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O65" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P65" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R65" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S65" t="n">
         <v>1.29</v>
@@ -12923,10 +12923,10 @@
         <v>19</v>
       </c>
       <c r="O69" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P69" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q69" t="n">
         <v>1.48</v>
@@ -13081,22 +13081,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H70" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I70" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K70" t="n">
         <v>2.3</v>
       </c>
       <c r="L70" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M70" t="n">
         <v>1.03</v>
@@ -13111,10 +13111,10 @@
         <v>4.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R70" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S70" t="n">
         <v>1.3</v>
@@ -13129,19 +13129,19 @@
         <v>2.38</v>
       </c>
       <c r="W70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y70" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z70" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB70" t="n">
         <v>21</v>
@@ -13156,31 +13156,31 @@
         <v>12</v>
       </c>
       <c r="AF70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI70" t="n">
         <v>11</v>
       </c>
       <c r="AJ70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK70" t="n">
         <v>21</v>
       </c>
       <c r="AL70" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM70" t="n">
         <v>4.5</v>
       </c>
       <c r="AN70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO70" t="n">
         <v>19</v>
@@ -13204,16 +13204,16 @@
         <v>41</v>
       </c>
       <c r="AV70" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AW70" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX70" t="n">
         <v>21</v>
       </c>
       <c r="AY70" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ70" t="n">
         <v>51</v>
@@ -13263,22 +13263,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I71" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J71" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K71" t="n">
         <v>2.2</v>
       </c>
       <c r="L71" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
         <v>1.05</v>
@@ -13287,16 +13287,16 @@
         <v>11</v>
       </c>
       <c r="O71" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P71" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S71" t="n">
         <v>1.4</v>
@@ -13314,7 +13314,7 @@
         <v>6.5</v>
       </c>
       <c r="X71" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y71" t="n">
         <v>8.5</v>
@@ -13323,16 +13323,16 @@
         <v>13</v>
       </c>
       <c r="AA71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD71" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE71" t="n">
         <v>17</v>
@@ -13362,7 +13362,7 @@
         <v>3.6</v>
       </c>
       <c r="AN71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO71" t="n">
         <v>21</v>
@@ -13389,7 +13389,7 @@
         <v>6.5</v>
       </c>
       <c r="AW71" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AX71" t="n">
         <v>34</v>
@@ -13410,7 +13410,7 @@
         <v>251</v>
       </c>
       <c r="BD71" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72">
@@ -13451,7 +13451,7 @@
         <v>3.75</v>
       </c>
       <c r="I72" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J72" t="n">
         <v>5</v>
@@ -13460,13 +13460,13 @@
         <v>2.2</v>
       </c>
       <c r="L72" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N72" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O72" t="n">
         <v>1.25</v>
@@ -13475,10 +13475,10 @@
         <v>3.75</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R72" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S72" t="n">
         <v>1.4</v>
@@ -13505,7 +13505,7 @@
         <v>51</v>
       </c>
       <c r="AA72" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB72" t="n">
         <v>41</v>
@@ -13556,7 +13556,7 @@
         <v>101</v>
       </c>
       <c r="AR72" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AS72" t="n">
         <v>2.75</v>
@@ -13627,13 +13627,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
         <v>3.2</v>
       </c>
       <c r="I73" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J73" t="n">
         <v>3.75</v>
@@ -13642,25 +13642,25 @@
         <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M73" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N73" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O73" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P73" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="R73" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="S73" t="n">
         <v>1.5</v>
@@ -13675,16 +13675,16 @@
         <v>1.8</v>
       </c>
       <c r="W73" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y73" t="n">
         <v>11</v>
       </c>
       <c r="Z73" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA73" t="n">
         <v>26</v>
@@ -13723,10 +13723,10 @@
         <v>34</v>
       </c>
       <c r="AM73" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AN73" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO73" t="n">
         <v>29</v>
@@ -13771,7 +13771,7 @@
         <v>126</v>
       </c>
       <c r="BC73" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD73" t="n">
         <v>401</v>
@@ -13839,10 +13839,10 @@
         <v>3.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R74" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S74" t="n">
         <v>1.4</v>
@@ -14027,7 +14027,7 @@
         <v>1.88</v>
       </c>
       <c r="S75" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T75" t="n">
         <v>2.75</v>
@@ -14197,10 +14197,10 @@
         <v>9</v>
       </c>
       <c r="O76" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P76" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q76" t="n">
         <v>2.1</v>
@@ -14209,10 +14209,10 @@
         <v>1.7</v>
       </c>
       <c r="S76" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T76" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U76" t="n">
         <v>1.83</v>
@@ -14391,7 +14391,7 @@
         <v>1.83</v>
       </c>
       <c r="S77" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T77" t="n">
         <v>2.75</v>
@@ -14540,10 +14540,10 @@
         <v>2.7</v>
       </c>
       <c r="H78" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I78" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J78" t="n">
         <v>3.2</v>
@@ -14561,16 +14561,16 @@
         <v>15</v>
       </c>
       <c r="O78" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P78" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R78" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S78" t="n">
         <v>1.3</v>
@@ -14579,19 +14579,19 @@
         <v>3.4</v>
       </c>
       <c r="U78" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V78" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W78" t="n">
         <v>12</v>
       </c>
       <c r="X78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y78" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z78" t="n">
         <v>29</v>
@@ -14609,7 +14609,7 @@
         <v>7</v>
       </c>
       <c r="AE78" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF78" t="n">
         <v>34</v>
@@ -14621,7 +14621,7 @@
         <v>15</v>
       </c>
       <c r="AI78" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ78" t="n">
         <v>23</v>
@@ -14630,7 +14630,7 @@
         <v>17</v>
       </c>
       <c r="AL78" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM78" t="n">
         <v>5</v>
@@ -14648,7 +14648,7 @@
         <v>51</v>
       </c>
       <c r="AR78" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS78" t="n">
         <v>3.4</v>
@@ -14684,7 +14684,7 @@
         <v>101</v>
       </c>
       <c r="BD78" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79">
@@ -14719,13 +14719,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H79" t="n">
         <v>3.4</v>
       </c>
       <c r="I79" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J79" t="n">
         <v>3.1</v>
@@ -14737,10 +14737,10 @@
         <v>3.1</v>
       </c>
       <c r="M79" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N79" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O79" t="n">
         <v>1.2</v>
@@ -14749,10 +14749,10 @@
         <v>4.33</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R79" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S79" t="n">
         <v>1.33</v>
@@ -14767,7 +14767,7 @@
         <v>2.38</v>
       </c>
       <c r="W79" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X79" t="n">
         <v>15</v>
@@ -14785,10 +14785,10 @@
         <v>23</v>
       </c>
       <c r="AC79" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD79" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE79" t="n">
         <v>11</v>
@@ -15104,7 +15104,7 @@
         <v>1.03</v>
       </c>
       <c r="N81" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O81" t="n">
         <v>1.17</v>
@@ -15283,10 +15283,10 @@
         <v>6</v>
       </c>
       <c r="M82" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N82" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O82" t="n">
         <v>1.22</v>
@@ -15468,7 +15468,7 @@
         <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O83" t="n">
         <v>1.18</v>
@@ -15832,7 +15832,7 @@
         <v>1.03</v>
       </c>
       <c r="N85" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O85" t="n">
         <v>1.17</v>
@@ -16175,22 +16175,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H87" t="n">
         <v>3.4</v>
       </c>
       <c r="I87" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K87" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L87" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M87" t="n">
         <v>1.04</v>
@@ -16205,10 +16205,10 @@
         <v>4.33</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R87" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S87" t="n">
         <v>1.33</v>
@@ -16244,7 +16244,7 @@
         <v>13</v>
       </c>
       <c r="AD87" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE87" t="n">
         <v>12</v>
@@ -16256,7 +16256,7 @@
         <v>12</v>
       </c>
       <c r="AH87" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI87" t="n">
         <v>11</v>
@@ -16271,7 +16271,7 @@
         <v>26</v>
       </c>
       <c r="AM87" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AN87" t="n">
         <v>13</v>
@@ -16307,7 +16307,7 @@
         <v>21</v>
       </c>
       <c r="AY87" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ87" t="n">
         <v>51</v>
@@ -16360,7 +16360,7 @@
         <v>13</v>
       </c>
       <c r="H88" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I88" t="n">
         <v>1.22</v>
@@ -16369,7 +16369,7 @@
         <v>11</v>
       </c>
       <c r="K88" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L88" t="n">
         <v>1.67</v>
@@ -16381,49 +16381,49 @@
         <v>15</v>
       </c>
       <c r="O88" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P88" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R88" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S88" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T88" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U88" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V88" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W88" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X88" t="n">
         <v>51</v>
       </c>
       <c r="Y88" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z88" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AA88" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AB88" t="n">
         <v>81</v>
       </c>
       <c r="AC88" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD88" t="n">
         <v>11</v>
@@ -16432,16 +16432,16 @@
         <v>29</v>
       </c>
       <c r="AF88" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG88" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH88" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI88" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ88" t="n">
         <v>7</v>
@@ -16462,34 +16462,34 @@
         <v>51</v>
       </c>
       <c r="AP88" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AQ88" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AR88" t="n">
         <v>501</v>
       </c>
       <c r="AS88" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AT88" t="n">
         <v>11</v>
       </c>
       <c r="AU88" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AV88" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AW88" t="n">
         <v>5.5</v>
       </c>
       <c r="AX88" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY88" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ88" t="n">
         <v>41</v>
@@ -16553,22 +16553,22 @@
         <v>4.5</v>
       </c>
       <c r="M89" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N89" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O89" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P89" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R89" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S89" t="n">
         <v>1.44</v>
@@ -16715,19 +16715,19 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H90" t="n">
         <v>3.1</v>
       </c>
       <c r="I90" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K90" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L90" t="n">
         <v>3.75</v>
@@ -16751,10 +16751,10 @@
         <v>1.53</v>
       </c>
       <c r="S90" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T90" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U90" t="n">
         <v>2.05</v>
@@ -16772,7 +16772,7 @@
         <v>10</v>
       </c>
       <c r="Z90" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA90" t="n">
         <v>23</v>
@@ -16802,7 +16802,7 @@
         <v>12</v>
       </c>
       <c r="AJ90" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK90" t="n">
         <v>29</v>
@@ -16829,7 +16829,7 @@
         <v>251</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AT90" t="n">
         <v>9</v>
@@ -17101,10 +17101,10 @@
         <v>4</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R92" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S92" t="n">
         <v>1.36</v>
@@ -17249,22 +17249,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H93" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I93" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="J93" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K93" t="n">
         <v>2.2</v>
       </c>
       <c r="L93" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M93" t="n">
         <v>1.05</v>
@@ -17297,19 +17297,19 @@
         <v>2</v>
       </c>
       <c r="W93" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y93" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z93" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA93" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB93" t="n">
         <v>26</v>
@@ -17324,31 +17324,31 @@
         <v>15</v>
       </c>
       <c r="AF93" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG93" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH93" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN93" t="n">
         <v>11</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>13</v>
       </c>
       <c r="AO93" t="n">
         <v>21</v>
@@ -17366,30 +17366,30 @@
         <v>2.75</v>
       </c>
       <c r="AT93" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AU93" t="n">
         <v>51</v>
       </c>
       <c r="AV93" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AW93" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX93" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY93" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ93" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA93" t="inlineStr"/>
       <c r="BB93" t="inlineStr"/>
       <c r="BC93" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD93" t="n">
         <v>201</v>
@@ -17427,19 +17427,19 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H94" t="n">
         <v>3.75</v>
       </c>
       <c r="I94" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="K94" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L94" t="n">
         <v>4.33</v>
@@ -17451,19 +17451,19 @@
         <v>15</v>
       </c>
       <c r="O94" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P94" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R94" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S94" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T94" t="n">
         <v>3.4</v>
@@ -17511,7 +17511,7 @@
         <v>23</v>
       </c>
       <c r="AI94" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ94" t="n">
         <v>41</v>
@@ -17614,7 +17614,7 @@
         <v>2.55</v>
       </c>
       <c r="J95" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K95" t="n">
         <v>2.2</v>
@@ -17635,13 +17635,13 @@
         <v>3.75</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R95" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S95" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T95" t="n">
         <v>2.75</v>
@@ -17710,7 +17710,7 @@
         <v>23</v>
       </c>
       <c r="AP95" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ95" t="n">
         <v>67</v>
@@ -17795,7 +17795,7 @@
         <v>2.2</v>
       </c>
       <c r="K96" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L96" t="n">
         <v>5</v>
@@ -17819,7 +17819,7 @@
         <v>2.15</v>
       </c>
       <c r="S96" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T96" t="n">
         <v>3.25</v>
@@ -18175,10 +18175,10 @@
         <v>1.73</v>
       </c>
       <c r="S98" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T98" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U98" t="n">
         <v>1.8</v>
@@ -18816,7 +18816,7 @@
         <v>251</v>
       </c>
       <c r="BD101" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="102">
@@ -19032,13 +19032,13 @@
         <v>1.85</v>
       </c>
       <c r="H103" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I103" t="n">
         <v>4.5</v>
       </c>
       <c r="J103" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K103" t="n">
         <v>2.1</v>
@@ -19047,22 +19047,22 @@
         <v>4.75</v>
       </c>
       <c r="M103" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N103" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O103" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P103" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="R103" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S103" t="n">
         <v>1.44</v>
@@ -19071,13 +19071,13 @@
         <v>2.63</v>
       </c>
       <c r="U103" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V103" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W103" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X103" t="n">
         <v>8.5</v>
@@ -19089,7 +19089,7 @@
         <v>15</v>
       </c>
       <c r="AA103" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB103" t="n">
         <v>29</v>
@@ -19101,13 +19101,13 @@
         <v>6.5</v>
       </c>
       <c r="AE103" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF103" t="n">
         <v>51</v>
       </c>
       <c r="AG103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH103" t="n">
         <v>21</v>
@@ -19131,7 +19131,7 @@
         <v>10</v>
       </c>
       <c r="AO103" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP103" t="n">
         <v>34</v>
@@ -19176,7 +19176,7 @@
         <v>251</v>
       </c>
       <c r="BD103" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104">
@@ -19402,7 +19402,7 @@
         <v>2.75</v>
       </c>
       <c r="J105" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K105" t="n">
         <v>1.95</v>
@@ -19417,16 +19417,16 @@
         <v>7</v>
       </c>
       <c r="O105" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P105" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R105" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S105" t="n">
         <v>1.53</v>
@@ -19441,7 +19441,7 @@
         <v>1.8</v>
       </c>
       <c r="W105" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X105" t="n">
         <v>13</v>
@@ -19575,28 +19575,28 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H106" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I106" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J106" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K106" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L106" t="n">
         <v>5</v>
       </c>
       <c r="M106" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N106" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O106" t="n">
         <v>1.44</v>
@@ -19605,10 +19605,10 @@
         <v>2.63</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R106" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S106" t="n">
         <v>1.53</v>
@@ -19626,13 +19626,13 @@
         <v>5.5</v>
       </c>
       <c r="X106" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y106" t="n">
         <v>9</v>
       </c>
       <c r="Z106" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA106" t="n">
         <v>19</v>
@@ -19653,16 +19653,16 @@
         <v>67</v>
       </c>
       <c r="AG106" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH106" t="n">
         <v>21</v>
       </c>
       <c r="AI106" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ106" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK106" t="n">
         <v>41</v>
@@ -19671,7 +19671,7 @@
         <v>51</v>
       </c>
       <c r="AM106" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AN106" t="n">
         <v>11</v>
@@ -19692,10 +19692,10 @@
         <v>2.38</v>
       </c>
       <c r="AT106" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AU106" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AV106" t="n">
         <v>6</v>
@@ -19710,7 +19710,7 @@
         <v>101</v>
       </c>
       <c r="AZ106" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA106" t="n">
         <v>81</v>
@@ -19719,7 +19719,7 @@
         <v>81</v>
       </c>
       <c r="BC106" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD106" t="n">
         <v>501</v>
@@ -19757,13 +19757,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H107" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I107" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J107" t="n">
         <v>3.5</v>
@@ -19775,22 +19775,22 @@
         <v>3.4</v>
       </c>
       <c r="M107" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N107" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O107" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P107" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R107" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S107" t="n">
         <v>1.5</v>
@@ -19799,10 +19799,10 @@
         <v>2.5</v>
       </c>
       <c r="U107" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V107" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W107" t="n">
         <v>8</v>
@@ -19868,7 +19868,7 @@
         <v>81</v>
       </c>
       <c r="AR107" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AS107" t="n">
         <v>2.5</v>
@@ -19904,7 +19904,7 @@
         <v>201</v>
       </c>
       <c r="BD107" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108">
@@ -19939,28 +19939,28 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I108" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J108" t="n">
         <v>3.5</v>
       </c>
       <c r="K108" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L108" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M108" t="n">
         <v>1.08</v>
       </c>
       <c r="N108" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O108" t="n">
         <v>1.4</v>
@@ -19969,16 +19969,16 @@
         <v>2.75</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R108" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S108" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T108" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U108" t="n">
         <v>1.91</v>
@@ -19987,25 +19987,25 @@
         <v>1.8</v>
       </c>
       <c r="W108" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X108" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y108" t="n">
         <v>11</v>
       </c>
       <c r="Z108" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA108" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB108" t="n">
         <v>41</v>
       </c>
       <c r="AC108" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD108" t="n">
         <v>6</v>
@@ -20020,22 +20020,22 @@
         <v>7.5</v>
       </c>
       <c r="AH108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI108" t="n">
         <v>11</v>
       </c>
       <c r="AJ108" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK108" t="n">
         <v>26</v>
       </c>
-      <c r="AK108" t="n">
-        <v>23</v>
-      </c>
       <c r="AL108" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM108" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AN108" t="n">
         <v>17</v>
@@ -20053,7 +20053,7 @@
         <v>251</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT108" t="n">
         <v>8.5</v>
@@ -20065,7 +20065,7 @@
         <v>4.5</v>
       </c>
       <c r="AW108" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX108" t="n">
         <v>29</v>
@@ -20293,22 +20293,22 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H110" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I110" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J110" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K110" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L110" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M110" t="n">
         <v>1.11</v>
@@ -20323,10 +20323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R110" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S110" t="n">
         <v>1.57</v>
@@ -20344,13 +20344,13 @@
         <v>6</v>
       </c>
       <c r="X110" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y110" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z110" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA110" t="n">
         <v>21</v>
@@ -20362,19 +20362,19 @@
         <v>6</v>
       </c>
       <c r="AD110" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE110" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF110" t="n">
         <v>67</v>
       </c>
       <c r="AG110" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH110" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI110" t="n">
         <v>15</v>
@@ -20383,16 +20383,16 @@
         <v>41</v>
       </c>
       <c r="AK110" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL110" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM110" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AN110" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO110" t="n">
         <v>29</v>
@@ -20410,19 +20410,19 @@
         <v>2.25</v>
       </c>
       <c r="AT110" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AU110" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AV110" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AW110" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX110" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY110" t="n">
         <v>81</v>
@@ -20471,22 +20471,22 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
         <v>3.1</v>
       </c>
       <c r="I111" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J111" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K111" t="n">
         <v>2.1</v>
       </c>
       <c r="L111" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M111" t="n">
         <v>1.06</v>
@@ -20501,10 +20501,10 @@
         <v>3.25</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R111" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S111" t="n">
         <v>1.44</v>
@@ -20522,22 +20522,22 @@
         <v>7</v>
       </c>
       <c r="X111" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y111" t="n">
         <v>9</v>
       </c>
       <c r="Z111" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA111" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB111" t="n">
         <v>29</v>
       </c>
       <c r="AC111" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD111" t="n">
         <v>6</v>
@@ -20549,10 +20549,10 @@
         <v>51</v>
       </c>
       <c r="AG111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH111" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI111" t="n">
         <v>13</v>
@@ -20561,7 +20561,7 @@
         <v>41</v>
       </c>
       <c r="AK111" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL111" t="n">
         <v>41</v>
@@ -20570,7 +20570,7 @@
         <v>4</v>
       </c>
       <c r="AN111" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO111" t="n">
         <v>23</v>
@@ -20579,7 +20579,7 @@
         <v>41</v>
       </c>
       <c r="AQ111" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR111" t="n">
         <v>151</v>
@@ -20597,7 +20597,7 @@
         <v>5.5</v>
       </c>
       <c r="AW111" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX111" t="n">
         <v>29</v>
@@ -20606,7 +20606,7 @@
         <v>67</v>
       </c>
       <c r="AZ111" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA111" t="n">
         <v>81</v>
@@ -21164,7 +21164,7 @@
         <v>451</v>
       </c>
       <c r="BD114" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="115">
@@ -21381,22 +21381,22 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H116" t="n">
         <v>3.1</v>
       </c>
       <c r="I116" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J116" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K116" t="n">
         <v>2</v>
       </c>
       <c r="L116" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M116" t="n">
         <v>1.07</v>
@@ -21405,16 +21405,16 @@
         <v>9</v>
       </c>
       <c r="O116" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P116" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R116" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S116" t="n">
         <v>1.5</v>
@@ -21429,7 +21429,7 @@
         <v>1.8</v>
       </c>
       <c r="W116" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X116" t="n">
         <v>13</v>
@@ -21441,7 +21441,7 @@
         <v>29</v>
       </c>
       <c r="AA116" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB116" t="n">
         <v>41</v>
@@ -21459,16 +21459,16 @@
         <v>51</v>
       </c>
       <c r="AG116" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH116" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI116" t="n">
         <v>10</v>
       </c>
       <c r="AJ116" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK116" t="n">
         <v>23</v>
@@ -21510,7 +21510,7 @@
         <v>15</v>
       </c>
       <c r="AX116" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY116" t="n">
         <v>51</v>
@@ -21525,7 +21525,7 @@
         <v>81</v>
       </c>
       <c r="BC116" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD116" t="n">
         <v>351</v>
@@ -21745,22 +21745,22 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H118" t="n">
         <v>3.2</v>
       </c>
       <c r="I118" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J118" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K118" t="n">
         <v>2.05</v>
       </c>
       <c r="L118" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M118" t="n">
         <v>1.07</v>
@@ -21775,10 +21775,10 @@
         <v>3</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R118" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S118" t="n">
         <v>1.44</v>
@@ -21805,7 +21805,7 @@
         <v>29</v>
       </c>
       <c r="AA118" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB118" t="n">
         <v>34</v>
@@ -21826,7 +21826,7 @@
         <v>7.5</v>
       </c>
       <c r="AH118" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI118" t="n">
         <v>10</v>
@@ -21847,7 +21847,7 @@
         <v>17</v>
       </c>
       <c r="AO118" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP118" t="n">
         <v>51</v>
@@ -21862,13 +21862,13 @@
         <v>2.63</v>
       </c>
       <c r="AT118" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AU118" t="n">
         <v>51</v>
       </c>
       <c r="AV118" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AW118" t="n">
         <v>15</v>
@@ -22109,13 +22109,13 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H120" t="n">
         <v>3.4</v>
       </c>
       <c r="I120" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J120" t="n">
         <v>3.1</v>
@@ -22124,7 +22124,7 @@
         <v>2.1</v>
       </c>
       <c r="L120" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M120" t="n">
         <v>1.06</v>
@@ -22169,7 +22169,7 @@
         <v>23</v>
       </c>
       <c r="AA120" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB120" t="n">
         <v>29</v>
@@ -22187,10 +22187,10 @@
         <v>51</v>
       </c>
       <c r="AG120" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH120" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI120" t="n">
         <v>11</v>
@@ -22205,7 +22205,7 @@
         <v>34</v>
       </c>
       <c r="AM120" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AN120" t="n">
         <v>13</v>
@@ -22232,7 +22232,7 @@
         <v>51</v>
       </c>
       <c r="AV120" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AW120" t="n">
         <v>17</v>
@@ -22291,16 +22291,16 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H121" t="n">
         <v>3.4</v>
       </c>
       <c r="I121" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J121" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K121" t="n">
         <v>2.1</v>
@@ -22321,10 +22321,10 @@
         <v>3.4</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R121" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S121" t="n">
         <v>1.44</v>
@@ -22357,7 +22357,7 @@
         <v>34</v>
       </c>
       <c r="AC121" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD121" t="n">
         <v>6.5</v>
@@ -22372,7 +22372,7 @@
         <v>8</v>
       </c>
       <c r="AH121" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI121" t="n">
         <v>9.5</v>
@@ -22414,7 +22414,7 @@
         <v>51</v>
       </c>
       <c r="AV121" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AW121" t="n">
         <v>13</v>
@@ -22473,13 +22473,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H122" t="n">
         <v>3.2</v>
       </c>
       <c r="I122" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J122" t="n">
         <v>3.1</v>
@@ -22491,10 +22491,10 @@
         <v>3.4</v>
       </c>
       <c r="M122" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N122" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O122" t="n">
         <v>1.33</v>
@@ -22503,10 +22503,10 @@
         <v>3.25</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R122" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S122" t="n">
         <v>1.44</v>
@@ -22551,7 +22551,7 @@
         <v>51</v>
       </c>
       <c r="AG122" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH122" t="n">
         <v>13</v>
@@ -22572,10 +22572,10 @@
         <v>4.5</v>
       </c>
       <c r="AN122" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO122" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP122" t="n">
         <v>41</v>
@@ -22584,7 +22584,7 @@
         <v>67</v>
       </c>
       <c r="AR122" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AS122" t="n">
         <v>2.63</v>
@@ -22617,10 +22617,10 @@
         <v>81</v>
       </c>
       <c r="BC122" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD122" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="123">
@@ -22673,10 +22673,10 @@
         <v>2.3</v>
       </c>
       <c r="M123" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N123" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O123" t="n">
         <v>1.3</v>
@@ -22766,7 +22766,7 @@
         <v>101</v>
       </c>
       <c r="AR123" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AS123" t="n">
         <v>2.75</v>
@@ -23163,7 +23163,7 @@
         <v>81</v>
       </c>
       <c r="BC125" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD125" t="n">
         <v>1000</v>
@@ -23201,142 +23201,142 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="H126" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="I126" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J126" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K126" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="L126" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="M126" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N126" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="O126" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="P126" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="Q126" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="R126" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="S126" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="T126" t="n">
-        <v>2.72</v>
+        <v>2.57</v>
       </c>
       <c r="U126" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="V126" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="W126" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="X126" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y126" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z126" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA126" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AB126" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC126" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AD126" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AE126" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF126" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG126" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AH126" t="n">
         <v>13.5</v>
       </c>
       <c r="AI126" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ126" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AK126" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL126" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AM126" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AN126" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO126" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AP126" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AQ126" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AR126" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.72</v>
+        <v>2.57</v>
       </c>
       <c r="AT126" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AU126" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AV126" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AW126" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AX126" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY126" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AZ126" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA126" t="inlineStr"/>
       <c r="BB126" t="inlineStr"/>
@@ -23344,7 +23344,7 @@
         <v>300</v>
       </c>
       <c r="BD126" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="127">
@@ -23737,19 +23737,19 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H129" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I129" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J129" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="K129" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L129" t="n">
         <v>3.45</v>
@@ -23758,67 +23758,67 @@
         <v>1.05</v>
       </c>
       <c r="N129" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O129" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P129" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="R129" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="S129" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="T129" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="U129" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V129" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="W129" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="X129" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE129" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y129" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z129" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA129" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB129" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC129" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD129" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE129" t="n">
-        <v>13</v>
-      </c>
       <c r="AF129" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG129" t="n">
         <v>10.5</v>
       </c>
       <c r="AH129" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI129" t="n">
         <v>11.25</v>
@@ -23833,31 +23833,31 @@
         <v>30</v>
       </c>
       <c r="AM129" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AN129" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AO129" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AP129" t="n">
         <v>45</v>
       </c>
       <c r="AQ129" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AR129" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="AT129" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AU129" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AV129" t="n">
         <v>5</v>
@@ -23884,7 +23884,7 @@
         <v>250</v>
       </c>
       <c r="BD129" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="130">
@@ -23919,88 +23919,88 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H130" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I130" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="J130" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="K130" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L130" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M130" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N130" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="O130" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P130" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="R130" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T130" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U130" t="n">
         <v>1.93</v>
       </c>
-      <c r="S130" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T130" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U130" t="n">
-        <v>1.9</v>
-      </c>
       <c r="V130" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W130" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X130" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y130" t="n">
         <v>8.5</v>
       </c>
       <c r="Z130" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA130" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB130" t="n">
         <v>30</v>
       </c>
       <c r="AC130" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AD130" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE130" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF130" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG130" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH130" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI130" t="n">
         <v>21</v>
@@ -24009,49 +24009,49 @@
         <v>150</v>
       </c>
       <c r="AK130" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL130" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM130" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AN130" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AO130" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AP130" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ130" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR130" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AT130" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AU130" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AV130" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AW130" t="n">
         <v>37</v>
       </c>
       <c r="AX130" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AY130" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AZ130" t="n">
         <v>300</v>
@@ -24066,7 +24066,7 @@
         <v>500</v>
       </c>
       <c r="BD130" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="131">
@@ -24101,58 +24101,58 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="H131" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I131" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="J131" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="K131" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L131" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="M131" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N131" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O131" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P131" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q131" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R131" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S131" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T131" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U131" t="n">
         <v>1.72</v>
       </c>
-      <c r="R131" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S131" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T131" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U131" t="n">
-        <v>1.7</v>
-      </c>
       <c r="V131" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W131" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="X131" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y131" t="n">
         <v>8.5</v>
@@ -24161,28 +24161,28 @@
         <v>15.5</v>
       </c>
       <c r="AA131" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB131" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC131" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD131" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE131" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF131" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG131" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH131" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI131" t="n">
         <v>15</v>
@@ -24197,46 +24197,46 @@
         <v>45</v>
       </c>
       <c r="AM131" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AN131" t="n">
         <v>8.75</v>
       </c>
       <c r="AO131" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AP131" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ131" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR131" t="n">
         <v>200</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AT131" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AU131" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AV131" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AW131" t="n">
         <v>24</v>
       </c>
       <c r="AX131" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY131" t="n">
         <v>150</v>
       </c>
       <c r="AZ131" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA131" t="n">
         <v>51</v>
@@ -24248,7 +24248,7 @@
         <v>350</v>
       </c>
       <c r="BD131" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
     </row>
     <row r="132">
@@ -24677,10 +24677,10 @@
         <v>4</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R134" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S134" t="n">
         <v>1.33</v>
@@ -24829,7 +24829,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H135" t="n">
         <v>3</v>
@@ -24838,7 +24838,7 @@
         <v>3.2</v>
       </c>
       <c r="J135" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K135" t="n">
         <v>1.95</v>
@@ -24859,28 +24859,28 @@
         <v>2.63</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R135" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S135" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T135" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U135" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V135" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W135" t="n">
         <v>6.5</v>
       </c>
       <c r="X135" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y135" t="n">
         <v>10</v>
@@ -24907,7 +24907,7 @@
         <v>67</v>
       </c>
       <c r="AG135" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH135" t="n">
         <v>15</v>
@@ -24943,7 +24943,7 @@
         <v>251</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AT135" t="n">
         <v>9</v>
@@ -25041,10 +25041,10 @@
         <v>2.5</v>
       </c>
       <c r="Q136" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R136" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S136" t="n">
         <v>1.57</v>
@@ -25193,19 +25193,19 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H137" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I137" t="n">
         <v>3.5</v>
       </c>
       <c r="J137" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K137" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L137" t="n">
         <v>4.33</v>
@@ -25223,16 +25223,16 @@
         <v>3</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R137" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S137" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T137" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U137" t="n">
         <v>1.91</v>
@@ -25247,7 +25247,7 @@
         <v>9.5</v>
       </c>
       <c r="Y137" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z137" t="n">
         <v>19</v>
@@ -25256,10 +25256,10 @@
         <v>19</v>
       </c>
       <c r="AB137" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC137" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD137" t="n">
         <v>6.5</v>
@@ -25271,7 +25271,7 @@
         <v>51</v>
       </c>
       <c r="AG137" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH137" t="n">
         <v>17</v>
@@ -25283,7 +25283,7 @@
         <v>41</v>
       </c>
       <c r="AK137" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL137" t="n">
         <v>41</v>
@@ -25295,7 +25295,7 @@
         <v>12</v>
       </c>
       <c r="AO137" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP137" t="n">
         <v>41</v>
@@ -25307,7 +25307,7 @@
         <v>201</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AT137" t="n">
         <v>8.5</v>
@@ -25322,7 +25322,7 @@
         <v>21</v>
       </c>
       <c r="AX137" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY137" t="n">
         <v>67</v>
@@ -25739,28 +25739,28 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H140" t="n">
         <v>4</v>
       </c>
       <c r="I140" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J140" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K140" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L140" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M140" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N140" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O140" t="n">
         <v>1.2</v>
@@ -25775,37 +25775,37 @@
         <v>2.15</v>
       </c>
       <c r="S140" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T140" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U140" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V140" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W140" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X140" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y140" t="n">
         <v>8.5</v>
       </c>
       <c r="Z140" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA140" t="n">
         <v>12</v>
       </c>
       <c r="AB140" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC140" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD140" t="n">
         <v>8</v>
@@ -25835,7 +25835,7 @@
         <v>41</v>
       </c>
       <c r="AM140" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AN140" t="n">
         <v>8</v>
@@ -25853,7 +25853,7 @@
         <v>101</v>
       </c>
       <c r="AS140" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AT140" t="n">
         <v>8</v>
@@ -25883,10 +25883,10 @@
         <v>81</v>
       </c>
       <c r="BC140" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD140" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="141">
@@ -25921,88 +25921,88 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="H141" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I141" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="J141" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K141" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="L141" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M141" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N141" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O141" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P141" t="n">
-        <v>4.45</v>
+        <v>4.15</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="R141" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="S141" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="T141" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="U141" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="V141" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="W141" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X141" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y141" t="n">
         <v>10.25</v>
       </c>
       <c r="Z141" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF141" t="n">
         <v>37</v>
       </c>
-      <c r="AA141" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB141" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC141" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD141" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE141" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF141" t="n">
-        <v>32</v>
-      </c>
       <c r="AG141" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH141" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI141" t="n">
         <v>9</v>
@@ -26014,49 +26014,49 @@
         <v>16</v>
       </c>
       <c r="AL141" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO141" t="n">
         <v>19</v>
       </c>
-      <c r="AM141" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AN141" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO141" t="n">
-        <v>17</v>
-      </c>
       <c r="AP141" t="n">
+        <v>65</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>40</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ141" t="n">
         <v>55</v>
-      </c>
-      <c r="AQ141" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR141" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS141" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AT141" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AU141" t="n">
-        <v>37</v>
-      </c>
-      <c r="AV141" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AW141" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AX141" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY141" t="n">
-        <v>45</v>
-      </c>
-      <c r="AZ141" t="n">
-        <v>60</v>
       </c>
       <c r="BA141" t="n">
         <v>500</v>
@@ -26066,7 +26066,7 @@
         <v>150</v>
       </c>
       <c r="BD141" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="142">
@@ -26279,22 +26279,22 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="H143" t="n">
         <v>4.9</v>
       </c>
       <c r="I143" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="J143" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="K143" t="n">
         <v>2.5</v>
       </c>
       <c r="L143" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="M143" t="n">
         <v>1.03</v>
@@ -26306,13 +26306,13 @@
         <v>1.18</v>
       </c>
       <c r="P143" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="Q143" t="n">
         <v>1.55</v>
       </c>
       <c r="R143" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S143" t="n">
         <v>1.3</v>
@@ -26327,22 +26327,22 @@
         <v>1.82</v>
       </c>
       <c r="W143" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X143" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Y143" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z143" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AA143" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB143" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC143" t="n">
         <v>9</v>
@@ -26357,16 +26357,16 @@
         <v>80</v>
       </c>
       <c r="AG143" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AH143" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AI143" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ143" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK143" t="n">
         <v>10.5</v>
@@ -26375,16 +26375,16 @@
         <v>25</v>
       </c>
       <c r="AM143" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN143" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO143" t="n">
         <v>45</v>
       </c>
-      <c r="AO143" t="n">
-        <v>40</v>
-      </c>
       <c r="AP143" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AQ143" t="n">
         <v>300</v>
@@ -26399,19 +26399,19 @@
         <v>8.25</v>
       </c>
       <c r="AU143" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AV143" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AW143" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AX143" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AY143" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AZ143" t="n">
         <v>40</v>
@@ -27388,7 +27388,7 @@
         <v>1.06</v>
       </c>
       <c r="N149" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O149" t="n">
         <v>1.33</v>
@@ -27549,10 +27549,10 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H150" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I150" t="n">
         <v>5.5</v>
@@ -27570,7 +27570,7 @@
         <v>1.08</v>
       </c>
       <c r="N150" t="n">
-        <v>7.95</v>
+        <v>7.9</v>
       </c>
       <c r="O150" t="n">
         <v>1.42</v>
@@ -27591,31 +27591,31 @@
         <v>2.35</v>
       </c>
       <c r="U150" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="V150" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="W150" t="n">
         <v>5.1</v>
       </c>
       <c r="X150" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y150" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z150" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA150" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB150" t="n">
         <v>40</v>
       </c>
       <c r="AC150" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AD150" t="n">
         <v>6.8</v>
@@ -27627,22 +27627,22 @@
         <v>150</v>
       </c>
       <c r="AG150" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH150" t="n">
         <v>30</v>
       </c>
       <c r="AI150" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ150" t="n">
         <v>120</v>
       </c>
       <c r="AK150" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL150" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM150" t="n">
         <v>3.25</v>
@@ -27657,22 +27657,22 @@
         <v>28</v>
       </c>
       <c r="AQ150" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR150" t="n">
         <v>350</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="AT150" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AU150" t="n">
         <v>100</v>
       </c>
       <c r="AV150" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AW150" t="n">
         <v>35</v>
@@ -27729,34 +27729,34 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H151" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I151" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J151" t="n">
         <v>2.5</v>
       </c>
       <c r="K151" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L151" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="M151" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N151" t="n">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="O151" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P151" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="Q151" t="n">
         <v>1.98</v>
@@ -27765,25 +27765,25 @@
         <v>1.65</v>
       </c>
       <c r="S151" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T151" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U151" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V151" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W151" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X151" t="n">
         <v>8.5</v>
       </c>
       <c r="Y151" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z151" t="n">
         <v>16</v>
@@ -27792,13 +27792,13 @@
         <v>16</v>
       </c>
       <c r="AB151" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC151" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD151" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE151" t="n">
         <v>16.5</v>
@@ -27810,22 +27810,22 @@
         <v>9.75</v>
       </c>
       <c r="AH151" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI151" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ151" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK151" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL151" t="n">
         <v>45</v>
       </c>
       <c r="AM151" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AN151" t="n">
         <v>9.5</v>
@@ -27837,31 +27837,31 @@
         <v>35</v>
       </c>
       <c r="AQ151" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR151" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="AT151" t="n">
         <v>7.5</v>
       </c>
       <c r="AU151" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AV151" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AW151" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX151" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY151" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AZ151" t="n">
         <v>150</v>
@@ -27911,46 +27911,46 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H152" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I152" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="J152" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="K152" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L152" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="M152" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N152" t="n">
-        <v>9.85</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="O152" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P152" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R152" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S152" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="T152" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U152" t="n">
         <v>1.98</v>
@@ -27962,16 +27962,16 @@
         <v>5.7</v>
       </c>
       <c r="X152" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="Y152" t="n">
         <v>8.25</v>
       </c>
       <c r="Z152" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AA152" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB152" t="n">
         <v>32</v>
@@ -27980,43 +27980,43 @@
         <v>8.5</v>
       </c>
       <c r="AD152" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AE152" t="n">
         <v>19</v>
       </c>
       <c r="AF152" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG152" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH152" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AI152" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AJ152" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK152" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL152" t="n">
         <v>70</v>
       </c>
       <c r="AM152" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AN152" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AO152" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AP152" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ152" t="n">
         <v>60</v>
@@ -28025,25 +28025,25 @@
         <v>250</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AT152" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AU152" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AV152" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AW152" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AX152" t="n">
         <v>37</v>
       </c>
       <c r="AY152" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AZ152" t="n">
         <v>250</v>
@@ -28451,22 +28451,22 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="H155" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I155" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="J155" t="n">
-        <v>2.45</v>
+        <v>2.22</v>
       </c>
       <c r="K155" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L155" t="n">
-        <v>4.05</v>
+        <v>4.65</v>
       </c>
       <c r="M155" t="n">
         <v>1.04</v>
@@ -28475,126 +28475,126 @@
         <v>8.25</v>
       </c>
       <c r="O155" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P155" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q155" t="n">
         <v>1.65</v>
       </c>
       <c r="R155" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S155" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T155" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U155" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V155" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="W155" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X155" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y155" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z155" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA155" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AB155" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC155" t="n">
         <v>8.25</v>
       </c>
       <c r="AD155" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AT155" t="n">
         <v>6.9</v>
       </c>
-      <c r="AE155" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF155" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG155" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH155" t="n">
+      <c r="AU155" t="n">
+        <v>55</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AW155" t="n">
         <v>25</v>
       </c>
-      <c r="AI155" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ155" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK155" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL155" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM155" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AN155" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO155" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP155" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ155" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR155" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS155" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT155" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AU155" t="n">
-        <v>50</v>
-      </c>
-      <c r="AV155" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW155" t="n">
-        <v>20</v>
-      </c>
       <c r="AX155" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AY155" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AZ155" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="BA155" t="inlineStr"/>
       <c r="BB155" t="inlineStr"/>
       <c r="BC155" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD155" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
     </row>
     <row r="156">
@@ -28807,22 +28807,22 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="H157" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I157" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J157" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="K157" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L157" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M157" t="n">
         <v>1.04</v>
@@ -28843,31 +28843,31 @@
         <v>2.05</v>
       </c>
       <c r="S157" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T157" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="U157" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V157" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="W157" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X157" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="Y157" t="n">
         <v>8.25</v>
       </c>
       <c r="Z157" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AA157" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB157" t="n">
         <v>22</v>
@@ -28876,81 +28876,81 @@
         <v>8.25</v>
       </c>
       <c r="AD157" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE157" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF157" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG157" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH157" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI157" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ157" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ157" t="n">
         <v>60</v>
-      </c>
-      <c r="AK157" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL157" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM157" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AN157" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AO157" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AP157" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ157" t="n">
-        <v>55</v>
       </c>
       <c r="AR157" t="n">
         <v>200</v>
       </c>
       <c r="AS157" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AT157" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AU157" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AV157" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AW157" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX157" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY157" t="n">
+        <v>90</v>
+      </c>
+      <c r="AZ157" t="n">
         <v>110</v>
-      </c>
-      <c r="AZ157" t="n">
-        <v>120</v>
       </c>
       <c r="BA157" t="inlineStr"/>
       <c r="BB157" t="inlineStr"/>
       <c r="BC157" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD157" t="n">
         <v>300</v>
-      </c>
-      <c r="BD157" t="n">
-        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-12-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-14.xlsx
@@ -789,13 +789,13 @@
         <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>6</v>
@@ -822,28 +822,28 @@
         <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AK2" t="n">
         <v>101</v>
       </c>
       <c r="AL2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AN2" t="n">
         <v>5.5</v>
@@ -882,7 +882,7 @@
         <v>351</v>
       </c>
       <c r="AZ2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA2" t="n">
         <v>140</v>
@@ -942,13 +942,13 @@
         <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
         <v>1.14</v>
@@ -957,10 +957,10 @@
         <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
@@ -969,16 +969,16 @@
         <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -987,16 +987,16 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
         <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1038,7 +1038,7 @@
         <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
         <v>3.75</v>
@@ -1059,10 +1059,10 @@
         <v>34</v>
       </c>
       <c r="AY3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
         <v>501</v>
@@ -1074,7 +1074,7 @@
         <v>201</v>
       </c>
       <c r="BD3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
@@ -1139,10 +1139,10 @@
         <v>6</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S4" t="n">
         <v>1.22</v>
@@ -1315,10 +1315,10 @@
         <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
         <v>1.73</v>
@@ -1503,10 +1503,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1521,7 +1521,7 @@
         <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
@@ -1548,7 +1548,7 @@
         <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
@@ -1614,7 +1614,7 @@
         <v>501</v>
       </c>
       <c r="BB6" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="BC6" t="n">
         <v>151</v>
@@ -1685,10 +1685,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1843,7 +1843,7 @@
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="J8" t="n">
         <v>4.33</v>
@@ -1867,10 +1867,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -2204,37 +2204,37 @@
         <v>5.75</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="J10" t="n">
         <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>
@@ -2243,13 +2243,13 @@
         <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
         <v>29</v>
@@ -2276,7 +2276,7 @@
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
         <v>8</v>
@@ -2300,10 +2300,10 @@
         <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP10" t="n">
         <v>101</v>
@@ -2330,7 +2330,7 @@
         <v>8</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>23</v>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
         <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K11" t="n">
         <v>2.63</v>
@@ -2425,13 +2425,13 @@
         <v>3.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
         <v>8.5</v>
@@ -2449,13 +2449,13 @@
         <v>19</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD11" t="n">
         <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
@@ -2479,7 +2479,7 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AN11" t="n">
         <v>6.5</v>
@@ -2506,7 +2506,7 @@
         <v>41</v>
       </c>
       <c r="AV11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AW11" t="n">
         <v>29</v>
@@ -2524,7 +2524,7 @@
         <v>401</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="BC11" t="n">
         <v>151</v>
@@ -2568,7 +2568,7 @@
         <v>6.5</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I12" t="n">
         <v>1.48</v>
@@ -2577,10 +2577,10 @@
         <v>5.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2595,28 +2595,28 @@
         <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S12" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="W12" t="n">
         <v>21</v>
       </c>
       <c r="X12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y12" t="n">
         <v>19</v>
@@ -2631,7 +2631,7 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
         <v>8.5</v>
@@ -2643,10 +2643,10 @@
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
         <v>8.5</v>
@@ -2661,7 +2661,7 @@
         <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN12" t="n">
         <v>29</v>
@@ -2679,16 +2679,16 @@
         <v>151</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AT12" t="n">
         <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AV12" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AW12" t="n">
         <v>7</v>
@@ -2697,19 +2697,19 @@
         <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BB12" t="n">
         <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2771,16 +2771,16 @@
         <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="R13" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="S13" t="n">
         <v>1.44</v>
@@ -3475,13 +3475,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H17" t="n">
         <v>5.25</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J17" t="n">
         <v>1.8</v>
@@ -3490,7 +3490,7 @@
         <v>2.4</v>
       </c>
       <c r="L17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -3505,10 +3505,10 @@
         <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
         <v>1.36</v>
@@ -3517,22 +3517,22 @@
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X17" t="n">
         <v>6</v>
-      </c>
-      <c r="X17" t="n">
-        <v>5.5</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA17" t="n">
         <v>12</v>
@@ -3541,43 +3541,43 @@
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
         <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>101</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>126</v>
       </c>
       <c r="AK17" t="n">
         <v>67</v>
       </c>
       <c r="AL17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AN17" t="n">
         <v>6</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP17" t="n">
         <v>17</v>
@@ -3592,22 +3592,22 @@
         <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AV17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AW17" t="n">
         <v>41</v>
       </c>
       <c r="AX17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AZ17" t="n">
         <v>251</v>
@@ -3619,7 +3619,7 @@
         <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD17" t="n">
         <v>501</v>
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" t="n">
         <v>6.5</v>
@@ -3672,7 +3672,7 @@
         <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
@@ -3699,22 +3699,22 @@
         <v>4.33</v>
       </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X18" t="n">
         <v>67</v>
       </c>
       <c r="Y18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AA18" t="n">
         <v>81</v>
@@ -3729,19 +3729,19 @@
         <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
         <v>7.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
@@ -3756,16 +3756,16 @@
         <v>12</v>
       </c>
       <c r="AN18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO18" t="n">
         <v>41</v>
       </c>
       <c r="AP18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AQ18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AR18" t="n">
         <v>251</v>
@@ -3789,7 +3789,7 @@
         <v>15</v>
       </c>
       <c r="AY18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ18" t="n">
         <v>29</v>
@@ -3801,7 +3801,7 @@
         <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD18" t="n">
         <v>251</v>
@@ -3875,10 +3875,10 @@
         <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
         <v>1.8</v>
@@ -3911,7 +3911,7 @@
         <v>7.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>51</v>
@@ -3953,7 +3953,7 @@
         <v>126</v>
       </c>
       <c r="AS19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AT19" t="n">
         <v>8</v>
@@ -3965,7 +3965,7 @@
         <v>7</v>
       </c>
       <c r="AW19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AX19" t="n">
         <v>34</v>
@@ -4033,19 +4033,19 @@
         <v>1.57</v>
       </c>
       <c r="K20" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
         <v>10</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O20" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P20" t="n">
         <v>6.5</v>
@@ -4063,13 +4063,13 @@
         <v>4</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V20" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X20" t="n">
         <v>7</v>
@@ -4081,7 +4081,7 @@
         <v>7.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB20" t="n">
         <v>26</v>
@@ -4117,13 +4117,13 @@
         <v>67</v>
       </c>
       <c r="AM20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AN20" t="n">
         <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>12</v>
@@ -4165,10 +4165,10 @@
         <v>151</v>
       </c>
       <c r="BC20" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD20" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21">
@@ -4221,22 +4221,22 @@
         <v>3.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
         <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
         <v>1.5</v>
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
         <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V22" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
         <v>6.5</v>
@@ -4442,7 +4442,7 @@
         <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
@@ -4451,7 +4451,7 @@
         <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
@@ -4460,7 +4460,7 @@
         <v>17</v>
       </c>
       <c r="AF22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="n">
         <v>8</v>
@@ -4481,13 +4481,13 @@
         <v>41</v>
       </c>
       <c r="AM22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AN22" t="n">
         <v>13</v>
       </c>
       <c r="AO22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP22" t="n">
         <v>51</v>
@@ -4499,10 +4499,10 @@
         <v>251</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AU22" t="n">
         <v>67</v>
@@ -4511,10 +4511,10 @@
         <v>5</v>
       </c>
       <c r="AW22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY22" t="n">
         <v>67</v>
@@ -4529,10 +4529,10 @@
         <v>151</v>
       </c>
       <c r="BC22" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD22" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23">
@@ -4567,40 +4567,40 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
         <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
         <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
         <v>1.44</v>
@@ -4618,16 +4618,16 @@
         <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z23" t="n">
         <v>21</v>
       </c>
       <c r="AA23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="n">
         <v>29</v>
@@ -4639,7 +4639,7 @@
         <v>6</v>
       </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
         <v>51</v>
@@ -4666,7 +4666,7 @@
         <v>4.33</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
         <v>23</v>
@@ -4696,7 +4696,7 @@
         <v>19</v>
       </c>
       <c r="AX23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY23" t="n">
         <v>51</v>
@@ -4887,10 +4887,10 @@
         <v>41</v>
       </c>
       <c r="BA24" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB24" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC24" t="n">
         <v>126</v>
@@ -4982,7 +4982,7 @@
         <v>5.5</v>
       </c>
       <c r="X25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y25" t="n">
         <v>9.5</v>
@@ -5018,7 +5018,7 @@
         <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK25" t="n">
         <v>41</v>
@@ -5306,13 +5306,13 @@
         <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
         <v>1.57</v>
@@ -5351,7 +5351,7 @@
         <v>19</v>
       </c>
       <c r="AA27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB27" t="n">
         <v>41</v>
@@ -5396,7 +5396,7 @@
         <v>29</v>
       </c>
       <c r="AP27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ27" t="n">
         <v>81</v>
@@ -5435,7 +5435,7 @@
         <v>126</v>
       </c>
       <c r="BC27" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD27" t="n">
         <v>451</v>
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
         <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
@@ -5497,16 +5497,16 @@
         <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R28" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S28" t="n">
         <v>1.4</v>
@@ -5521,7 +5521,7 @@
         <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X28" t="n">
         <v>15</v>
@@ -5530,13 +5530,13 @@
         <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA28" t="n">
         <v>23</v>
       </c>
       <c r="AB28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC28" t="n">
         <v>10</v>
@@ -5551,16 +5551,16 @@
         <v>41</v>
       </c>
       <c r="AG28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>19</v>
@@ -5581,7 +5581,7 @@
         <v>51</v>
       </c>
       <c r="AQ28" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR28" t="n">
         <v>151</v>
@@ -5596,7 +5596,7 @@
         <v>51</v>
       </c>
       <c r="AV28" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AW28" t="n">
         <v>13</v>
@@ -5611,7 +5611,7 @@
         <v>67</v>
       </c>
       <c r="BA28" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB28" t="n">
         <v>151</v>
@@ -5667,10 +5667,10 @@
         <v>2.88</v>
       </c>
       <c r="K29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
@@ -5706,7 +5706,7 @@
         <v>9</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
         <v>9</v>
@@ -5742,10 +5742,10 @@
         <v>11</v>
       </c>
       <c r="AJ29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
         <v>29</v>
@@ -5837,13 +5837,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I30" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J30" t="n">
         <v>1.91</v>
@@ -5894,7 +5894,7 @@
         <v>8.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA30" t="n">
         <v>11</v>
@@ -5903,13 +5903,13 @@
         <v>19</v>
       </c>
       <c r="AC30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
         <v>41</v>
@@ -5924,7 +5924,7 @@
         <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK30" t="n">
         <v>41</v>
@@ -5939,7 +5939,7 @@
         <v>7</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
         <v>19</v>
@@ -6043,10 +6043,10 @@
         <v>19</v>
       </c>
       <c r="O31" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P31" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q31" t="n">
         <v>1.44</v>
@@ -6386,10 +6386,10 @@
         <v>1.2</v>
       </c>
       <c r="H33" t="n">
+        <v>8</v>
+      </c>
+      <c r="I33" t="n">
         <v>8.5</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9.5</v>
       </c>
       <c r="J33" t="n">
         <v>1.57</v>
@@ -6398,13 +6398,13 @@
         <v>2.88</v>
       </c>
       <c r="L33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M33" t="n">
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O33" t="n">
         <v>1.13</v>
@@ -6425,40 +6425,40 @@
         <v>4</v>
       </c>
       <c r="U33" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V33" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="W33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X33" t="n">
         <v>7</v>
       </c>
       <c r="Y33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z33" t="n">
         <v>7.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC33" t="n">
         <v>23</v>
       </c>
       <c r="AD33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE33" t="n">
         <v>29</v>
       </c>
       <c r="AF33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG33" t="n">
         <v>23</v>
@@ -6467,25 +6467,25 @@
         <v>51</v>
       </c>
       <c r="AI33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ33" t="n">
         <v>126</v>
       </c>
       <c r="AK33" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL33" t="n">
         <v>51</v>
       </c>
       <c r="AM33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AN33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP33" t="n">
         <v>12</v>
@@ -6500,7 +6500,7 @@
         <v>4</v>
       </c>
       <c r="AT33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AU33" t="n">
         <v>51</v>
@@ -6515,7 +6515,7 @@
         <v>41</v>
       </c>
       <c r="AY33" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AZ33" t="n">
         <v>201</v>
@@ -6527,10 +6527,10 @@
         <v>151</v>
       </c>
       <c r="BC33" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD33" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34">
@@ -6565,7 +6565,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H34" t="n">
         <v>3.05</v>
@@ -6574,10 +6574,10 @@
         <v>3.25</v>
       </c>
       <c r="J34" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="K34" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L34" t="n">
         <v>3.85</v>
@@ -6586,25 +6586,25 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P34" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R34" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S34" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T34" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="U34" t="n">
         <v>1.8</v>
@@ -6613,34 +6613,34 @@
         <v>1.8</v>
       </c>
       <c r="W34" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X34" t="n">
         <v>10.25</v>
       </c>
       <c r="Y34" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z34" t="n">
         <v>22</v>
       </c>
       <c r="AA34" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC34" t="n">
         <v>7.9</v>
       </c>
       <c r="AD34" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AE34" t="n">
         <v>15</v>
       </c>
       <c r="AF34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG34" t="n">
         <v>8.5</v>
@@ -6664,25 +6664,25 @@
         <v>4</v>
       </c>
       <c r="AN34" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AO34" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP34" t="n">
         <v>45</v>
       </c>
       <c r="AQ34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR34" t="n">
         <v>250</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT34" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AU34" t="n">
         <v>65</v>
@@ -6691,10 +6691,10 @@
         <v>5.1</v>
       </c>
       <c r="AW34" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AX34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY34" t="n">
         <v>100</v>
@@ -6705,7 +6705,7 @@
       <c r="BA34" t="inlineStr"/>
       <c r="BB34" t="inlineStr"/>
       <c r="BC34" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD34" t="n">
         <v>700</v>
@@ -6764,7 +6764,7 @@
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O35" t="n">
         <v>1.42</v>
@@ -6927,7 +6927,7 @@
         <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J36" t="n">
         <v>3.75</v>
@@ -6939,10 +6939,10 @@
         <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O36" t="n">
         <v>1.3</v>
@@ -6951,16 +6951,16 @@
         <v>3.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S36" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T36" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U36" t="n">
         <v>1.8</v>
@@ -6987,7 +6987,7 @@
         <v>34</v>
       </c>
       <c r="AC36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD36" t="n">
         <v>6.5</v>
@@ -6999,13 +6999,13 @@
         <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH36" t="n">
         <v>11</v>
       </c>
       <c r="AI36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ36" t="n">
         <v>21</v>
@@ -7020,7 +7020,7 @@
         <v>5</v>
       </c>
       <c r="AN36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO36" t="n">
         <v>26</v>
@@ -7035,7 +7035,7 @@
         <v>201</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AT36" t="n">
         <v>8</v>
@@ -7315,10 +7315,10 @@
         <v>3.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R38" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S38" t="n">
         <v>1.44</v>
@@ -7467,7 +7467,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
@@ -7482,7 +7482,7 @@
         <v>2.2</v>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
@@ -7518,7 +7518,7 @@
         <v>11</v>
       </c>
       <c r="X39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y39" t="n">
         <v>11</v>
@@ -7560,13 +7560,13 @@
         <v>17</v>
       </c>
       <c r="AL39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM39" t="n">
         <v>5</v>
       </c>
       <c r="AN39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO39" t="n">
         <v>23</v>
@@ -7593,7 +7593,7 @@
         <v>4.5</v>
       </c>
       <c r="AW39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX39" t="n">
         <v>21</v>
@@ -7649,13 +7649,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H40" t="n">
         <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
@@ -7664,7 +7664,7 @@
         <v>2.3</v>
       </c>
       <c r="L40" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M40" t="n">
         <v>1.03</v>
@@ -7673,22 +7673,22 @@
         <v>15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P40" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S40" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T40" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U40" t="n">
         <v>1.53</v>
@@ -7703,13 +7703,13 @@
         <v>13</v>
       </c>
       <c r="Y40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z40" t="n">
         <v>23</v>
       </c>
       <c r="AA40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB40" t="n">
         <v>23</v>
@@ -7718,7 +7718,7 @@
         <v>15</v>
       </c>
       <c r="AD40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE40" t="n">
         <v>12</v>
@@ -7727,7 +7727,7 @@
         <v>41</v>
       </c>
       <c r="AG40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH40" t="n">
         <v>15</v>
@@ -7736,7 +7736,7 @@
         <v>10</v>
       </c>
       <c r="AJ40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK40" t="n">
         <v>19</v>
@@ -7760,10 +7760,10 @@
         <v>51</v>
       </c>
       <c r="AR40" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS40" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AT40" t="n">
         <v>7</v>
@@ -7775,7 +7775,7 @@
         <v>5</v>
       </c>
       <c r="AW40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX40" t="n">
         <v>21</v>
@@ -7843,46 +7843,46 @@
         <v>1.3</v>
       </c>
       <c r="K41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M41" t="n">
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O41" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="S41" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="T41" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U41" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y41" t="n">
         <v>15</v>
@@ -7897,7 +7897,7 @@
         <v>41</v>
       </c>
       <c r="AC41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD41" t="n">
         <v>23</v>
@@ -7906,7 +7906,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG41" t="n">
         <v>51</v>
@@ -7921,13 +7921,13 @@
         <v>351</v>
       </c>
       <c r="AK41" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL41" t="n">
         <v>126</v>
       </c>
       <c r="AM41" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AN41" t="n">
         <v>4.33</v>
@@ -7942,16 +7942,16 @@
         <v>29</v>
       </c>
       <c r="AR41" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS41" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AT41" t="n">
         <v>13</v>
       </c>
       <c r="AU41" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AV41" t="n">
         <v>21</v>
@@ -8009,22 +8009,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="H42" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="J42" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="K42" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L42" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="M42" t="n">
         <v>1.05</v>
@@ -8033,115 +8033,115 @@
         <v>11</v>
       </c>
       <c r="O42" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R42" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S42" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U42" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="V42" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="W42" t="n">
+        <v>12</v>
+      </c>
+      <c r="X42" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y42" t="n">
         <v>13</v>
       </c>
-      <c r="X42" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>15</v>
-      </c>
       <c r="Z42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB42" t="n">
         <v>34</v>
       </c>
-      <c r="AB42" t="n">
-        <v>41</v>
-      </c>
       <c r="AC42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD42" t="n">
         <v>7</v>
       </c>
       <c r="AE42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH42" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI42" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ42" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK42" t="n">
         <v>15</v>
       </c>
       <c r="AL42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO42" t="n">
         <v>26</v>
       </c>
-      <c r="AM42" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO42" t="n">
+      <c r="AP42" t="n">
+        <v>67</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY42" t="n">
         <v>34</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>81</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>51</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>29</v>
       </c>
       <c r="AZ42" t="n">
         <v>51</v>
@@ -8149,10 +8149,10 @@
       <c r="BA42" t="inlineStr"/>
       <c r="BB42" t="inlineStr"/>
       <c r="BC42" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD42" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43">
@@ -8211,16 +8211,16 @@
         <v>13</v>
       </c>
       <c r="O43" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R43" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S43" t="n">
         <v>1.33</v>
@@ -8383,10 +8383,10 @@
         <v>6</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O44" t="n">
         <v>1.22</v>
@@ -8725,22 +8725,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J46" t="n">
         <v>2.38</v>
       </c>
       <c r="K46" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L46" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
         <v>1.07</v>
@@ -8749,16 +8749,16 @@
         <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P46" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R46" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S46" t="n">
         <v>1.5</v>
@@ -8782,7 +8782,7 @@
         <v>9</v>
       </c>
       <c r="Z46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA46" t="n">
         <v>15</v>
@@ -8803,10 +8803,10 @@
         <v>67</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI46" t="n">
         <v>17</v>
@@ -8830,7 +8830,7 @@
         <v>23</v>
       </c>
       <c r="AP46" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ46" t="n">
         <v>51</v>
@@ -8848,7 +8848,7 @@
         <v>67</v>
       </c>
       <c r="AV46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AW46" t="n">
         <v>29</v>
@@ -8907,88 +8907,88 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H47" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I47" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="J47" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="K47" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L47" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P47" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="Q47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U47" t="n">
         <v>1.78</v>
       </c>
-      <c r="R47" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V47" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W47" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="X47" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Y47" t="n">
         <v>8.75</v>
       </c>
       <c r="Z47" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA47" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB47" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD47" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AE47" t="n">
         <v>16</v>
       </c>
       <c r="AF47" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG47" t="n">
         <v>12.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI47" t="n">
         <v>15</v>
@@ -9006,28 +9006,28 @@
         <v>3.6</v>
       </c>
       <c r="AN47" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AO47" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ47" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR47" t="n">
         <v>250</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="AT47" t="n">
         <v>7.4</v>
       </c>
       <c r="AU47" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AV47" t="n">
         <v>6.1</v>
@@ -9036,7 +9036,7 @@
         <v>24</v>
       </c>
       <c r="AX47" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY47" t="n">
         <v>150</v>
@@ -9263,19 +9263,19 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I49" t="n">
         <v>1.9</v>
       </c>
       <c r="J49" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K49" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L49" t="n">
         <v>2.6</v>
@@ -9287,16 +9287,16 @@
         <v>9</v>
       </c>
       <c r="O49" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P49" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R49" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S49" t="n">
         <v>1.44</v>
@@ -9305,13 +9305,13 @@
         <v>2.63</v>
       </c>
       <c r="U49" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V49" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X49" t="n">
         <v>21</v>
@@ -9320,40 +9320,40 @@
         <v>15</v>
       </c>
       <c r="Z49" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB49" t="n">
         <v>41</v>
       </c>
       <c r="AC49" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD49" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG49" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>7</v>
       </c>
       <c r="AH49" t="n">
         <v>8.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ49" t="n">
         <v>15</v>
       </c>
       <c r="AK49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL49" t="n">
         <v>29</v>
@@ -9371,10 +9371,10 @@
         <v>81</v>
       </c>
       <c r="AQ49" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR49" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AS49" t="n">
         <v>2.63</v>
@@ -9383,7 +9383,7 @@
         <v>8.5</v>
       </c>
       <c r="AU49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AV49" t="n">
         <v>3.75</v>
@@ -9392,10 +9392,10 @@
         <v>10</v>
       </c>
       <c r="AX49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ49" t="n">
         <v>51</v>
@@ -9407,10 +9407,10 @@
         <v>81</v>
       </c>
       <c r="BC49" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD49" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50">
@@ -9627,13 +9627,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J51" t="n">
         <v>4</v>
@@ -9642,13 +9642,13 @@
         <v>2.1</v>
       </c>
       <c r="L51" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M51" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O51" t="n">
         <v>1.29</v>
@@ -9669,13 +9669,13 @@
         <v>2.75</v>
       </c>
       <c r="U51" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V51" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X51" t="n">
         <v>17</v>
@@ -9684,19 +9684,19 @@
         <v>12</v>
       </c>
       <c r="Z51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB51" t="n">
         <v>34</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD51" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE51" t="n">
         <v>13</v>
@@ -9714,16 +9714,16 @@
         <v>9</v>
       </c>
       <c r="AJ51" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK51" t="n">
         <v>17</v>
       </c>
       <c r="AL51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM51" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AN51" t="n">
         <v>19</v>
@@ -9732,7 +9732,7 @@
         <v>26</v>
       </c>
       <c r="AP51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ51" t="n">
         <v>81</v>
@@ -9750,7 +9750,7 @@
         <v>51</v>
       </c>
       <c r="AV51" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AW51" t="n">
         <v>12</v>
@@ -9774,7 +9774,7 @@
         <v>151</v>
       </c>
       <c r="BD51" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52">
@@ -9809,46 +9809,46 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H52" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I52" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N52" t="n">
+        <v>15</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R52" t="n">
         <v>2.1</v>
       </c>
-      <c r="K52" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L52" t="n">
-        <v>6</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N52" t="n">
-        <v>13</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P52" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R52" t="n">
-        <v>2.08</v>
-      </c>
       <c r="S52" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T52" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U52" t="n">
         <v>1.91</v>
@@ -9857,16 +9857,16 @@
         <v>1.91</v>
       </c>
       <c r="W52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X52" t="n">
         <v>7</v>
-      </c>
-      <c r="X52" t="n">
-        <v>7.5</v>
       </c>
       <c r="Y52" t="n">
         <v>8.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA52" t="n">
         <v>12</v>
@@ -9875,10 +9875,10 @@
         <v>26</v>
       </c>
       <c r="AC52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD52" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE52" t="n">
         <v>17</v>
@@ -9887,10 +9887,10 @@
         <v>51</v>
       </c>
       <c r="AG52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI52" t="n">
         <v>19</v>
@@ -9908,13 +9908,13 @@
         <v>3.5</v>
       </c>
       <c r="AN52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ52" t="n">
         <v>41</v>
@@ -9923,7 +9923,7 @@
         <v>126</v>
       </c>
       <c r="AS52" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AT52" t="n">
         <v>8.5</v>
@@ -9932,16 +9932,16 @@
         <v>51</v>
       </c>
       <c r="AV52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AW52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AX52" t="n">
         <v>34</v>
       </c>
       <c r="AY52" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AZ52" t="n">
         <v>126</v>
@@ -9956,7 +9956,7 @@
         <v>251</v>
       </c>
       <c r="BD52" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53">
@@ -9991,22 +9991,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I53" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J53" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K53" t="n">
         <v>2.2</v>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
@@ -10027,10 +10027,10 @@
         <v>1.95</v>
       </c>
       <c r="S53" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T53" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U53" t="n">
         <v>1.73</v>
@@ -10039,13 +10039,13 @@
         <v>2</v>
       </c>
       <c r="W53" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X53" t="n">
         <v>9.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z53" t="n">
         <v>17</v>
@@ -10069,10 +10069,10 @@
         <v>51</v>
       </c>
       <c r="AG53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI53" t="n">
         <v>13</v>
@@ -10090,7 +10090,7 @@
         <v>4</v>
       </c>
       <c r="AN53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO53" t="n">
         <v>21</v>
@@ -10105,7 +10105,7 @@
         <v>151</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AT53" t="n">
         <v>8</v>
@@ -10114,7 +10114,7 @@
         <v>51</v>
       </c>
       <c r="AV53" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AW53" t="n">
         <v>21</v>
@@ -10310,7 +10310,7 @@
         <v>126</v>
       </c>
       <c r="BB54" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC54" t="n">
         <v>251</v>
@@ -10351,19 +10351,19 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I55" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
         <v>2.3</v>
       </c>
       <c r="K55" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L55" t="n">
         <v>4.75</v>
@@ -10387,10 +10387,10 @@
         <v>2</v>
       </c>
       <c r="S55" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T55" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U55" t="n">
         <v>1.73</v>
@@ -10423,7 +10423,7 @@
         <v>7</v>
       </c>
       <c r="AE55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF55" t="n">
         <v>41</v>
@@ -10441,7 +10441,7 @@
         <v>51</v>
       </c>
       <c r="AK55" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL55" t="n">
         <v>41</v>
@@ -10459,13 +10459,13 @@
         <v>29</v>
       </c>
       <c r="AQ55" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR55" t="n">
         <v>126</v>
       </c>
       <c r="AS55" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AT55" t="n">
         <v>8</v>
@@ -10533,22 +10533,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H56" t="n">
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J56" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K56" t="n">
         <v>2.1</v>
       </c>
       <c r="L56" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M56" t="n">
         <v>1.06</v>
@@ -10587,7 +10587,7 @@
         <v>23</v>
       </c>
       <c r="Y56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z56" t="n">
         <v>51</v>
@@ -10596,10 +10596,10 @@
         <v>41</v>
       </c>
       <c r="AB56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD56" t="n">
         <v>7.5</v>
@@ -10626,7 +10626,7 @@
         <v>15</v>
       </c>
       <c r="AL56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM56" t="n">
         <v>7</v>
@@ -10659,7 +10659,7 @@
         <v>3.5</v>
       </c>
       <c r="AW56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX56" t="n">
         <v>21</v>
@@ -10671,13 +10671,13 @@
         <v>51</v>
       </c>
       <c r="BA56" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB56" t="n">
         <v>151</v>
       </c>
       <c r="BC56" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD56" t="n">
         <v>501</v>
@@ -10927,10 +10927,10 @@
         <v>3.4</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R58" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S58" t="n">
         <v>1.44</v>
@@ -11079,13 +11079,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H59" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I59" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J59" t="n">
         <v>4</v>
@@ -11094,7 +11094,7 @@
         <v>2.05</v>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M59" t="n">
         <v>1.07</v>
@@ -11127,16 +11127,16 @@
         <v>1.83</v>
       </c>
       <c r="W59" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y59" t="n">
         <v>12</v>
       </c>
       <c r="Z59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA59" t="n">
         <v>29</v>
@@ -11163,10 +11163,10 @@
         <v>10</v>
       </c>
       <c r="AI59" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ59" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK59" t="n">
         <v>19</v>
@@ -11175,7 +11175,7 @@
         <v>29</v>
       </c>
       <c r="AM59" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AN59" t="n">
         <v>19</v>
@@ -11187,25 +11187,25 @@
         <v>67</v>
       </c>
       <c r="AQ59" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR59" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AS59" t="n">
         <v>2.63</v>
       </c>
       <c r="AT59" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AU59" t="n">
         <v>51</v>
       </c>
       <c r="AV59" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AW59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX59" t="n">
         <v>23</v>
@@ -11220,7 +11220,7 @@
         <v>126</v>
       </c>
       <c r="BB59" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC59" t="n">
         <v>201</v>
@@ -11282,7 +11282,7 @@
         <v>1.03</v>
       </c>
       <c r="N60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O60" t="n">
         <v>1.2</v>
@@ -11443,10 +11443,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I61" t="n">
         <v>3.25</v>
@@ -11455,7 +11455,7 @@
         <v>2.88</v>
       </c>
       <c r="K61" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L61" t="n">
         <v>3.75</v>
@@ -11473,25 +11473,25 @@
         <v>3.75</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R61" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S61" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T61" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U61" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V61" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W61" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X61" t="n">
         <v>11</v>
@@ -11509,7 +11509,7 @@
         <v>26</v>
       </c>
       <c r="AC61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD61" t="n">
         <v>6.5</v>
@@ -11521,7 +11521,7 @@
         <v>41</v>
       </c>
       <c r="AG61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH61" t="n">
         <v>17</v>
@@ -11536,7 +11536,7 @@
         <v>26</v>
       </c>
       <c r="AL61" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM61" t="n">
         <v>4.33</v>
@@ -11557,10 +11557,10 @@
         <v>151</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AT61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AU61" t="n">
         <v>51</v>
@@ -11578,7 +11578,7 @@
         <v>51</v>
       </c>
       <c r="AZ61" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA61" t="n">
         <v>151</v>
@@ -11590,7 +11590,7 @@
         <v>151</v>
       </c>
       <c r="BD61" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62">
@@ -11625,28 +11625,28 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
         <v>3.2</v>
       </c>
       <c r="I62" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J62" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K62" t="n">
         <v>2.05</v>
       </c>
       <c r="L62" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M62" t="n">
         <v>1.07</v>
       </c>
       <c r="N62" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O62" t="n">
         <v>1.36</v>
@@ -11685,7 +11685,7 @@
         <v>26</v>
       </c>
       <c r="AA62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB62" t="n">
         <v>34</v>
@@ -11709,7 +11709,7 @@
         <v>13</v>
       </c>
       <c r="AI62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ62" t="n">
         <v>29</v>
@@ -11831,16 +11831,16 @@
         <v>11</v>
       </c>
       <c r="O63" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P63" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S63" t="n">
         <v>1.4</v>
@@ -12007,10 +12007,10 @@
         <v>6.5</v>
       </c>
       <c r="M64" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N64" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O64" t="n">
         <v>1.3</v>
@@ -12019,10 +12019,10 @@
         <v>3.4</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R64" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S64" t="n">
         <v>1.4</v>
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H65" t="n">
         <v>6</v>
@@ -12189,10 +12189,10 @@
         <v>9</v>
       </c>
       <c r="M65" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O65" t="n">
         <v>1.14</v>
@@ -12201,25 +12201,25 @@
         <v>5.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R65" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S65" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T65" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U65" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V65" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X65" t="n">
         <v>6.5</v>
@@ -12237,10 +12237,10 @@
         <v>29</v>
       </c>
       <c r="AC65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE65" t="n">
         <v>23</v>
@@ -12279,19 +12279,19 @@
         <v>13</v>
       </c>
       <c r="AQ65" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR65" t="n">
         <v>126</v>
       </c>
       <c r="AS65" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AT65" t="n">
         <v>10</v>
       </c>
       <c r="AU65" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AV65" t="n">
         <v>11</v>
@@ -12383,10 +12383,10 @@
         <v>3.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R66" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S66" t="n">
         <v>1.4</v>
@@ -12547,7 +12547,7 @@
         <v>3.75</v>
       </c>
       <c r="K67" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L67" t="n">
         <v>2.75</v>
@@ -12559,16 +12559,16 @@
         <v>13</v>
       </c>
       <c r="O67" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P67" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R67" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S67" t="n">
         <v>1.36</v>
@@ -12577,13 +12577,13 @@
         <v>3</v>
       </c>
       <c r="U67" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V67" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W67" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X67" t="n">
         <v>17</v>
@@ -12601,7 +12601,7 @@
         <v>29</v>
       </c>
       <c r="AC67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD67" t="n">
         <v>7</v>
@@ -12613,7 +12613,7 @@
         <v>41</v>
       </c>
       <c r="AG67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH67" t="n">
         <v>11</v>
@@ -12631,7 +12631,7 @@
         <v>23</v>
       </c>
       <c r="AM67" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AN67" t="n">
         <v>17</v>
@@ -12717,13 +12717,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H68" t="n">
         <v>3.6</v>
       </c>
       <c r="I68" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J68" t="n">
         <v>2.5</v>
@@ -12747,10 +12747,10 @@
         <v>3.25</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R68" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S68" t="n">
         <v>1.44</v>
@@ -12759,10 +12759,10 @@
         <v>2.63</v>
       </c>
       <c r="U68" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V68" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W68" t="n">
         <v>6.5</v>
@@ -12801,13 +12801,13 @@
         <v>21</v>
       </c>
       <c r="AI68" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ68" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK68" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL68" t="n">
         <v>41</v>
@@ -12816,7 +12816,7 @@
         <v>3.75</v>
       </c>
       <c r="AN68" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO68" t="n">
         <v>21</v>
@@ -12849,7 +12849,7 @@
         <v>34</v>
       </c>
       <c r="AY68" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AZ68" t="n">
         <v>126</v>
@@ -12861,7 +12861,7 @@
         <v>126</v>
       </c>
       <c r="BC68" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD68" t="n">
         <v>401</v>
@@ -12902,16 +12902,16 @@
         <v>1.65</v>
       </c>
       <c r="H69" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I69" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J69" t="n">
         <v>2.2</v>
       </c>
       <c r="K69" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L69" t="n">
         <v>4.5</v>
@@ -12929,10 +12929,10 @@
         <v>6</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R69" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S69" t="n">
         <v>1.25</v>
@@ -12941,16 +12941,16 @@
         <v>3.75</v>
       </c>
       <c r="U69" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V69" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y69" t="n">
         <v>8.5</v>
@@ -12962,25 +12962,25 @@
         <v>12</v>
       </c>
       <c r="AB69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC69" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD69" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE69" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG69" t="n">
         <v>19</v>
       </c>
       <c r="AH69" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI69" t="n">
         <v>15</v>
@@ -12989,7 +12989,7 @@
         <v>51</v>
       </c>
       <c r="AK69" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL69" t="n">
         <v>29</v>
@@ -12998,7 +12998,7 @@
         <v>4</v>
       </c>
       <c r="AN69" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO69" t="n">
         <v>15</v>
@@ -13016,7 +13016,7 @@
         <v>3.75</v>
       </c>
       <c r="AT69" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AU69" t="n">
         <v>41</v>
@@ -13025,7 +13025,7 @@
         <v>6.5</v>
       </c>
       <c r="AW69" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX69" t="n">
         <v>23</v>
@@ -13037,7 +13037,7 @@
         <v>67</v>
       </c>
       <c r="BA69" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB69" t="n">
         <v>151</v>
@@ -13046,7 +13046,7 @@
         <v>126</v>
       </c>
       <c r="BD69" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70">
@@ -13287,16 +13287,16 @@
         <v>11</v>
       </c>
       <c r="O71" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P71" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R71" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S71" t="n">
         <v>1.4</v>
@@ -13463,10 +13463,10 @@
         <v>2.3</v>
       </c>
       <c r="M72" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N72" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O72" t="n">
         <v>1.25</v>
@@ -13475,10 +13475,10 @@
         <v>3.75</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R72" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S72" t="n">
         <v>1.4</v>
@@ -13630,19 +13630,19 @@
         <v>3</v>
       </c>
       <c r="H73" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I73" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J73" t="n">
         <v>3.75</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L73" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M73" t="n">
         <v>1.07</v>
@@ -13663,25 +13663,25 @@
         <v>1.67</v>
       </c>
       <c r="S73" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T73" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U73" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V73" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W73" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X73" t="n">
         <v>15</v>
       </c>
       <c r="Y73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z73" t="n">
         <v>34</v>
@@ -13693,13 +13693,13 @@
         <v>41</v>
       </c>
       <c r="AC73" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD73" t="n">
         <v>6</v>
       </c>
       <c r="AE73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF73" t="n">
         <v>51</v>
@@ -13708,13 +13708,13 @@
         <v>7</v>
       </c>
       <c r="AH73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI73" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ73" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK73" t="n">
         <v>21</v>
@@ -13738,31 +13738,31 @@
         <v>81</v>
       </c>
       <c r="AR73" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AT73" t="n">
         <v>8.5</v>
       </c>
       <c r="AU73" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AV73" t="n">
         <v>4.33</v>
       </c>
       <c r="AW73" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX73" t="n">
         <v>26</v>
       </c>
       <c r="AY73" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ73" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA73" t="n">
         <v>126</v>
@@ -13774,7 +13774,7 @@
         <v>201</v>
       </c>
       <c r="BD73" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74">
@@ -13809,13 +13809,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I74" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J74" t="n">
         <v>2.1</v>
@@ -13824,13 +13824,13 @@
         <v>2.25</v>
       </c>
       <c r="L74" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M74" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O74" t="n">
         <v>1.29</v>
@@ -13851,10 +13851,10 @@
         <v>2.75</v>
       </c>
       <c r="U74" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V74" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W74" t="n">
         <v>6.5</v>
@@ -13866,7 +13866,7 @@
         <v>8.5</v>
       </c>
       <c r="Z74" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA74" t="n">
         <v>13</v>
@@ -13878,43 +13878,43 @@
         <v>10</v>
       </c>
       <c r="AD74" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE74" t="n">
         <v>19</v>
       </c>
       <c r="AF74" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG74" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH74" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ74" t="n">
         <v>67</v>
       </c>
       <c r="AK74" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL74" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM74" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AN74" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO74" t="n">
         <v>21</v>
       </c>
       <c r="AP74" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ74" t="n">
         <v>51</v>
@@ -13929,10 +13929,10 @@
         <v>9</v>
       </c>
       <c r="AU74" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AV74" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AW74" t="n">
         <v>34</v>
@@ -14021,13 +14021,13 @@
         <v>3.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R75" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S75" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T75" t="n">
         <v>2.75</v>
@@ -14209,10 +14209,10 @@
         <v>1.7</v>
       </c>
       <c r="S76" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T76" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U76" t="n">
         <v>1.83</v>
@@ -14358,7 +14358,7 @@
         <v>3.4</v>
       </c>
       <c r="H77" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I77" t="n">
         <v>2.1</v>
@@ -14370,13 +14370,13 @@
         <v>2.1</v>
       </c>
       <c r="L77" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M77" t="n">
         <v>1.06</v>
       </c>
       <c r="N77" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O77" t="n">
         <v>1.3</v>
@@ -14385,25 +14385,25 @@
         <v>3.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R77" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S77" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="T77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U77" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V77" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X77" t="n">
         <v>17</v>
@@ -14421,10 +14421,10 @@
         <v>34</v>
       </c>
       <c r="AC77" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD77" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE77" t="n">
         <v>15</v>
@@ -14448,7 +14448,7 @@
         <v>17</v>
       </c>
       <c r="AL77" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM77" t="n">
         <v>5.5</v>
@@ -14469,7 +14469,7 @@
         <v>201</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AT77" t="n">
         <v>8</v>
@@ -14484,7 +14484,7 @@
         <v>12</v>
       </c>
       <c r="AX77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY77" t="n">
         <v>41</v>
@@ -14502,7 +14502,7 @@
         <v>151</v>
       </c>
       <c r="BD77" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78">
@@ -14737,10 +14737,10 @@
         <v>3.1</v>
       </c>
       <c r="M79" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N79" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O79" t="n">
         <v>1.2</v>
@@ -14749,10 +14749,10 @@
         <v>4.33</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R79" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S79" t="n">
         <v>1.33</v>
@@ -14901,28 +14901,28 @@
         </is>
       </c>
       <c r="G80" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H80" t="n">
         <v>4</v>
       </c>
-      <c r="H80" t="n">
-        <v>3.8</v>
-      </c>
       <c r="I80" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J80" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K80" t="n">
         <v>2.38</v>
       </c>
       <c r="L80" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M80" t="n">
         <v>1.03</v>
       </c>
       <c r="N80" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O80" t="n">
         <v>1.18</v>
@@ -14931,10 +14931,10 @@
         <v>4.5</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R80" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S80" t="n">
         <v>1.3</v>
@@ -14943,16 +14943,16 @@
         <v>3.4</v>
       </c>
       <c r="U80" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V80" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W80" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y80" t="n">
         <v>13</v>
@@ -14961,16 +14961,16 @@
         <v>41</v>
       </c>
       <c r="AA80" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB80" t="n">
         <v>29</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>34</v>
       </c>
       <c r="AC80" t="n">
         <v>15</v>
       </c>
       <c r="AD80" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE80" t="n">
         <v>13</v>
@@ -14988,7 +14988,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ80" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK80" t="n">
         <v>13</v>
@@ -15048,7 +15048,7 @@
         <v>101</v>
       </c>
       <c r="BD80" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81">
@@ -15629,22 +15629,22 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L84" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K84" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L84" t="n">
-        <v>4</v>
       </c>
       <c r="M84" t="n">
         <v>1.04</v>
@@ -15671,22 +15671,22 @@
         <v>3.25</v>
       </c>
       <c r="U84" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V84" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W84" t="n">
         <v>9</v>
       </c>
       <c r="X84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
       </c>
       <c r="Z84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA84" t="n">
         <v>15</v>
@@ -15698,7 +15698,7 @@
         <v>13</v>
       </c>
       <c r="AD84" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE84" t="n">
         <v>13</v>
@@ -15710,31 +15710,31 @@
         <v>12</v>
       </c>
       <c r="AH84" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI84" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ84" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK84" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL84" t="n">
         <v>29</v>
       </c>
       <c r="AM84" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AN84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO84" t="n">
         <v>19</v>
       </c>
       <c r="AP84" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ84" t="n">
         <v>51</v>
@@ -15755,7 +15755,7 @@
         <v>5.5</v>
       </c>
       <c r="AW84" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX84" t="n">
         <v>23</v>
@@ -16175,22 +16175,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>3.4</v>
       </c>
       <c r="I87" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J87" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K87" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L87" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M87" t="n">
         <v>1.04</v>
@@ -16223,19 +16223,19 @@
         <v>2.25</v>
       </c>
       <c r="W87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X87" t="n">
         <v>13</v>
       </c>
       <c r="Y87" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z87" t="n">
         <v>23</v>
       </c>
       <c r="AA87" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB87" t="n">
         <v>23</v>
@@ -16256,7 +16256,7 @@
         <v>12</v>
       </c>
       <c r="AH87" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI87" t="n">
         <v>11</v>
@@ -16271,7 +16271,7 @@
         <v>26</v>
       </c>
       <c r="AM87" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AN87" t="n">
         <v>13</v>
@@ -16307,7 +16307,7 @@
         <v>21</v>
       </c>
       <c r="AY87" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ87" t="n">
         <v>51</v>
@@ -16357,19 +16357,19 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H88" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I88" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="J88" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K88" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L88" t="n">
         <v>1.67</v>
@@ -16387,10 +16387,10 @@
         <v>4.33</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R88" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S88" t="n">
         <v>1.3</v>
@@ -16399,28 +16399,28 @@
         <v>3.4</v>
       </c>
       <c r="U88" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V88" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W88" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X88" t="n">
         <v>51</v>
       </c>
       <c r="Y88" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z88" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AA88" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AB88" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AC88" t="n">
         <v>13</v>
@@ -16429,7 +16429,7 @@
         <v>11</v>
       </c>
       <c r="AE88" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF88" t="n">
         <v>81</v>
@@ -16453,7 +16453,7 @@
         <v>34</v>
       </c>
       <c r="AM88" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN88" t="n">
         <v>51</v>
@@ -16489,7 +16489,7 @@
         <v>19</v>
       </c>
       <c r="AY88" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ88" t="n">
         <v>41</v>
@@ -16500,7 +16500,7 @@
         <v>151</v>
       </c>
       <c r="BD88" t="n">
-        <v>900</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89">
@@ -16535,7 +16535,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H89" t="n">
         <v>3.3</v>
@@ -16568,7 +16568,7 @@
         <v>2.05</v>
       </c>
       <c r="R89" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S89" t="n">
         <v>1.44</v>
@@ -16577,34 +16577,34 @@
         <v>2.63</v>
       </c>
       <c r="U89" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V89" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W89" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X89" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y89" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y89" t="n">
-        <v>9</v>
-      </c>
       <c r="Z89" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA89" t="n">
         <v>15</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>17</v>
       </c>
       <c r="AB89" t="n">
         <v>29</v>
       </c>
       <c r="AC89" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD89" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE89" t="n">
         <v>15</v>
@@ -16634,10 +16634,10 @@
         <v>3.75</v>
       </c>
       <c r="AN89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO89" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP89" t="n">
         <v>34</v>
@@ -16652,7 +16652,7 @@
         <v>2.63</v>
       </c>
       <c r="AT89" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AU89" t="n">
         <v>51</v>
@@ -16664,7 +16664,7 @@
         <v>23</v>
       </c>
       <c r="AX89" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY89" t="n">
         <v>81</v>
@@ -16680,7 +16680,7 @@
         <v>251</v>
       </c>
       <c r="BD89" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90">
@@ -16715,13 +16715,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H90" t="n">
         <v>3.1</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J90" t="n">
         <v>3.25</v>
@@ -16730,7 +16730,7 @@
         <v>1.95</v>
       </c>
       <c r="L90" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M90" t="n">
         <v>1.1</v>
@@ -16745,16 +16745,16 @@
         <v>2.63</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R90" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S90" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T90" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U90" t="n">
         <v>2.05</v>
@@ -16766,7 +16766,7 @@
         <v>6.5</v>
       </c>
       <c r="X90" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -16787,7 +16787,7 @@
         <v>6</v>
       </c>
       <c r="AE90" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF90" t="n">
         <v>67</v>
@@ -16796,7 +16796,7 @@
         <v>7.5</v>
       </c>
       <c r="AH90" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI90" t="n">
         <v>12</v>
@@ -16829,7 +16829,7 @@
         <v>251</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AT90" t="n">
         <v>9</v>
@@ -16838,7 +16838,7 @@
         <v>67</v>
       </c>
       <c r="AV90" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AW90" t="n">
         <v>19</v>
@@ -16893,13 +16893,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H91" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I91" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3.7</v>
       </c>
       <c r="J91" t="n">
         <v>2.6</v>
@@ -16941,13 +16941,13 @@
         <v>2.1</v>
       </c>
       <c r="W91" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X91" t="n">
         <v>10</v>
       </c>
       <c r="Y91" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z91" t="n">
         <v>17</v>
@@ -16974,16 +16974,16 @@
         <v>12</v>
       </c>
       <c r="AH91" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ91" t="n">
         <v>41</v>
       </c>
       <c r="AK91" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL91" t="n">
         <v>34</v>
@@ -16992,7 +16992,7 @@
         <v>4</v>
       </c>
       <c r="AN91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO91" t="n">
         <v>19</v>
@@ -17019,13 +17019,13 @@
         <v>5.5</v>
       </c>
       <c r="AW91" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX91" t="n">
         <v>26</v>
       </c>
       <c r="AY91" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AZ91" t="n">
         <v>81</v>
@@ -17036,7 +17036,7 @@
         <v>151</v>
       </c>
       <c r="BD91" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
@@ -17249,7 +17249,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>3.6</v>
@@ -17279,10 +17279,10 @@
         <v>3.5</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R93" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S93" t="n">
         <v>1.4</v>
@@ -17327,7 +17327,7 @@
         <v>51</v>
       </c>
       <c r="AG93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH93" t="n">
         <v>17</v>
@@ -17389,7 +17389,7 @@
       <c r="BA93" t="inlineStr"/>
       <c r="BB93" t="inlineStr"/>
       <c r="BC93" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD93" t="n">
         <v>201</v>
@@ -17427,19 +17427,19 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H94" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I94" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J94" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="K94" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L94" t="n">
         <v>4.33</v>
@@ -17451,10 +17451,10 @@
         <v>15</v>
       </c>
       <c r="O94" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P94" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q94" t="n">
         <v>1.65</v>
@@ -17463,7 +17463,7 @@
         <v>2.2</v>
       </c>
       <c r="S94" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T94" t="n">
         <v>3.4</v>
@@ -17478,7 +17478,7 @@
         <v>9</v>
       </c>
       <c r="X94" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y94" t="n">
         <v>8.5</v>
@@ -17526,7 +17526,7 @@
         <v>4</v>
       </c>
       <c r="AN94" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO94" t="n">
         <v>17</v>
@@ -17641,7 +17641,7 @@
         <v>1.93</v>
       </c>
       <c r="S95" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T95" t="n">
         <v>2.75</v>
@@ -17795,7 +17795,7 @@
         <v>2.2</v>
       </c>
       <c r="K96" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L96" t="n">
         <v>5</v>
@@ -17819,7 +17819,7 @@
         <v>2.15</v>
       </c>
       <c r="S96" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T96" t="n">
         <v>3.25</v>
@@ -17961,40 +17961,40 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H97" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I97" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="K97" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="L97" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="M97" t="n">
         <v>1.03</v>
       </c>
       <c r="N97" t="n">
-        <v>12.8</v>
+        <v>11.8</v>
       </c>
       <c r="O97" t="n">
         <v>1.21</v>
       </c>
       <c r="P97" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R97" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S97" t="n">
         <v>1.31</v>
@@ -18006,22 +18006,22 @@
         <v>1.78</v>
       </c>
       <c r="V97" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W97" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X97" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
       </c>
       <c r="Z97" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AA97" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB97" t="n">
         <v>24</v>
@@ -18033,70 +18033,70 @@
         <v>8.25</v>
       </c>
       <c r="AE97" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF97" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG97" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH97" t="n">
         <v>40</v>
       </c>
       <c r="AI97" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ97" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AK97" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL97" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM97" t="n">
         <v>3.3</v>
       </c>
       <c r="AN97" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AO97" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP97" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ97" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR97" t="n">
         <v>200</v>
       </c>
       <c r="AS97" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AT97" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AU97" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AV97" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AW97" t="n">
         <v>35</v>
       </c>
       <c r="AX97" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AY97" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AZ97" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BA97" t="inlineStr"/>
       <c r="BB97" t="inlineStr"/>
@@ -18104,7 +18104,7 @@
         <v>450</v>
       </c>
       <c r="BD97" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98">
@@ -18175,10 +18175,10 @@
         <v>1.73</v>
       </c>
       <c r="S98" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T98" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U98" t="n">
         <v>1.8</v>
@@ -18881,10 +18881,10 @@
         <v>3.75</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R102" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S102" t="n">
         <v>1.36</v>
@@ -19029,13 +19029,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>3.3</v>
       </c>
       <c r="I103" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J103" t="n">
         <v>2.5</v>
@@ -19047,10 +19047,10 @@
         <v>4.75</v>
       </c>
       <c r="M103" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N103" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O103" t="n">
         <v>1.3</v>
@@ -19059,10 +19059,10 @@
         <v>3.4</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R103" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S103" t="n">
         <v>1.44</v>
@@ -19211,22 +19211,22 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H104" t="n">
         <v>3.6</v>
       </c>
       <c r="I104" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J104" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K104" t="n">
         <v>2.2</v>
       </c>
       <c r="L104" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M104" t="n">
         <v>1.05</v>
@@ -19235,16 +19235,16 @@
         <v>11</v>
       </c>
       <c r="O104" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P104" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q104" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R104" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S104" t="n">
         <v>1.4</v>
@@ -19253,16 +19253,16 @@
         <v>2.75</v>
       </c>
       <c r="U104" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V104" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W104" t="n">
         <v>11</v>
       </c>
       <c r="X104" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y104" t="n">
         <v>13</v>
@@ -19283,22 +19283,22 @@
         <v>7</v>
       </c>
       <c r="AE104" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF104" t="n">
         <v>51</v>
       </c>
       <c r="AG104" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH104" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI104" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ104" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK104" t="n">
         <v>15</v>
@@ -19310,13 +19310,13 @@
         <v>6</v>
       </c>
       <c r="AN104" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO104" t="n">
         <v>29</v>
       </c>
       <c r="AP104" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ104" t="n">
         <v>101</v>
@@ -19334,7 +19334,7 @@
         <v>51</v>
       </c>
       <c r="AV104" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AW104" t="n">
         <v>10</v>
@@ -19358,7 +19358,7 @@
         <v>151</v>
       </c>
       <c r="BD104" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105">
@@ -19575,13 +19575,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>3.2</v>
       </c>
       <c r="I106" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J106" t="n">
         <v>2.75</v>
@@ -19590,13 +19590,13 @@
         <v>1.95</v>
       </c>
       <c r="L106" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M106" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N106" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O106" t="n">
         <v>1.44</v>
@@ -19605,10 +19605,10 @@
         <v>2.63</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R106" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S106" t="n">
         <v>1.53</v>
@@ -19623,13 +19623,13 @@
         <v>1.67</v>
       </c>
       <c r="W106" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X106" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y106" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z106" t="n">
         <v>17</v>
@@ -19644,7 +19644,7 @@
         <v>7</v>
       </c>
       <c r="AD106" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE106" t="n">
         <v>19</v>
@@ -19653,10 +19653,10 @@
         <v>67</v>
       </c>
       <c r="AG106" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH106" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI106" t="n">
         <v>15</v>
@@ -19668,13 +19668,13 @@
         <v>41</v>
       </c>
       <c r="AL106" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM106" t="n">
         <v>3.75</v>
       </c>
       <c r="AN106" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO106" t="n">
         <v>26</v>
@@ -19698,16 +19698,16 @@
         <v>67</v>
       </c>
       <c r="AV106" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AW106" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AX106" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY106" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AZ106" t="n">
         <v>126</v>
@@ -19787,10 +19787,10 @@
         <v>3</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R107" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S107" t="n">
         <v>1.5</v>
@@ -20117,10 +20117,10 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I109" t="n">
         <v>11</v>
@@ -20135,10 +20135,10 @@
         <v>10</v>
       </c>
       <c r="M109" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N109" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O109" t="n">
         <v>1.36</v>
@@ -20159,22 +20159,22 @@
         <v>2.63</v>
       </c>
       <c r="U109" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V109" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W109" t="n">
         <v>5</v>
       </c>
       <c r="X109" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y109" t="n">
         <v>10</v>
       </c>
       <c r="Z109" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA109" t="n">
         <v>15</v>
@@ -20186,7 +20186,7 @@
         <v>7.5</v>
       </c>
       <c r="AD109" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE109" t="n">
         <v>29</v>
@@ -20222,7 +20222,7 @@
         <v>26</v>
       </c>
       <c r="AP109" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ109" t="n">
         <v>51</v>
@@ -20477,7 +20477,7 @@
         <v>3.1</v>
       </c>
       <c r="I111" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J111" t="n">
         <v>2.75</v>
@@ -20489,10 +20489,10 @@
         <v>4.33</v>
       </c>
       <c r="M111" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N111" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O111" t="n">
         <v>1.33</v>
@@ -20501,10 +20501,10 @@
         <v>3.25</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R111" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S111" t="n">
         <v>1.44</v>
@@ -20513,10 +20513,10 @@
         <v>2.63</v>
       </c>
       <c r="U111" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V111" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W111" t="n">
         <v>7</v>
@@ -20537,7 +20537,7 @@
         <v>29</v>
       </c>
       <c r="AC111" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD111" t="n">
         <v>6</v>
@@ -20579,7 +20579,7 @@
         <v>41</v>
       </c>
       <c r="AQ111" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR111" t="n">
         <v>151</v>
@@ -20588,7 +20588,7 @@
         <v>2.63</v>
       </c>
       <c r="AT111" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AU111" t="n">
         <v>51</v>
@@ -20615,10 +20615,10 @@
         <v>81</v>
       </c>
       <c r="BC111" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD111" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112">
@@ -20653,22 +20653,22 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H112" t="n">
         <v>3.1</v>
       </c>
       <c r="I112" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J112" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K112" t="n">
         <v>1.95</v>
       </c>
       <c r="L112" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M112" t="n">
         <v>1.08</v>
@@ -20704,7 +20704,7 @@
         <v>7.5</v>
       </c>
       <c r="X112" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y112" t="n">
         <v>11</v>
@@ -20713,7 +20713,7 @@
         <v>29</v>
       </c>
       <c r="AA112" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB112" t="n">
         <v>41</v>
@@ -20731,7 +20731,7 @@
         <v>51</v>
       </c>
       <c r="AG112" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH112" t="n">
         <v>12</v>
@@ -20749,7 +20749,7 @@
         <v>41</v>
       </c>
       <c r="AM112" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AN112" t="n">
         <v>17</v>
@@ -20779,7 +20779,7 @@
         <v>4.5</v>
       </c>
       <c r="AW112" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX112" t="n">
         <v>29</v>
@@ -20841,22 +20841,22 @@
         <v>3.1</v>
       </c>
       <c r="I113" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J113" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K113" t="n">
         <v>2</v>
       </c>
       <c r="L113" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M113" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N113" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O113" t="n">
         <v>1.36</v>
@@ -20898,7 +20898,7 @@
         <v>26</v>
       </c>
       <c r="AB113" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC113" t="n">
         <v>8</v>
@@ -20964,7 +20964,7 @@
         <v>15</v>
       </c>
       <c r="AX113" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY113" t="n">
         <v>51</v>
@@ -21766,7 +21766,7 @@
         <v>1.07</v>
       </c>
       <c r="N118" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O118" t="n">
         <v>1.36</v>
@@ -21775,10 +21775,10 @@
         <v>3</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R118" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S118" t="n">
         <v>1.44</v>
@@ -22109,28 +22109,28 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H120" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I120" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J120" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K120" t="n">
         <v>2.1</v>
       </c>
       <c r="L120" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M120" t="n">
         <v>1.06</v>
       </c>
       <c r="N120" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O120" t="n">
         <v>1.33</v>
@@ -22139,7 +22139,7 @@
         <v>3.4</v>
       </c>
       <c r="Q120" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R120" t="n">
         <v>1.8</v>
@@ -22157,7 +22157,7 @@
         <v>1.95</v>
       </c>
       <c r="W120" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X120" t="n">
         <v>11</v>
@@ -22166,7 +22166,7 @@
         <v>9.5</v>
       </c>
       <c r="Z120" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA120" t="n">
         <v>19</v>
@@ -22175,7 +22175,7 @@
         <v>29</v>
       </c>
       <c r="AC120" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD120" t="n">
         <v>6.5</v>
@@ -22196,10 +22196,10 @@
         <v>11</v>
       </c>
       <c r="AJ120" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK120" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL120" t="n">
         <v>34</v>
@@ -22291,13 +22291,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H121" t="n">
         <v>3.4</v>
       </c>
       <c r="I121" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J121" t="n">
         <v>3.5</v>
@@ -22306,7 +22306,7 @@
         <v>2.1</v>
       </c>
       <c r="L121" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M121" t="n">
         <v>1.06</v>
@@ -22345,7 +22345,7 @@
         <v>13</v>
       </c>
       <c r="Y121" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z121" t="n">
         <v>29</v>
@@ -22417,13 +22417,13 @@
         <v>4.5</v>
       </c>
       <c r="AW121" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX121" t="n">
         <v>23</v>
       </c>
       <c r="AY121" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ121" t="n">
         <v>67</v>
@@ -22617,10 +22617,10 @@
         <v>81</v>
       </c>
       <c r="BC122" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD122" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="123">
@@ -23166,7 +23166,7 @@
         <v>350</v>
       </c>
       <c r="BD125" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="126">
@@ -23201,88 +23201,88 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="H126" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="I126" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3</v>
+      </c>
+      <c r="K126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N126" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P126" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S126" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T126" t="n">
         <v>2.75</v>
       </c>
-      <c r="J126" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K126" t="n">
+      <c r="U126" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V126" t="n">
         <v>2</v>
       </c>
-      <c r="L126" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M126" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N126" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O126" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P126" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="Q126" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R126" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S126" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T126" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U126" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V126" t="n">
-        <v>1.88</v>
-      </c>
       <c r="W126" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X126" t="n">
         <v>12.5</v>
       </c>
       <c r="Y126" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z126" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB126" t="n">
         <v>29</v>
       </c>
-      <c r="AA126" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB126" t="n">
-        <v>32</v>
-      </c>
       <c r="AC126" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD126" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AE126" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF126" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AG126" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="AH126" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI126" t="n">
         <v>10.25</v>
@@ -23291,60 +23291,60 @@
         <v>35</v>
       </c>
       <c r="AK126" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL126" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AM126" t="n">
         <v>4.45</v>
       </c>
       <c r="AN126" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO126" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AP126" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ126" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AR126" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="AT126" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AU126" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AV126" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AW126" t="n">
         <v>15.5</v>
       </c>
       <c r="AX126" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY126" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AZ126" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BA126" t="inlineStr"/>
       <c r="BB126" t="inlineStr"/>
       <c r="BC126" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD126" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127">
@@ -23382,16 +23382,16 @@
         <v>1.36</v>
       </c>
       <c r="H127" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I127" t="n">
         <v>8.75</v>
       </c>
       <c r="J127" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="K127" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L127" t="n">
         <v>7.8</v>
@@ -23400,37 +23400,37 @@
         <v>1.06</v>
       </c>
       <c r="N127" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O127" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P127" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R127" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S127" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T127" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="U127" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="V127" t="n">
         <v>1.62</v>
       </c>
       <c r="W127" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X127" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y127" t="n">
         <v>8.5</v>
@@ -23439,16 +23439,16 @@
         <v>8.25</v>
       </c>
       <c r="AA127" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB127" t="n">
         <v>32</v>
       </c>
       <c r="AC127" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD127" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE127" t="n">
         <v>22</v>
@@ -23463,7 +23463,7 @@
         <v>65</v>
       </c>
       <c r="AI127" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ127" t="n">
         <v>300</v>
@@ -23478,25 +23478,25 @@
         <v>3.05</v>
       </c>
       <c r="AN127" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AO127" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AP127" t="n">
         <v>19</v>
       </c>
-      <c r="AP127" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AQ127" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR127" t="n">
         <v>300</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT127" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AU127" t="n">
         <v>100</v>
@@ -23511,7 +23511,7 @@
         <v>55</v>
       </c>
       <c r="AY127" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AZ127" t="n">
         <v>450</v>
@@ -24101,94 +24101,94 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="H131" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I131" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L131" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N131" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O131" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P131" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I131" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="J131" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K131" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L131" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="M131" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N131" t="n">
-        <v>8</v>
-      </c>
-      <c r="O131" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P131" t="n">
-        <v>3.5</v>
       </c>
       <c r="Q131" t="n">
         <v>1.8</v>
       </c>
       <c r="R131" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S131" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T131" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="U131" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V131" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W131" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X131" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="Y131" t="n">
         <v>8.5</v>
       </c>
       <c r="Z131" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA131" t="n">
         <v>14.5</v>
       </c>
       <c r="AB131" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC131" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD131" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE131" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF131" t="n">
         <v>70</v>
       </c>
       <c r="AG131" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH131" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI131" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ131" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK131" t="n">
         <v>45</v>
@@ -24197,37 +24197,37 @@
         <v>45</v>
       </c>
       <c r="AM131" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AN131" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO131" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AP131" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ131" t="n">
         <v>60</v>
       </c>
       <c r="AR131" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="AT131" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AU131" t="n">
         <v>65</v>
       </c>
       <c r="AV131" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AW131" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX131" t="n">
         <v>29</v>
@@ -24248,7 +24248,7 @@
         <v>350</v>
       </c>
       <c r="BD131" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132">
@@ -24283,28 +24283,28 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I132" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J132" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K132" t="n">
         <v>2.3</v>
       </c>
       <c r="L132" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M132" t="n">
         <v>1.04</v>
       </c>
       <c r="N132" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O132" t="n">
         <v>1.22</v>
@@ -24319,10 +24319,10 @@
         <v>2.05</v>
       </c>
       <c r="S132" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T132" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U132" t="n">
         <v>1.73</v>
@@ -24334,13 +24334,13 @@
         <v>8</v>
       </c>
       <c r="X132" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y132" t="n">
         <v>8.5</v>
       </c>
       <c r="Z132" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA132" t="n">
         <v>13</v>
@@ -24361,25 +24361,25 @@
         <v>41</v>
       </c>
       <c r="AG132" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH132" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI132" t="n">
         <v>15</v>
       </c>
       <c r="AJ132" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK132" t="n">
         <v>34</v>
       </c>
       <c r="AL132" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM132" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AN132" t="n">
         <v>9</v>
@@ -24391,13 +24391,13 @@
         <v>29</v>
       </c>
       <c r="AQ132" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR132" t="n">
         <v>126</v>
       </c>
       <c r="AS132" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AT132" t="n">
         <v>8</v>
@@ -24406,7 +24406,7 @@
         <v>51</v>
       </c>
       <c r="AV132" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AW132" t="n">
         <v>23</v>
@@ -24415,10 +24415,10 @@
         <v>29</v>
       </c>
       <c r="AY132" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AZ132" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA132" t="n">
         <v>81</v>
@@ -24427,7 +24427,7 @@
         <v>81</v>
       </c>
       <c r="BC132" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD132" t="n">
         <v>201</v>
@@ -24465,16 +24465,16 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
         <v>3.4</v>
       </c>
       <c r="I133" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J133" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K133" t="n">
         <v>2.1</v>
@@ -24486,7 +24486,7 @@
         <v>1.06</v>
       </c>
       <c r="N133" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O133" t="n">
         <v>1.3</v>
@@ -24516,7 +24516,7 @@
         <v>7</v>
       </c>
       <c r="X133" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y133" t="n">
         <v>9</v>
@@ -24543,7 +24543,7 @@
         <v>51</v>
       </c>
       <c r="AG133" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH133" t="n">
         <v>19</v>
@@ -24555,7 +24555,7 @@
         <v>41</v>
       </c>
       <c r="AK133" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL133" t="n">
         <v>41</v>
@@ -24647,19 +24647,19 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H134" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I134" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J134" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K134" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L134" t="n">
         <v>6.5</v>
@@ -24677,10 +24677,10 @@
         <v>4</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R134" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S134" t="n">
         <v>1.33</v>
@@ -24701,37 +24701,37 @@
         <v>7</v>
       </c>
       <c r="Y134" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z134" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA134" t="n">
         <v>12</v>
       </c>
       <c r="AB134" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC134" t="n">
         <v>12</v>
       </c>
       <c r="AD134" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE134" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF134" t="n">
         <v>51</v>
       </c>
       <c r="AG134" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH134" t="n">
         <v>41</v>
       </c>
       <c r="AI134" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ134" t="n">
         <v>81</v>
@@ -25011,22 +25011,22 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H136" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I136" t="n">
         <v>2.3</v>
       </c>
       <c r="J136" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K136" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L136" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M136" t="n">
         <v>1.1</v>
@@ -25053,13 +25053,13 @@
         <v>2.25</v>
       </c>
       <c r="U136" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V136" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W136" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X136" t="n">
         <v>15</v>
@@ -25068,7 +25068,7 @@
         <v>13</v>
       </c>
       <c r="Z136" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA136" t="n">
         <v>34</v>
@@ -25077,7 +25077,7 @@
         <v>41</v>
       </c>
       <c r="AC136" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD136" t="n">
         <v>6</v>
@@ -25086,7 +25086,7 @@
         <v>19</v>
       </c>
       <c r="AF136" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG136" t="n">
         <v>6</v>
@@ -25101,7 +25101,7 @@
         <v>21</v>
       </c>
       <c r="AK136" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL136" t="n">
         <v>41</v>
@@ -25116,28 +25116,28 @@
         <v>34</v>
       </c>
       <c r="AP136" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ136" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR136" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AS136" t="n">
         <v>2.25</v>
       </c>
       <c r="AT136" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AU136" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AV136" t="n">
         <v>4</v>
       </c>
       <c r="AW136" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX136" t="n">
         <v>29</v>
@@ -25155,7 +25155,7 @@
         <v>81</v>
       </c>
       <c r="BC136" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD136" t="n">
         <v>1000</v>
@@ -25223,10 +25223,10 @@
         <v>3</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R137" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S137" t="n">
         <v>1.44</v>
@@ -25375,10 +25375,10 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H138" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I138" t="n">
         <v>2.05</v>
@@ -25399,22 +25399,22 @@
         <v>15</v>
       </c>
       <c r="O138" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P138" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R138" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S138" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T138" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U138" t="n">
         <v>1.57</v>
@@ -25453,10 +25453,10 @@
         <v>41</v>
       </c>
       <c r="AG138" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH138" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI138" t="n">
         <v>9</v>
@@ -25489,7 +25489,7 @@
         <v>126</v>
       </c>
       <c r="AS138" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AT138" t="n">
         <v>7.5</v>
@@ -25557,28 +25557,28 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H139" t="n">
         <v>3.5</v>
       </c>
       <c r="I139" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J139" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K139" t="n">
         <v>2.2</v>
       </c>
       <c r="L139" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M139" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N139" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O139" t="n">
         <v>1.29</v>
@@ -25599,10 +25599,10 @@
         <v>2.75</v>
       </c>
       <c r="U139" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V139" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W139" t="n">
         <v>11</v>
@@ -25617,10 +25617,10 @@
         <v>41</v>
       </c>
       <c r="AA139" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB139" t="n">
         <v>34</v>
-      </c>
-      <c r="AB139" t="n">
-        <v>41</v>
       </c>
       <c r="AC139" t="n">
         <v>10</v>
@@ -25635,25 +25635,25 @@
         <v>51</v>
       </c>
       <c r="AG139" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH139" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI139" t="n">
         <v>9</v>
       </c>
-      <c r="AI139" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AJ139" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK139" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL139" t="n">
         <v>26</v>
       </c>
       <c r="AM139" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AN139" t="n">
         <v>21</v>
@@ -25665,7 +25665,7 @@
         <v>67</v>
       </c>
       <c r="AQ139" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR139" t="n">
         <v>201</v>
@@ -25683,7 +25683,7 @@
         <v>4</v>
       </c>
       <c r="AW139" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX139" t="n">
         <v>21</v>
@@ -25763,16 +25763,16 @@
         <v>13</v>
       </c>
       <c r="O140" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P140" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R140" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S140" t="n">
         <v>1.33</v>
@@ -26457,28 +26457,28 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H144" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I144" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J144" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K144" t="n">
         <v>2.1</v>
       </c>
       <c r="L144" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M144" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N144" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O144" t="n">
         <v>1.3</v>
@@ -26487,10 +26487,10 @@
         <v>3.4</v>
       </c>
       <c r="Q144" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R144" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S144" t="n">
         <v>1.4</v>
@@ -26499,22 +26499,22 @@
         <v>2.75</v>
       </c>
       <c r="U144" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V144" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W144" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X144" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y144" t="n">
         <v>9</v>
       </c>
       <c r="Z144" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA144" t="n">
         <v>17</v>
@@ -26523,7 +26523,7 @@
         <v>29</v>
       </c>
       <c r="AC144" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD144" t="n">
         <v>6.5</v>
@@ -26535,13 +26535,13 @@
         <v>51</v>
       </c>
       <c r="AG144" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH144" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI144" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ144" t="n">
         <v>41</v>
@@ -26550,13 +26550,13 @@
         <v>29</v>
       </c>
       <c r="AL144" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM144" t="n">
         <v>4</v>
       </c>
       <c r="AN144" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO144" t="n">
         <v>21</v>
@@ -26583,7 +26583,7 @@
         <v>5.5</v>
       </c>
       <c r="AW144" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX144" t="n">
         <v>29</v>
@@ -26592,7 +26592,7 @@
         <v>67</v>
       </c>
       <c r="AZ144" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA144" t="n">
         <v>276</v>
@@ -26639,16 +26639,16 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H145" t="n">
         <v>3.6</v>
       </c>
       <c r="I145" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J145" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K145" t="n">
         <v>2.2</v>
@@ -26720,7 +26720,7 @@
         <v>12</v>
       </c>
       <c r="AH145" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI145" t="n">
         <v>13</v>
@@ -26762,13 +26762,13 @@
         <v>51</v>
       </c>
       <c r="AV145" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AW145" t="n">
         <v>21</v>
       </c>
       <c r="AX145" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY145" t="n">
         <v>67</v>
@@ -27024,7 +27024,7 @@
         <v>1.06</v>
       </c>
       <c r="N147" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O147" t="n">
         <v>1.3</v>
@@ -27051,10 +27051,10 @@
         <v>1.91</v>
       </c>
       <c r="W147" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X147" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y147" t="n">
         <v>12</v>
@@ -27069,7 +27069,7 @@
         <v>34</v>
       </c>
       <c r="AC147" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD147" t="n">
         <v>6.5</v>
@@ -27087,7 +27087,7 @@
         <v>11</v>
       </c>
       <c r="AI147" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ147" t="n">
         <v>21</v>
@@ -27102,7 +27102,7 @@
         <v>5</v>
       </c>
       <c r="AN147" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO147" t="n">
         <v>26</v>
@@ -27194,7 +27194,7 @@
         <v>4.5</v>
       </c>
       <c r="J148" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K148" t="n">
         <v>2.25</v>
@@ -27206,7 +27206,7 @@
         <v>1.04</v>
       </c>
       <c r="N148" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O148" t="n">
         <v>1.25</v>
@@ -27227,13 +27227,13 @@
         <v>3</v>
       </c>
       <c r="U148" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V148" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W148" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X148" t="n">
         <v>8</v>
@@ -27248,16 +27248,16 @@
         <v>13</v>
       </c>
       <c r="AB148" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC148" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD148" t="n">
         <v>7.5</v>
       </c>
       <c r="AE148" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF148" t="n">
         <v>51</v>
@@ -27266,7 +27266,7 @@
         <v>13</v>
       </c>
       <c r="AH148" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI148" t="n">
         <v>15</v>
@@ -27281,7 +27281,7 @@
         <v>41</v>
       </c>
       <c r="AM148" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AN148" t="n">
         <v>8.5</v>
@@ -27290,19 +27290,19 @@
         <v>19</v>
       </c>
       <c r="AP148" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ148" t="n">
         <v>51</v>
       </c>
       <c r="AR148" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS148" t="n">
         <v>3</v>
       </c>
       <c r="AT148" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AU148" t="n">
         <v>51</v>
@@ -27314,7 +27314,7 @@
         <v>26</v>
       </c>
       <c r="AX148" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY148" t="n">
         <v>81</v>
@@ -27329,7 +27329,7 @@
         <v>126</v>
       </c>
       <c r="BC148" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD148" t="n">
         <v>251</v>
@@ -27388,7 +27388,7 @@
         <v>1.06</v>
       </c>
       <c r="N149" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O149" t="n">
         <v>1.33</v>
@@ -27424,13 +27424,13 @@
         <v>10</v>
       </c>
       <c r="Z149" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA149" t="n">
         <v>21</v>
       </c>
       <c r="AB149" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC149" t="n">
         <v>9.5</v>
@@ -27445,7 +27445,7 @@
         <v>51</v>
       </c>
       <c r="AG149" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH149" t="n">
         <v>13</v>
@@ -27457,7 +27457,7 @@
         <v>26</v>
       </c>
       <c r="AK149" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL149" t="n">
         <v>34</v>
@@ -27502,7 +27502,7 @@
         <v>51</v>
       </c>
       <c r="AZ149" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA149" t="n">
         <v>126</v>
@@ -27914,10 +27914,10 @@
         <v>1.62</v>
       </c>
       <c r="H152" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I152" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J152" t="n">
         <v>2.15</v>
@@ -27926,7 +27926,7 @@
         <v>2.12</v>
       </c>
       <c r="L152" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M152" t="n">
         <v>1.04</v>
@@ -27941,7 +27941,7 @@
         <v>2.75</v>
       </c>
       <c r="Q152" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R152" t="n">
         <v>1.65</v>
@@ -27950,7 +27950,7 @@
         <v>1.4</v>
       </c>
       <c r="T152" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U152" t="n">
         <v>1.98</v>
@@ -27962,7 +27962,7 @@
         <v>5.7</v>
       </c>
       <c r="X152" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y152" t="n">
         <v>8.25</v>
@@ -27992,22 +27992,22 @@
         <v>12.5</v>
       </c>
       <c r="AH152" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI152" t="n">
         <v>17.5</v>
       </c>
       <c r="AJ152" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK152" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL152" t="n">
         <v>65</v>
       </c>
-      <c r="AL152" t="n">
-        <v>70</v>
-      </c>
       <c r="AM152" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AN152" t="n">
         <v>7.7</v>
@@ -28034,10 +28034,10 @@
         <v>80</v>
       </c>
       <c r="AV152" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AW152" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AX152" t="n">
         <v>37</v>
@@ -28644,7 +28644,7 @@
         <v>2.27</v>
       </c>
       <c r="L156" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M156" t="n">
         <v>1.04</v>
@@ -28671,16 +28671,16 @@
         <v>3.1</v>
       </c>
       <c r="U156" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V156" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="W156" t="n">
         <v>10</v>
       </c>
       <c r="X156" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y156" t="n">
         <v>8.5</v>
@@ -28707,7 +28707,7 @@
         <v>40</v>
       </c>
       <c r="AG156" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH156" t="n">
         <v>21</v>
@@ -28746,7 +28746,7 @@
         <v>3.1</v>
       </c>
       <c r="AT156" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AU156" t="n">
         <v>45</v>
@@ -28761,7 +28761,7 @@
         <v>21</v>
       </c>
       <c r="AY156" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AZ156" t="n">
         <v>90</v>
@@ -28816,13 +28816,13 @@
         <v>3.5</v>
       </c>
       <c r="J157" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="K157" t="n">
         <v>2.22</v>
       </c>
       <c r="L157" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="M157" t="n">
         <v>1.04</v>
@@ -28858,7 +28858,7 @@
         <v>8.5</v>
       </c>
       <c r="X157" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Y157" t="n">
         <v>8.25</v>
@@ -28888,7 +28888,7 @@
         <v>13</v>
       </c>
       <c r="AH157" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI157" t="n">
         <v>12</v>
@@ -28900,7 +28900,7 @@
         <v>29</v>
       </c>
       <c r="AL157" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM157" t="n">
         <v>3.9</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-14.xlsx
@@ -1473,55 +1473,55 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
@@ -1533,61 +1533,61 @@
         <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
         <v>29</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AN6" t="n">
         <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP6" t="n">
         <v>51</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AT6" t="n">
         <v>8</v>
@@ -1602,25 +1602,25 @@
         <v>15</v>
       </c>
       <c r="AX6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
         <v>51</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
         <v>501</v>
       </c>
       <c r="BB6" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
         <v>2.75</v>
@@ -1685,10 +1685,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.98</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.92</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1727,7 +1727,7 @@
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1736,7 +1736,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>12</v>
@@ -1745,7 +1745,7 @@
         <v>41</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>34</v>
@@ -1787,7 +1787,7 @@
         <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ7" t="n">
         <v>81</v>
@@ -1796,10 +1796,10 @@
         <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD7" t="n">
         <v>201</v>
@@ -1843,7 +1843,7 @@
         <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J8" t="n">
         <v>4.75</v>
@@ -1852,13 +1852,13 @@
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1867,10 +1867,10 @@
         <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1879,10 +1879,10 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
         <v>13</v>
@@ -1894,13 +1894,13 @@
         <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="n">
         <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
         <v>12</v>
@@ -1915,7 +1915,7 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>8.5</v>
@@ -1924,7 +1924,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>13</v>
@@ -2025,16 +2025,16 @@
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2067,7 +2067,7 @@
         <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
         <v>19</v>
@@ -2076,10 +2076,10 @@
         <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
@@ -2088,7 +2088,7 @@
         <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
@@ -2097,7 +2097,7 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH9" t="n">
         <v>11</v>
@@ -2112,7 +2112,7 @@
         <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
         <v>5.5</v>
@@ -2139,7 +2139,7 @@
         <v>7.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AV9" t="n">
         <v>4.33</v>
@@ -2151,19 +2151,19 @@
         <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
         <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2929,61 +2929,61 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
         <v>2.5</v>
       </c>
       <c r="J14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P14" t="n">
         <v>3.4</v>
       </c>
-      <c r="K14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="n">
         <v>11</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>10</v>
       </c>
       <c r="Z14" t="n">
         <v>29</v>
@@ -2995,7 +2995,7 @@
         <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
@@ -3004,13 +3004,13 @@
         <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI14" t="n">
         <v>10</v>
@@ -3019,10 +3019,10 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
         <v>4.75</v>
@@ -3031,22 +3031,22 @@
         <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP14" t="n">
         <v>51</v>
       </c>
       <c r="AQ14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AT14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AU14" t="n">
         <v>51</v>
@@ -3055,13 +3055,13 @@
         <v>4.5</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX14" t="n">
         <v>23</v>
       </c>
       <c r="AY14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ14" t="n">
         <v>67</v>
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
@@ -3311,10 +3311,10 @@
         <v>2.38</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
         <v>1.36</v>
@@ -3347,7 +3347,7 @@
         <v>26</v>
       </c>
       <c r="Y16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z16" t="n">
         <v>51</v>
@@ -3425,7 +3425,7 @@
         <v>23</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ16" t="n">
         <v>51</v>
@@ -3505,10 +3505,10 @@
         <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3562,7 +3562,7 @@
         <v>23</v>
       </c>
       <c r="AJ17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK17" t="n">
         <v>51</v>
@@ -3613,7 +3613,7 @@
         <v>201</v>
       </c>
       <c r="BA17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB17" t="n">
         <v>151</v>
@@ -3657,16 +3657,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K18" t="n">
         <v>3</v>
@@ -3678,7 +3678,7 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O18" t="n">
         <v>1.08</v>
@@ -3687,25 +3687,25 @@
         <v>8</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S18" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U18" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X18" t="n">
         <v>51</v>
@@ -3717,7 +3717,7 @@
         <v>126</v>
       </c>
       <c r="AA18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AB18" t="n">
         <v>51</v>
@@ -3729,28 +3729,28 @@
         <v>12</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK18" t="n">
         <v>10</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
         <v>11</v>
@@ -3759,25 +3759,25 @@
         <v>41</v>
       </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP18" t="n">
         <v>151</v>
       </c>
       <c r="AQ18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AT18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AU18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AV18" t="n">
         <v>3.6</v>
@@ -3792,10 +3792,10 @@
         <v>12</v>
       </c>
       <c r="AZ18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA18" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BB18" t="n">
         <v>151</v>
@@ -3839,19 +3839,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
         <v>5</v>
       </c>
       <c r="J19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K19" t="n">
         <v>2.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.25</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
@@ -3863,28 +3863,28 @@
         <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R19" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V19" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>7.5</v>
@@ -3905,10 +3905,10 @@
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3917,7 +3917,7 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3929,7 +3929,7 @@
         <v>51</v>
       </c>
       <c r="AK19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
         <v>41</v>
@@ -3944,16 +3944,16 @@
         <v>19</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="n">
         <v>126</v>
       </c>
       <c r="AS19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AT19" t="n">
         <v>8</v>
@@ -4030,13 +4030,13 @@
         <v>15</v>
       </c>
       <c r="J20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
@@ -4069,7 +4069,7 @@
         <v>1.91</v>
       </c>
       <c r="W20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X20" t="n">
         <v>8</v>
@@ -4138,13 +4138,13 @@
         <v>4.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AU20" t="n">
         <v>51</v>
       </c>
       <c r="AV20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW20" t="n">
         <v>51</v>
@@ -4153,10 +4153,10 @@
         <v>41</v>
       </c>
       <c r="AY20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>201</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>151</v>
       </c>
       <c r="BA20" t="n">
         <v>501</v>
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
         <v>2.05</v>
       </c>
       <c r="L23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
@@ -4603,19 +4603,19 @@
         <v>1.67</v>
       </c>
       <c r="S23" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T23" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V23" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
         <v>12</v>
@@ -4624,7 +4624,7 @@
         <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA23" t="n">
         <v>21</v>
@@ -4633,7 +4633,7 @@
         <v>34</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
         <v>6</v>
@@ -4657,7 +4657,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL23" t="n">
         <v>34</v>
@@ -4696,7 +4696,7 @@
         <v>17</v>
       </c>
       <c r="AX23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
         <v>51</v>
@@ -4714,7 +4714,7 @@
         <v>201</v>
       </c>
       <c r="BD23" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24">
@@ -4749,46 +4749,46 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="J24" t="n">
         <v>5.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="R24" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="S24" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U24" t="n">
         <v>1.8</v>
@@ -4815,7 +4815,7 @@
         <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
         <v>7.5</v>
@@ -4827,7 +4827,7 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH24" t="n">
         <v>7.5</v>
@@ -4839,10 +4839,10 @@
         <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM24" t="n">
         <v>7</v>
@@ -4860,13 +4860,13 @@
         <v>126</v>
       </c>
       <c r="AR24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AS24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AU24" t="n">
         <v>51</v>
@@ -4875,16 +4875,16 @@
         <v>3.6</v>
       </c>
       <c r="AW24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX24" t="n">
         <v>19</v>
       </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA24" t="n">
         <v>151</v>
@@ -4934,55 +4934,55 @@
         <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J25" t="n">
         <v>2.88</v>
       </c>
       <c r="K25" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
         <v>4.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R25" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S25" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W25" t="n">
         <v>6</v>
       </c>
       <c r="X25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
         <v>9.5</v>
@@ -4991,25 +4991,25 @@
         <v>19</v>
       </c>
       <c r="AA25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD25" t="n">
         <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
         <v>67</v>
       </c>
       <c r="AG25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
         <v>17</v>
@@ -5039,13 +5039,13 @@
         <v>41</v>
       </c>
       <c r="AQ25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR25" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AT25" t="n">
         <v>9</v>
@@ -5057,7 +5057,7 @@
         <v>5.5</v>
       </c>
       <c r="AW25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX25" t="n">
         <v>34</v>
@@ -5075,10 +5075,10 @@
         <v>151</v>
       </c>
       <c r="BC25" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD25" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26">
@@ -5116,55 +5116,55 @@
         <v>2.25</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L26" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
+        <v>7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W26" t="n">
         <v>6</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W26" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y26" t="n">
         <v>10</v>
@@ -5173,40 +5173,40 @@
         <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
         <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
         <v>41</v>
       </c>
       <c r="AK26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="n">
         <v>4</v>
@@ -5227,37 +5227,37 @@
         <v>301</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AU26" t="n">
         <v>81</v>
       </c>
       <c r="AV26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY26" t="n">
         <v>81</v>
       </c>
       <c r="AZ26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA26" t="n">
         <v>126</v>
       </c>
       <c r="BB26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC26" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD26" t="inlineStr"/>
     </row>
@@ -5505,10 +5505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R28" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S28" t="n">
         <v>1.4</v>
@@ -6385,22 +6385,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="I33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J33" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L33" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M33" t="n">
         <v>1.01</v>
@@ -6415,10 +6415,10 @@
         <v>7</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R33" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S33" t="n">
         <v>1.2</v>
@@ -6427,70 +6427,70 @@
         <v>4.33</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V33" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z33" t="n">
         <v>7</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>7.5</v>
       </c>
       <c r="AA33" t="n">
         <v>11</v>
       </c>
       <c r="AB33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC33" t="n">
         <v>26</v>
       </c>
-      <c r="AC33" t="n">
-        <v>23</v>
-      </c>
       <c r="AD33" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH33" t="n">
         <v>67</v>
       </c>
-      <c r="AG33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>51</v>
-      </c>
       <c r="AI33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ33" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AK33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL33" t="n">
         <v>67</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>51</v>
       </c>
       <c r="AM33" t="n">
         <v>3.4</v>
       </c>
       <c r="AN33" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO33" t="n">
         <v>15</v>
       </c>
       <c r="AP33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ33" t="n">
         <v>29</v>
@@ -6502,25 +6502,25 @@
         <v>4.33</v>
       </c>
       <c r="AT33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU33" t="n">
         <v>51</v>
       </c>
       <c r="AV33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW33" t="n">
         <v>51</v>
       </c>
       <c r="AX33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY33" t="n">
+        <v>351</v>
+      </c>
+      <c r="AZ33" t="n">
         <v>251</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>201</v>
       </c>
       <c r="BA33" t="n">
         <v>501</v>
@@ -6529,10 +6529,10 @@
         <v>151</v>
       </c>
       <c r="BC33" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD33" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34">
@@ -7105,13 +7105,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J37" t="n">
         <v>3.1</v>
@@ -7120,31 +7120,31 @@
         <v>2.1</v>
       </c>
       <c r="L37" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M37" t="n">
         <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O37" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P37" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R37" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S37" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T37" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U37" t="n">
         <v>1.8</v>
@@ -7153,10 +7153,10 @@
         <v>1.95</v>
       </c>
       <c r="W37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
         <v>9.5</v>
@@ -7171,7 +7171,7 @@
         <v>29</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="n">
         <v>6.5</v>
@@ -7186,7 +7186,7 @@
         <v>9</v>
       </c>
       <c r="AH37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI37" t="n">
         <v>11</v>
@@ -7201,7 +7201,7 @@
         <v>34</v>
       </c>
       <c r="AM37" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AN37" t="n">
         <v>13</v>
@@ -7219,7 +7219,7 @@
         <v>151</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AT37" t="n">
         <v>8</v>
@@ -7228,7 +7228,7 @@
         <v>51</v>
       </c>
       <c r="AV37" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AW37" t="n">
         <v>17</v>
@@ -7240,7 +7240,7 @@
         <v>51</v>
       </c>
       <c r="AZ37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA37" t="n">
         <v>126</v>
@@ -7249,7 +7249,7 @@
         <v>151</v>
       </c>
       <c r="BC37" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD37" t="n">
         <v>251</v>
@@ -7287,28 +7287,28 @@
         </is>
       </c>
       <c r="G38" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K38" t="n">
         <v>2.1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2.05</v>
       </c>
       <c r="L38" t="n">
         <v>4.33</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O38" t="n">
         <v>1.33</v>
@@ -7317,10 +7317,10 @@
         <v>3.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R38" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S38" t="n">
         <v>1.44</v>
@@ -7338,13 +7338,13 @@
         <v>7</v>
       </c>
       <c r="X38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
       </c>
       <c r="Z38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA38" t="n">
         <v>17</v>
@@ -7353,10 +7353,10 @@
         <v>29</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD38" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE38" t="n">
         <v>15</v>
@@ -7368,7 +7368,7 @@
         <v>10</v>
       </c>
       <c r="AH38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI38" t="n">
         <v>13</v>
@@ -7377,7 +7377,7 @@
         <v>41</v>
       </c>
       <c r="AK38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL38" t="n">
         <v>41</v>
@@ -7386,7 +7386,7 @@
         <v>4</v>
       </c>
       <c r="AN38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO38" t="n">
         <v>23</v>
@@ -7395,10 +7395,10 @@
         <v>41</v>
       </c>
       <c r="AQ38" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR38" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AS38" t="n">
         <v>2.63</v>
@@ -7419,7 +7419,7 @@
         <v>29</v>
       </c>
       <c r="AY38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AZ38" t="n">
         <v>101</v>
@@ -7651,13 +7651,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H40" t="n">
         <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J40" t="n">
         <v>2.88</v>
@@ -7708,7 +7708,7 @@
         <v>9.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA40" t="n">
         <v>17</v>
@@ -7729,7 +7729,7 @@
         <v>34</v>
       </c>
       <c r="AG40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH40" t="n">
         <v>17</v>
@@ -7747,7 +7747,7 @@
         <v>23</v>
       </c>
       <c r="AM40" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AN40" t="n">
         <v>12</v>
@@ -7798,7 +7798,7 @@
         <v>101</v>
       </c>
       <c r="BD40" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
@@ -7836,25 +7836,25 @@
         <v>1.06</v>
       </c>
       <c r="H41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I41" t="n">
         <v>23</v>
       </c>
       <c r="J41" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="L41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>41</v>
       </c>
       <c r="N41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="O41" t="n">
         <v>1.05</v>
@@ -7863,34 +7863,34 @@
         <v>11</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="R41" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="S41" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="T41" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="U41" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V41" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W41" t="n">
         <v>15</v>
       </c>
       <c r="X41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y41" t="n">
         <v>15</v>
       </c>
       <c r="Z41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA41" t="n">
         <v>12</v>
@@ -7929,7 +7929,7 @@
         <v>101</v>
       </c>
       <c r="AM41" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AN41" t="n">
         <v>4.33</v>
@@ -7938,16 +7938,16 @@
         <v>15</v>
       </c>
       <c r="AP41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AQ41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR41" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS41" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AT41" t="n">
         <v>13</v>
@@ -7956,7 +7956,7 @@
         <v>67</v>
       </c>
       <c r="AV41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW41" t="n">
         <v>81</v>
@@ -8011,19 +8011,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
         <v>2.9</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K42" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L42" t="n">
         <v>3.4</v>
@@ -8041,16 +8041,16 @@
         <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T42" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U42" t="n">
         <v>1.62</v>
@@ -8068,19 +8068,19 @@
         <v>9.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB42" t="n">
         <v>23</v>
       </c>
       <c r="AC42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE42" t="n">
         <v>13</v>
@@ -8104,13 +8104,13 @@
         <v>21</v>
       </c>
       <c r="AL42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM42" t="n">
         <v>4.5</v>
       </c>
       <c r="AN42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO42" t="n">
         <v>21</v>
@@ -8125,7 +8125,7 @@
         <v>126</v>
       </c>
       <c r="AS42" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AT42" t="n">
         <v>7.5</v>
@@ -8326,7 +8326,9 @@
       <c r="AZ43" t="n">
         <v>51</v>
       </c>
-      <c r="BA43" t="inlineStr"/>
+      <c r="BA43" t="n">
+        <v>500</v>
+      </c>
       <c r="BB43" t="inlineStr"/>
       <c r="BC43" t="n">
         <v>126</v>
@@ -8370,7 +8372,7 @@
         <v>1.91</v>
       </c>
       <c r="H44" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
         <v>3.8</v>
@@ -8397,10 +8399,10 @@
         <v>3.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R44" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S44" t="n">
         <v>1.4</v>
@@ -8460,7 +8462,7 @@
         <v>29</v>
       </c>
       <c r="AL44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM44" t="n">
         <v>4</v>
@@ -8502,7 +8504,7 @@
         <v>67</v>
       </c>
       <c r="AZ44" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA44" t="inlineStr"/>
       <c r="BB44" t="inlineStr"/>
@@ -8727,16 +8729,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H46" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I46" t="n">
         <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K46" t="n">
         <v>2.1</v>
@@ -8748,19 +8750,19 @@
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R46" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S46" t="n">
         <v>1.5</v>
@@ -8793,7 +8795,7 @@
         <v>34</v>
       </c>
       <c r="AC46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD46" t="n">
         <v>7.5</v>
@@ -8826,13 +8828,13 @@
         <v>3.4</v>
       </c>
       <c r="AN46" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO46" t="n">
         <v>23</v>
       </c>
       <c r="AP46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ46" t="n">
         <v>51</v>
@@ -9087,22 +9089,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H48" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I48" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="J48" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K48" t="n">
         <v>2.15</v>
       </c>
       <c r="L48" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="M48" t="n">
         <v>1.06</v>
@@ -9111,28 +9113,28 @@
         <v>8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P48" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R48" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S48" t="n">
         <v>1.42</v>
       </c>
       <c r="T48" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U48" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V48" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W48" t="n">
         <v>6.3</v>
@@ -9147,7 +9149,7 @@
         <v>11.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB48" t="n">
         <v>29</v>
@@ -9159,58 +9161,58 @@
         <v>7.9</v>
       </c>
       <c r="AE48" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF48" t="n">
         <v>90</v>
       </c>
       <c r="AG48" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ48" t="n">
         <v>150</v>
       </c>
       <c r="AK48" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL48" t="n">
         <v>65</v>
       </c>
       <c r="AM48" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AN48" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AP48" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ48" t="n">
         <v>60</v>
       </c>
       <c r="AR48" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AT48" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AU48" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AV48" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AW48" t="n">
         <v>35</v>
@@ -9230,7 +9232,7 @@
         <v>500</v>
       </c>
       <c r="BD48" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="49">
@@ -9811,16 +9813,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H52" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J52" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K52" t="n">
         <v>2.5</v>
@@ -9835,16 +9837,16 @@
         <v>15</v>
       </c>
       <c r="O52" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P52" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R52" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S52" t="n">
         <v>1.3</v>
@@ -9853,16 +9855,16 @@
         <v>3.4</v>
       </c>
       <c r="U52" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V52" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W52" t="n">
+        <v>8</v>
+      </c>
+      <c r="X52" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X52" t="n">
-        <v>7</v>
       </c>
       <c r="Y52" t="n">
         <v>8.5</v>
@@ -9880,10 +9882,10 @@
         <v>15</v>
       </c>
       <c r="AD52" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF52" t="n">
         <v>51</v>
@@ -9895,19 +9897,19 @@
         <v>34</v>
       </c>
       <c r="AI52" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ52" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK52" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL52" t="n">
         <v>41</v>
       </c>
       <c r="AM52" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AN52" t="n">
         <v>7</v>
@@ -9922,7 +9924,7 @@
         <v>41</v>
       </c>
       <c r="AR52" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS52" t="n">
         <v>3.4</v>
@@ -14357,13 +14359,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H77" t="n">
         <v>3.1</v>
       </c>
       <c r="I77" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="J77" t="n">
         <v>4</v>
@@ -14372,7 +14374,7 @@
         <v>2.05</v>
       </c>
       <c r="L77" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M77" t="n">
         <v>1.07</v>
@@ -14408,13 +14410,13 @@
         <v>9.5</v>
       </c>
       <c r="X77" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y77" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z77" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA77" t="n">
         <v>29</v>
@@ -14438,25 +14440,25 @@
         <v>7</v>
       </c>
       <c r="AH77" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI77" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ77" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK77" t="n">
         <v>19</v>
       </c>
       <c r="AL77" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM77" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AN77" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO77" t="n">
         <v>29</v>
@@ -14465,7 +14467,7 @@
         <v>67</v>
       </c>
       <c r="AQ77" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR77" t="n">
         <v>251</v>
@@ -14480,10 +14482,10 @@
         <v>51</v>
       </c>
       <c r="AV77" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AW77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX77" t="n">
         <v>23</v>
@@ -15085,22 +15087,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H81" t="n">
         <v>3.75</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J81" t="n">
         <v>2.4</v>
       </c>
       <c r="K81" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L81" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M81" t="n">
         <v>1.03</v>
@@ -15115,25 +15117,25 @@
         <v>4.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V81" t="n">
         <v>2.25</v>
       </c>
-      <c r="S81" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T81" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U81" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V81" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W81" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X81" t="n">
         <v>10</v>
@@ -15142,7 +15144,7 @@
         <v>8.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA81" t="n">
         <v>13</v>
@@ -15151,13 +15153,13 @@
         <v>21</v>
       </c>
       <c r="AC81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD81" t="n">
         <v>7.5</v>
       </c>
       <c r="AE81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF81" t="n">
         <v>41</v>
@@ -15166,7 +15168,7 @@
         <v>15</v>
       </c>
       <c r="AH81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI81" t="n">
         <v>13</v>
@@ -15178,7 +15180,7 @@
         <v>29</v>
       </c>
       <c r="AL81" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM81" t="n">
         <v>4</v>
@@ -15199,7 +15201,7 @@
         <v>101</v>
       </c>
       <c r="AS81" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AT81" t="n">
         <v>7.5</v>
@@ -15211,16 +15213,16 @@
         <v>6</v>
       </c>
       <c r="AW81" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX81" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY81" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ81" t="n">
         <v>67</v>
-      </c>
-      <c r="AZ81" t="n">
-        <v>81</v>
       </c>
       <c r="BA81" t="n">
         <v>351</v>
@@ -15232,7 +15234,7 @@
         <v>151</v>
       </c>
       <c r="BD81" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82">
@@ -16537,22 +16539,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H89" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I89" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J89" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K89" t="n">
         <v>2.1</v>
       </c>
       <c r="L89" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M89" t="n">
         <v>1.06</v>
@@ -16561,16 +16563,16 @@
         <v>10</v>
       </c>
       <c r="O89" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P89" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R89" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S89" t="n">
         <v>1.44</v>
@@ -16588,25 +16590,25 @@
         <v>6.5</v>
       </c>
       <c r="X89" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y89" t="n">
         <v>8.5</v>
       </c>
       <c r="Z89" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA89" t="n">
         <v>15</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>17</v>
       </c>
       <c r="AB89" t="n">
         <v>29</v>
       </c>
       <c r="AC89" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD89" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE89" t="n">
         <v>17</v>
@@ -16615,10 +16617,10 @@
         <v>51</v>
       </c>
       <c r="AG89" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH89" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI89" t="n">
         <v>15</v>
@@ -16633,13 +16635,13 @@
         <v>41</v>
       </c>
       <c r="AM89" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AN89" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP89" t="n">
         <v>34</v>
@@ -16657,22 +16659,22 @@
         <v>8.5</v>
       </c>
       <c r="AU89" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AV89" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AW89" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AX89" t="n">
         <v>34</v>
       </c>
       <c r="AY89" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AZ89" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA89" t="n">
         <v>501</v>
@@ -16682,7 +16684,7 @@
         <v>251</v>
       </c>
       <c r="BD89" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90">
@@ -16717,40 +16719,40 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>3.1</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J90" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="K90" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L90" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M90" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N90" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O90" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P90" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R90" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S90" t="n">
         <v>1.53</v>
@@ -16765,25 +16767,25 @@
         <v>1.75</v>
       </c>
       <c r="W90" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X90" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Y90" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z90" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA90" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB90" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC90" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD90" t="n">
         <v>6</v>
@@ -16795,64 +16797,64 @@
         <v>67</v>
       </c>
       <c r="AG90" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH90" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AI90" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN90" t="n">
         <v>12</v>
       </c>
-      <c r="AJ90" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL90" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM90" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AN90" t="n">
-        <v>15</v>
-      </c>
       <c r="AO90" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP90" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ90" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR90" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AS90" t="n">
         <v>2.38</v>
       </c>
       <c r="AT90" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AU90" t="n">
         <v>67</v>
       </c>
       <c r="AV90" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AW90" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AX90" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY90" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AZ90" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA90" t="inlineStr"/>
       <c r="BB90" t="inlineStr"/>
@@ -17251,28 +17253,28 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H93" t="n">
         <v>3.5</v>
       </c>
       <c r="I93" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J93" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K93" t="n">
         <v>2.2</v>
       </c>
       <c r="L93" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M93" t="n">
         <v>1.04</v>
       </c>
       <c r="N93" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O93" t="n">
         <v>1.25</v>
@@ -17281,10 +17283,10 @@
         <v>3.75</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R93" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S93" t="n">
         <v>1.36</v>
@@ -17299,28 +17301,28 @@
         <v>2.1</v>
       </c>
       <c r="W93" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y93" t="n">
         <v>9.5</v>
       </c>
       <c r="Z93" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA93" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB93" t="n">
         <v>26</v>
       </c>
       <c r="AC93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD93" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE93" t="n">
         <v>13</v>
@@ -17341,13 +17343,13 @@
         <v>29</v>
       </c>
       <c r="AK93" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL93" t="n">
         <v>29</v>
       </c>
       <c r="AM93" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AN93" t="n">
         <v>13</v>
@@ -17377,7 +17379,7 @@
         <v>5</v>
       </c>
       <c r="AW93" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX93" t="n">
         <v>23</v>
@@ -17394,7 +17396,7 @@
         <v>151</v>
       </c>
       <c r="BD93" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
@@ -17429,19 +17431,19 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H94" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I94" t="n">
         <v>4.33</v>
       </c>
       <c r="J94" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K94" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L94" t="n">
         <v>4.33</v>
@@ -17450,37 +17452,37 @@
         <v>1.03</v>
       </c>
       <c r="N94" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O94" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P94" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R94" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V94" t="n">
         <v>2.25</v>
       </c>
-      <c r="S94" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T94" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U94" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V94" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W94" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X94" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y94" t="n">
         <v>8.5</v>
@@ -17495,7 +17497,7 @@
         <v>21</v>
       </c>
       <c r="AC94" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD94" t="n">
         <v>7.5</v>
@@ -17507,10 +17509,10 @@
         <v>41</v>
       </c>
       <c r="AG94" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH94" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI94" t="n">
         <v>15</v>
@@ -17534,7 +17536,7 @@
         <v>17</v>
       </c>
       <c r="AP94" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ94" t="n">
         <v>41</v>
@@ -17543,7 +17545,7 @@
         <v>101</v>
       </c>
       <c r="AS94" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AT94" t="n">
         <v>7.5</v>
@@ -17552,13 +17554,13 @@
         <v>41</v>
       </c>
       <c r="AV94" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AW94" t="n">
         <v>21</v>
       </c>
       <c r="AX94" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY94" t="n">
         <v>67</v>
@@ -17572,7 +17574,7 @@
         <v>151</v>
       </c>
       <c r="BD94" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95">
@@ -18693,10 +18695,10 @@
         <v>3.6</v>
       </c>
       <c r="M101" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N101" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O101" t="n">
         <v>1.36</v>
@@ -18705,10 +18707,10 @@
         <v>3</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R101" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S101" t="n">
         <v>1.5</v>
@@ -18853,13 +18855,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H102" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I102" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J102" t="n">
         <v>5.5</v>
@@ -18877,16 +18879,16 @@
         <v>13</v>
       </c>
       <c r="O102" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P102" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R102" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S102" t="n">
         <v>1.36</v>
@@ -18904,7 +18906,7 @@
         <v>15</v>
       </c>
       <c r="X102" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y102" t="n">
         <v>17</v>
@@ -18934,7 +18936,7 @@
         <v>7.5</v>
       </c>
       <c r="AH102" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI102" t="n">
         <v>8.5</v>
@@ -18946,7 +18948,7 @@
         <v>13</v>
       </c>
       <c r="AL102" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM102" t="n">
         <v>7</v>
@@ -18961,7 +18963,7 @@
         <v>101</v>
       </c>
       <c r="AQ102" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR102" t="n">
         <v>251</v>
@@ -18979,13 +18981,13 @@
         <v>3.6</v>
       </c>
       <c r="AW102" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX102" t="n">
         <v>19</v>
       </c>
       <c r="AY102" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ102" t="n">
         <v>41</v>
@@ -19759,13 +19761,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I107" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J107" t="n">
         <v>3.75</v>
@@ -19906,7 +19908,7 @@
         <v>201</v>
       </c>
       <c r="BD107" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108">
@@ -20119,10 +20121,10 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H109" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I109" t="n">
         <v>11</v>
@@ -20143,10 +20145,10 @@
         <v>8</v>
       </c>
       <c r="O109" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P109" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q109" t="n">
         <v>2.25</v>
@@ -20173,10 +20175,10 @@
         <v>5</v>
       </c>
       <c r="Y109" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z109" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA109" t="n">
         <v>15</v>
@@ -20212,7 +20214,7 @@
         <v>101</v>
       </c>
       <c r="AL109" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AM109" t="n">
         <v>3</v>
@@ -20295,22 +20297,22 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H110" t="n">
         <v>2.7</v>
       </c>
       <c r="I110" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J110" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K110" t="n">
         <v>1.91</v>
       </c>
       <c r="L110" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M110" t="n">
         <v>1.11</v>
@@ -20346,13 +20348,13 @@
         <v>6</v>
       </c>
       <c r="X110" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y110" t="n">
         <v>10</v>
       </c>
       <c r="Z110" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA110" t="n">
         <v>21</v>
@@ -20385,7 +20387,7 @@
         <v>41</v>
       </c>
       <c r="AK110" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL110" t="n">
         <v>51</v>
@@ -20400,13 +20402,13 @@
         <v>29</v>
       </c>
       <c r="AP110" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ110" t="n">
         <v>81</v>
       </c>
       <c r="AR110" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AS110" t="n">
         <v>2.25</v>
@@ -20418,10 +20420,10 @@
         <v>81</v>
       </c>
       <c r="AV110" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AW110" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX110" t="n">
         <v>34</v>
@@ -20485,28 +20487,28 @@
         <v>2.75</v>
       </c>
       <c r="K111" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L111" t="n">
         <v>4</v>
       </c>
       <c r="M111" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O111" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P111" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R111" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S111" t="n">
         <v>1.4</v>
@@ -20515,13 +20517,13 @@
         <v>2.75</v>
       </c>
       <c r="U111" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V111" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W111" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X111" t="n">
         <v>10</v>
@@ -20539,7 +20541,7 @@
         <v>26</v>
       </c>
       <c r="AC111" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD111" t="n">
         <v>6</v>
@@ -20548,7 +20550,7 @@
         <v>13</v>
       </c>
       <c r="AF111" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG111" t="n">
         <v>11</v>
@@ -20599,10 +20601,10 @@
         <v>5.5</v>
       </c>
       <c r="AW111" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX111" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY111" t="n">
         <v>67</v>
@@ -20620,7 +20622,7 @@
         <v>201</v>
       </c>
       <c r="BD111" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112">
@@ -20837,22 +20839,22 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H113" t="n">
         <v>3.1</v>
       </c>
       <c r="I113" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J113" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K113" t="n">
         <v>1.95</v>
       </c>
       <c r="L113" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M113" t="n">
         <v>1.08</v>
@@ -20867,10 +20869,10 @@
         <v>2.63</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R113" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S113" t="n">
         <v>1.53</v>
@@ -20918,19 +20920,19 @@
         <v>7</v>
       </c>
       <c r="AH113" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI113" t="n">
         <v>10</v>
       </c>
       <c r="AJ113" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK113" t="n">
         <v>23</v>
       </c>
       <c r="AL113" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM113" t="n">
         <v>4.75</v>
@@ -20945,7 +20947,7 @@
         <v>51</v>
       </c>
       <c r="AQ113" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR113" t="n">
         <v>251</v>
@@ -20960,7 +20962,7 @@
         <v>67</v>
       </c>
       <c r="AV113" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AW113" t="n">
         <v>15</v>
@@ -21019,28 +21021,28 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="H114" t="n">
         <v>8.5</v>
       </c>
       <c r="I114" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J114" t="n">
         <v>1.44</v>
       </c>
       <c r="K114" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M114" t="n">
         <v>1.01</v>
       </c>
       <c r="N114" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O114" t="n">
         <v>1.08</v>
@@ -21055,25 +21057,25 @@
         <v>3.4</v>
       </c>
       <c r="S114" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T114" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U114" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V114" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W114" t="n">
         <v>11</v>
       </c>
       <c r="X114" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z114" t="n">
         <v>7</v>
@@ -21085,10 +21087,10 @@
         <v>29</v>
       </c>
       <c r="AC114" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD114" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE114" t="n">
         <v>29</v>
@@ -21115,16 +21117,16 @@
         <v>81</v>
       </c>
       <c r="AM114" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AN114" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO114" t="n">
         <v>15</v>
       </c>
       <c r="AP114" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AQ114" t="n">
         <v>29</v>
@@ -21133,7 +21135,7 @@
         <v>101</v>
       </c>
       <c r="AS114" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AT114" t="n">
         <v>11</v>
@@ -21151,7 +21153,7 @@
         <v>51</v>
       </c>
       <c r="AY114" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AZ114" t="n">
         <v>301</v>
@@ -24103,142 +24105,142 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="H131" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I131" t="n">
-        <v>4.65</v>
+        <v>5.1</v>
       </c>
       <c r="J131" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="K131" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L131" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="M131" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N131" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O131" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P131" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R131" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S131" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T131" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="U131" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V131" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W131" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="X131" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="Y131" t="n">
         <v>8.5</v>
       </c>
       <c r="Z131" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AA131" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB131" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC131" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD131" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AE131" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF131" t="n">
         <v>75</v>
       </c>
       <c r="AG131" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH131" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AI131" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ131" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK131" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL131" t="n">
         <v>50</v>
       </c>
       <c r="AM131" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AN131" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO131" t="n">
         <v>17.5</v>
       </c>
       <c r="AP131" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ131" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR131" t="n">
         <v>250</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="AT131" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AU131" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AV131" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AW131" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AX131" t="n">
         <v>32</v>
       </c>
       <c r="AY131" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AZ131" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BA131" t="n">
         <v>51</v>
@@ -24831,40 +24833,40 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="H135" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I135" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J135" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K135" t="n">
         <v>1.91</v>
       </c>
       <c r="L135" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M135" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N135" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O135" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P135" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R135" t="n">
         <v>1.5</v>
-      </c>
-      <c r="P135" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q135" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R135" t="n">
-        <v>1.48</v>
       </c>
       <c r="S135" t="n">
         <v>1.57</v>
@@ -24882,22 +24884,22 @@
         <v>6</v>
       </c>
       <c r="X135" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y135" t="n">
         <v>10</v>
       </c>
-      <c r="Y135" t="n">
-        <v>11</v>
-      </c>
       <c r="Z135" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA135" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB135" t="n">
         <v>41</v>
       </c>
       <c r="AC135" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD135" t="n">
         <v>6</v>
@@ -24909,7 +24911,7 @@
         <v>67</v>
       </c>
       <c r="AG135" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH135" t="n">
         <v>15</v>
@@ -24918,7 +24920,7 @@
         <v>13</v>
       </c>
       <c r="AJ135" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK135" t="n">
         <v>34</v>
@@ -24927,10 +24929,10 @@
         <v>41</v>
       </c>
       <c r="AM135" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AN135" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO135" t="n">
         <v>29</v>
@@ -24942,7 +24944,7 @@
         <v>81</v>
       </c>
       <c r="AR135" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AS135" t="n">
         <v>2.25</v>
@@ -24951,13 +24953,13 @@
         <v>9</v>
       </c>
       <c r="AU135" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AV135" t="n">
         <v>5</v>
       </c>
       <c r="AW135" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX135" t="n">
         <v>34</v>
@@ -24966,7 +24968,7 @@
         <v>67</v>
       </c>
       <c r="AZ135" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA135" t="n">
         <v>81</v>
@@ -24978,7 +24980,7 @@
         <v>351</v>
       </c>
       <c r="BD135" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="136">
@@ -25013,13 +25015,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H136" t="n">
         <v>3</v>
       </c>
       <c r="I136" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J136" t="n">
         <v>4</v>
@@ -25028,7 +25030,7 @@
         <v>1.91</v>
       </c>
       <c r="L136" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M136" t="n">
         <v>1.1</v>
@@ -25064,16 +25066,16 @@
         <v>7.5</v>
       </c>
       <c r="X136" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y136" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z136" t="n">
         <v>34</v>
       </c>
       <c r="AA136" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB136" t="n">
         <v>41</v>
@@ -25097,7 +25099,7 @@
         <v>10</v>
       </c>
       <c r="AI136" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ136" t="n">
         <v>23</v>
@@ -25112,7 +25114,7 @@
         <v>5</v>
       </c>
       <c r="AN136" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO136" t="n">
         <v>34</v>
@@ -25133,7 +25135,7 @@
         <v>9</v>
       </c>
       <c r="AU136" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AV136" t="n">
         <v>4.33</v>
@@ -25195,13 +25197,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H137" t="n">
         <v>3.3</v>
       </c>
       <c r="I137" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J137" t="n">
         <v>2.75</v>
@@ -25210,25 +25212,25 @@
         <v>2.05</v>
       </c>
       <c r="L137" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M137" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N137" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O137" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P137" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R137" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S137" t="n">
         <v>1.5</v>
@@ -25246,7 +25248,7 @@
         <v>6.5</v>
       </c>
       <c r="X137" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y137" t="n">
         <v>9</v>
@@ -25255,7 +25257,7 @@
         <v>17</v>
       </c>
       <c r="AA137" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB137" t="n">
         <v>34</v>
@@ -25270,13 +25272,13 @@
         <v>17</v>
       </c>
       <c r="AF137" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG137" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH137" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI137" t="n">
         <v>13</v>
@@ -25291,10 +25293,10 @@
         <v>41</v>
       </c>
       <c r="AM137" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AN137" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO137" t="n">
         <v>23</v>
@@ -25321,7 +25323,7 @@
         <v>5.5</v>
       </c>
       <c r="AW137" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX137" t="n">
         <v>34</v>
@@ -25377,22 +25379,22 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H138" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I138" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="J138" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K138" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L138" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M138" t="n">
         <v>1.03</v>
@@ -25407,10 +25409,10 @@
         <v>4.5</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R138" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S138" t="n">
         <v>1.3</v>
@@ -25419,34 +25421,34 @@
         <v>3.4</v>
       </c>
       <c r="U138" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V138" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W138" t="n">
         <v>13</v>
       </c>
       <c r="X138" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y138" t="n">
         <v>12</v>
       </c>
       <c r="Z138" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA138" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB138" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC138" t="n">
         <v>15</v>
       </c>
       <c r="AD138" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE138" t="n">
         <v>12</v>
@@ -25458,13 +25460,13 @@
         <v>10</v>
       </c>
       <c r="AH138" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI138" t="n">
         <v>9</v>
       </c>
       <c r="AJ138" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK138" t="n">
         <v>15</v>
@@ -25476,10 +25478,10 @@
         <v>5.5</v>
       </c>
       <c r="AN138" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO138" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP138" t="n">
         <v>51</v>
@@ -25494,25 +25496,25 @@
         <v>3.4</v>
       </c>
       <c r="AT138" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AU138" t="n">
         <v>41</v>
       </c>
       <c r="AV138" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AW138" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX138" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY138" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ138" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA138" t="n">
         <v>81</v>
@@ -25559,7 +25561,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H139" t="n">
         <v>3.5</v>
@@ -25589,10 +25591,10 @@
         <v>3.25</v>
       </c>
       <c r="Q139" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R139" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S139" t="n">
         <v>1.44</v>
@@ -25601,13 +25603,13 @@
         <v>2.63</v>
       </c>
       <c r="U139" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V139" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W139" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X139" t="n">
         <v>21</v>
@@ -25625,7 +25627,7 @@
         <v>41</v>
       </c>
       <c r="AC139" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD139" t="n">
         <v>7</v>
@@ -25637,7 +25639,7 @@
         <v>51</v>
       </c>
       <c r="AG139" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH139" t="n">
         <v>8.5</v>
@@ -25649,7 +25651,7 @@
         <v>15</v>
       </c>
       <c r="AK139" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL139" t="n">
         <v>29</v>
@@ -25688,7 +25690,7 @@
         <v>10</v>
       </c>
       <c r="AX139" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY139" t="n">
         <v>34</v>
@@ -25706,7 +25708,7 @@
         <v>151</v>
       </c>
       <c r="BD139" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="140">
@@ -25741,13 +25743,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H140" t="n">
         <v>3.9</v>
       </c>
       <c r="I140" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J140" t="n">
         <v>2.2</v>
@@ -25756,7 +25758,7 @@
         <v>2.3</v>
       </c>
       <c r="L140" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M140" t="n">
         <v>1.04</v>
@@ -25822,7 +25824,7 @@
         <v>15</v>
       </c>
       <c r="AH140" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI140" t="n">
         <v>17</v>
@@ -25846,7 +25848,7 @@
         <v>19</v>
       </c>
       <c r="AP140" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ140" t="n">
         <v>41</v>
@@ -25923,10 +25925,10 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="H141" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I141" t="n">
         <v>2.45</v>
@@ -25938,25 +25940,25 @@
         <v>2.22</v>
       </c>
       <c r="L141" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M141" t="n">
         <v>1.04</v>
       </c>
       <c r="N141" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O141" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P141" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="Q141" t="n">
         <v>1.6</v>
       </c>
       <c r="R141" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S141" t="n">
         <v>1.32</v>
@@ -25971,10 +25973,10 @@
         <v>2.42</v>
       </c>
       <c r="W141" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X141" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y141" t="n">
         <v>9.75</v>
@@ -25986,79 +25988,79 @@
         <v>19</v>
       </c>
       <c r="AB141" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC141" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD141" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE141" t="n">
         <v>11</v>
       </c>
       <c r="AF141" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG141" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH141" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI141" t="n">
         <v>9.25</v>
       </c>
       <c r="AJ141" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK141" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL141" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM141" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AN141" t="n">
         <v>13.5</v>
       </c>
       <c r="AO141" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AP141" t="n">
         <v>55</v>
       </c>
       <c r="AQ141" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR141" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS141" t="n">
         <v>3.1</v>
       </c>
       <c r="AT141" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AU141" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AV141" t="n">
         <v>4.7</v>
       </c>
       <c r="AW141" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AX141" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AY141" t="n">
         <v>50</v>
       </c>
       <c r="AZ141" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BA141" t="n">
         <v>500</v>
@@ -26103,28 +26105,28 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="H142" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I142" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J142" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="K142" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L142" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="M142" t="n">
         <v>1.06</v>
       </c>
       <c r="N142" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="O142" t="n">
         <v>1.28</v>
@@ -26133,52 +26135,52 @@
         <v>3.35</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R142" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S142" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T142" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="U142" t="n">
         <v>1.7</v>
       </c>
       <c r="V142" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W142" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X142" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y142" t="n">
         <v>8.25</v>
       </c>
       <c r="Z142" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA142" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB142" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC142" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD142" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AE142" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF142" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG142" t="n">
         <v>11</v>
@@ -26187,55 +26189,55 @@
         <v>20</v>
       </c>
       <c r="AI142" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ142" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK142" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL142" t="n">
         <v>35</v>
       </c>
-      <c r="AL142" t="n">
-        <v>37</v>
-      </c>
       <c r="AM142" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AN142" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AO142" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP142" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AQ142" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AR142" t="n">
         <v>250</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="AT142" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AU142" t="n">
         <v>65</v>
       </c>
       <c r="AV142" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AW142" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX142" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY142" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AZ142" t="n">
         <v>150</v>
@@ -26243,10 +26245,10 @@
       <c r="BA142" t="inlineStr"/>
       <c r="BB142" t="inlineStr"/>
       <c r="BC142" t="n">
+        <v>350</v>
+      </c>
+      <c r="BD142" t="n">
         <v>400</v>
-      </c>
-      <c r="BD142" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="143">

--- a/Jogos_da_Semana_FlashScore_2024-12-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-14.xlsx
@@ -2019,64 +2019,64 @@
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.4</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I9" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="W9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
         <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
         <v>26</v>
@@ -2085,19 +2085,19 @@
         <v>29</v>
       </c>
       <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>13</v>
       </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>12</v>
-      </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH9" t="n">
         <v>11</v>
@@ -2106,22 +2106,22 @@
         <v>9</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AN9" t="n">
         <v>17</v>
       </c>
       <c r="AO9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP9" t="n">
         <v>51</v>
@@ -2133,37 +2133,37 @@
         <v>151</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AT9" t="n">
         <v>7.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AV9" t="n">
         <v>4.33</v>
       </c>
       <c r="AW9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
         <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -3475,22 +3475,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H17" t="n">
         <v>4.75</v>
       </c>
       <c r="I17" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K17" t="n">
         <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -3499,16 +3499,16 @@
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R17" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3517,10 +3517,10 @@
         <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W17" t="n">
         <v>6</v>
@@ -3529,10 +3529,10 @@
         <v>6</v>
       </c>
       <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>9</v>
       </c>
       <c r="AA17" t="n">
         <v>13</v>
@@ -3541,19 +3541,19 @@
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF17" t="n">
         <v>81</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>41</v>
@@ -3562,25 +3562,25 @@
         <v>23</v>
       </c>
       <c r="AJ17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM17" t="n">
         <v>3.2</v>
       </c>
       <c r="AN17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO17" t="n">
         <v>21</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ17" t="n">
         <v>51</v>
@@ -3598,7 +3598,7 @@
         <v>67</v>
       </c>
       <c r="AV17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AW17" t="n">
         <v>41</v>
@@ -3610,13 +3610,13 @@
         <v>201</v>
       </c>
       <c r="AZ17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC17" t="n">
         <v>451</v>
@@ -3839,13 +3839,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H19" t="n">
         <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J19" t="n">
         <v>2.25</v>
@@ -3869,28 +3869,28 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W19" t="n">
         <v>7.5</v>
       </c>
       <c r="X19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
@@ -3905,7 +3905,7 @@
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
         <v>7.5</v>
@@ -3917,7 +3917,7 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3929,13 +3929,13 @@
         <v>51</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="n">
         <v>41</v>
       </c>
       <c r="AM19" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AN19" t="n">
         <v>8.5</v>
@@ -3953,7 +3953,7 @@
         <v>126</v>
       </c>
       <c r="AS19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AT19" t="n">
         <v>8</v>
@@ -3986,7 +3986,7 @@
         <v>201</v>
       </c>
       <c r="BD19" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20">
@@ -4021,22 +4021,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="H20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J20" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="K20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
@@ -4063,28 +4063,28 @@
         <v>4.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="V20" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="W20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC20" t="n">
         <v>23</v>
@@ -4093,70 +4093,70 @@
         <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG20" t="n">
         <v>41</v>
       </c>
       <c r="AH20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="n">
         <v>41</v>
       </c>
       <c r="AJ20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AK20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL20" t="n">
         <v>81</v>
       </c>
-      <c r="AL20" t="n">
-        <v>67</v>
-      </c>
       <c r="AM20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AQ20" t="n">
         <v>29</v>
       </c>
       <c r="AR20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS20" t="n">
         <v>4.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU20" t="n">
         <v>51</v>
       </c>
       <c r="AV20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW20" t="n">
         <v>51</v>
       </c>
       <c r="AX20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>251</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>201</v>
       </c>
       <c r="BA20" t="n">
         <v>501</v>
@@ -4165,10 +4165,10 @@
         <v>151</v>
       </c>
       <c r="BC20" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD20" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21">
@@ -4749,28 +4749,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="J24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L24" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O24" t="n">
         <v>1.25</v>
@@ -4779,10 +4779,10 @@
         <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
         <v>1.36</v>
@@ -4791,22 +4791,22 @@
         <v>3</v>
       </c>
       <c r="U24" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA24" t="n">
         <v>41</v>
@@ -4815,7 +4815,7 @@
         <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD24" t="n">
         <v>7.5</v>
@@ -4827,7 +4827,7 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH24" t="n">
         <v>7.5</v>
@@ -4836,16 +4836,16 @@
         <v>8.5</v>
       </c>
       <c r="AJ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK24" t="n">
         <v>12</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>26</v>
       </c>
       <c r="AM24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AN24" t="n">
         <v>29</v>
@@ -4872,19 +4872,19 @@
         <v>51</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AW24" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX24" t="n">
         <v>19</v>
       </c>
       <c r="AY24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA24" t="n">
         <v>151</v>
@@ -4931,88 +4931,88 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="K25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2</v>
       </c>
-      <c r="L25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="R25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S25" t="n">
         <v>1.4</v>
       </c>
-      <c r="P25" t="n">
+      <c r="T25" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q25" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V25" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="W25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
@@ -5027,58 +5027,58 @@
         <v>41</v>
       </c>
       <c r="AM25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AP25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AT25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AV25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AW25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY25" t="n">
         <v>81</v>
       </c>
       <c r="AZ25" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB25" t="n">
         <v>151</v>
       </c>
       <c r="BC25" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD25" t="n">
         <v>301</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>451</v>
       </c>
     </row>
     <row r="26">
@@ -5113,61 +5113,61 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
         <v>3.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T26" t="n">
         <v>2.5</v>
       </c>
-      <c r="R26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X26" t="n">
         <v>9.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z26" t="n">
         <v>21</v>
@@ -5176,25 +5176,25 @@
         <v>21</v>
       </c>
       <c r="AB26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
         <v>13</v>
@@ -5215,28 +5215,28 @@
         <v>13</v>
       </c>
       <c r="AO26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR26" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AU26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AW26" t="n">
         <v>21</v>
@@ -5245,10 +5245,10 @@
         <v>34</v>
       </c>
       <c r="AY26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AZ26" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA26" t="n">
         <v>126</v>
@@ -5257,9 +5257,11 @@
         <v>151</v>
       </c>
       <c r="BC26" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD26" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>401</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5475,13 +5477,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H28" t="n">
         <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J28" t="n">
         <v>3.75</v>
@@ -5490,7 +5492,7 @@
         <v>2.2</v>
       </c>
       <c r="L28" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
@@ -5505,10 +5507,10 @@
         <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R28" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S28" t="n">
         <v>1.4</v>
@@ -5562,7 +5564,7 @@
         <v>9</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>17</v>
@@ -5571,10 +5573,10 @@
         <v>26</v>
       </c>
       <c r="AM28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AN28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO28" t="n">
         <v>26</v>
@@ -7287,16 +7289,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="H38" t="n">
         <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J38" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K38" t="n">
         <v>2.1</v>
@@ -7317,10 +7319,10 @@
         <v>3.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R38" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S38" t="n">
         <v>1.44</v>
@@ -7377,7 +7379,7 @@
         <v>41</v>
       </c>
       <c r="AK38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL38" t="n">
         <v>41</v>
@@ -7395,7 +7397,7 @@
         <v>41</v>
       </c>
       <c r="AQ38" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR38" t="n">
         <v>151</v>
@@ -7419,7 +7421,7 @@
         <v>29</v>
       </c>
       <c r="AY38" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AZ38" t="n">
         <v>101</v>
@@ -7681,10 +7683,10 @@
         <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R40" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S40" t="n">
         <v>1.3</v>
@@ -8011,13 +8013,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H42" t="n">
         <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
         <v>2.88</v>
@@ -8026,7 +8028,7 @@
         <v>2.25</v>
       </c>
       <c r="L42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M42" t="n">
         <v>1.04</v>
@@ -8065,7 +8067,7 @@
         <v>12</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z42" t="n">
         <v>21</v>
@@ -8083,28 +8085,28 @@
         <v>7</v>
       </c>
       <c r="AE42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF42" t="n">
         <v>41</v>
       </c>
       <c r="AG42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI42" t="n">
         <v>11</v>
       </c>
       <c r="AJ42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL42" t="n">
         <v>29</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>26</v>
       </c>
       <c r="AM42" t="n">
         <v>4.5</v>
@@ -8131,13 +8133,13 @@
         <v>7.5</v>
       </c>
       <c r="AU42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AV42" t="n">
         <v>5</v>
       </c>
       <c r="AW42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX42" t="n">
         <v>23</v>
@@ -8189,106 +8191,106 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H43" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I43" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L43" t="n">
         <v>3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.4</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
+        <v>17</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W43" t="n">
+        <v>13</v>
+      </c>
+      <c r="X43" t="n">
         <v>15</v>
       </c>
-      <c r="O43" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V43" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W43" t="n">
+      <c r="Y43" t="n">
         <v>10</v>
       </c>
-      <c r="X43" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z43" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB43" t="n">
         <v>21</v>
       </c>
       <c r="AC43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG43" t="n">
         <v>12</v>
       </c>
       <c r="AH43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK43" t="n">
         <v>17</v>
       </c>
-      <c r="AI43" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK43" t="n">
+      <c r="AL43" t="n">
         <v>21</v>
       </c>
-      <c r="AL43" t="n">
-        <v>26</v>
-      </c>
       <c r="AM43" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AN43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO43" t="n">
         <v>19</v>
@@ -8303,38 +8305,38 @@
         <v>101</v>
       </c>
       <c r="AS43" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AU43" t="n">
         <v>41</v>
       </c>
       <c r="AV43" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AW43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ43" t="n">
         <v>51</v>
       </c>
       <c r="BA43" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="BB43" t="inlineStr"/>
       <c r="BC43" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD43" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
@@ -8399,10 +8401,10 @@
         <v>3.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R44" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S44" t="n">
         <v>1.4</v>
@@ -9995,22 +9997,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H53" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I53" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J53" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K53" t="n">
         <v>2.2</v>
       </c>
       <c r="L53" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
@@ -10037,22 +10039,22 @@
         <v>2.75</v>
       </c>
       <c r="U53" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W53" t="n">
         <v>7.5</v>
       </c>
       <c r="X53" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA53" t="n">
         <v>15</v>
@@ -10076,7 +10078,7 @@
         <v>11</v>
       </c>
       <c r="AH53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI53" t="n">
         <v>13</v>
@@ -10085,16 +10087,16 @@
         <v>41</v>
       </c>
       <c r="AK53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM53" t="n">
         <v>4</v>
       </c>
       <c r="AN53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO53" t="n">
         <v>21</v>
@@ -10118,7 +10120,7 @@
         <v>51</v>
       </c>
       <c r="AV53" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AW53" t="n">
         <v>21</v>
@@ -10130,7 +10132,7 @@
         <v>67</v>
       </c>
       <c r="AZ53" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA53" t="inlineStr"/>
       <c r="BB53" t="inlineStr"/>
@@ -10138,7 +10140,7 @@
         <v>201</v>
       </c>
       <c r="BD53" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54">
@@ -14389,10 +14391,10 @@
         <v>3.25</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R77" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S77" t="n">
         <v>1.44</v>
@@ -15087,16 +15089,16 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>3.75</v>
       </c>
       <c r="I81" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J81" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K81" t="n">
         <v>2.38</v>
@@ -15117,10 +15119,10 @@
         <v>4.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R81" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S81" t="n">
         <v>1.3</v>
@@ -15129,16 +15131,16 @@
         <v>3.4</v>
       </c>
       <c r="U81" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V81" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W81" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y81" t="n">
         <v>8.5</v>
@@ -15177,16 +15179,16 @@
         <v>41</v>
       </c>
       <c r="AK81" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL81" t="n">
         <v>29</v>
       </c>
       <c r="AM81" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AN81" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO81" t="n">
         <v>17</v>
@@ -15231,7 +15233,7 @@
         <v>81</v>
       </c>
       <c r="BC81" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD81" t="n">
         <v>126</v>
@@ -21021,22 +21023,22 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="H114" t="n">
         <v>8.5</v>
       </c>
       <c r="I114" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J114" t="n">
         <v>1.44</v>
       </c>
       <c r="K114" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L114" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M114" t="n">
         <v>1.01</v>
@@ -21051,10 +21053,10 @@
         <v>8</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R114" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S114" t="n">
         <v>1.18</v>
@@ -21063,22 +21065,22 @@
         <v>4.5</v>
       </c>
       <c r="U114" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V114" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W114" t="n">
+        <v>12</v>
+      </c>
+      <c r="X114" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y114" t="n">
         <v>11</v>
       </c>
-      <c r="X114" t="n">
+      <c r="Z114" t="n">
         <v>7.5</v>
-      </c>
-      <c r="Y114" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z114" t="n">
-        <v>7</v>
       </c>
       <c r="AA114" t="n">
         <v>11</v>
@@ -21096,7 +21098,7 @@
         <v>29</v>
       </c>
       <c r="AF114" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG114" t="n">
         <v>41</v>
@@ -21108,25 +21110,25 @@
         <v>41</v>
       </c>
       <c r="AJ114" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AK114" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL114" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM114" t="n">
         <v>3.4</v>
       </c>
       <c r="AN114" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO114" t="n">
         <v>15</v>
       </c>
       <c r="AP114" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AQ114" t="n">
         <v>29</v>
@@ -21141,7 +21143,7 @@
         <v>11</v>
       </c>
       <c r="AU114" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AV114" t="n">
         <v>15</v>
@@ -21150,13 +21152,13 @@
         <v>51</v>
       </c>
       <c r="AX114" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY114" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AZ114" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BA114" t="n">
         <v>126</v>
@@ -21165,10 +21167,10 @@
         <v>151</v>
       </c>
       <c r="BC114" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD114" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115">
@@ -25197,22 +25199,22 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H137" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I137" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J137" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K137" t="n">
         <v>2.05</v>
       </c>
       <c r="L137" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M137" t="n">
         <v>1.07</v>
@@ -25221,16 +25223,16 @@
         <v>9</v>
       </c>
       <c r="O137" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P137" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R137" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S137" t="n">
         <v>1.5</v>
@@ -25281,7 +25283,7 @@
         <v>19</v>
       </c>
       <c r="AI137" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ137" t="n">
         <v>41</v>
@@ -25320,7 +25322,7 @@
         <v>67</v>
       </c>
       <c r="AV137" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AW137" t="n">
         <v>23</v>
@@ -25332,7 +25334,7 @@
         <v>81</v>
       </c>
       <c r="AZ137" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA137" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-14.xlsx
@@ -5295,52 +5295,52 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
         <v>3.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R27" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.62</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.57</v>
       </c>
       <c r="W27" t="n">
         <v>5.5</v>
@@ -5355,7 +5355,7 @@
         <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB27" t="n">
         <v>41</v>
@@ -5364,19 +5364,19 @@
         <v>6.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="n">
         <v>81</v>
       </c>
       <c r="AG27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>13</v>
@@ -5385,7 +5385,7 @@
         <v>41</v>
       </c>
       <c r="AK27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL27" t="n">
         <v>51</v>
@@ -5400,7 +5400,7 @@
         <v>29</v>
       </c>
       <c r="AP27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ27" t="n">
         <v>81</v>
@@ -5409,7 +5409,7 @@
         <v>301</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT27" t="n">
         <v>9.5</v>
@@ -5436,7 +5436,7 @@
         <v>126</v>
       </c>
       <c r="BB27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC27" t="n">
         <v>401</v>
@@ -5477,64 +5477,64 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="n">
         <v>2.25</v>
       </c>
-      <c r="J28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L28" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R28" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T28" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U28" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V28" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA28" t="n">
         <v>26</v>
@@ -5543,7 +5543,7 @@
         <v>34</v>
       </c>
       <c r="AC28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD28" t="n">
         <v>6.5</v>
@@ -5558,25 +5558,25 @@
         <v>8.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AN28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO28" t="n">
         <v>26</v>
@@ -5591,7 +5591,7 @@
         <v>151</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
         <v>7.5</v>
@@ -5600,31 +5600,31 @@
         <v>51</v>
       </c>
       <c r="AV28" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ28" t="n">
         <v>51</v>
       </c>
       <c r="BA28" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BB28" t="n">
         <v>151</v>
       </c>
       <c r="BC28" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD28" t="n">
         <v>151</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>201</v>
       </c>
     </row>
     <row r="29">
@@ -8374,55 +8374,55 @@
         <v>1.91</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I44" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J44" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K44" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L44" t="n">
         <v>4.33</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O44" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P44" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R44" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S44" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T44" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U44" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V44" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W44" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X44" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y44" t="n">
         <v>8.5</v>
@@ -8434,10 +8434,10 @@
         <v>15</v>
       </c>
       <c r="AB44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD44" t="n">
         <v>7</v>
@@ -8446,13 +8446,13 @@
         <v>15</v>
       </c>
       <c r="AF44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI44" t="n">
         <v>13</v>
@@ -8464,7 +8464,7 @@
         <v>29</v>
       </c>
       <c r="AL44" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM44" t="n">
         <v>4</v>
@@ -8473,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="AO44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP44" t="n">
         <v>34</v>
@@ -8482,13 +8482,13 @@
         <v>51</v>
       </c>
       <c r="AR44" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AT44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AU44" t="n">
         <v>51</v>
@@ -8500,21 +8500,21 @@
         <v>21</v>
       </c>
       <c r="AX44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY44" t="n">
         <v>67</v>
       </c>
       <c r="AZ44" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA44" t="inlineStr"/>
       <c r="BB44" t="inlineStr"/>
       <c r="BC44" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD44" t="n">
         <v>201</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>251</v>
       </c>
     </row>
     <row r="45">

--- a/Jogos_da_Semana_FlashScore_2024-12-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-14.xlsx
@@ -5477,13 +5477,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H28" t="n">
         <v>3.5</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
@@ -5492,13 +5492,13 @@
         <v>2.25</v>
       </c>
       <c r="L28" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O28" t="n">
         <v>1.22</v>
@@ -5507,16 +5507,16 @@
         <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U28" t="n">
         <v>1.67</v>
@@ -5525,10 +5525,10 @@
         <v>2.1</v>
       </c>
       <c r="W28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y28" t="n">
         <v>13</v>
@@ -5537,16 +5537,16 @@
         <v>41</v>
       </c>
       <c r="AA28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB28" t="n">
         <v>34</v>
       </c>
       <c r="AC28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>13</v>
@@ -5564,7 +5564,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>15</v>
@@ -5582,7 +5582,7 @@
         <v>26</v>
       </c>
       <c r="AP28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ28" t="n">
         <v>81</v>
@@ -5591,7 +5591,7 @@
         <v>151</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AT28" t="n">
         <v>7.5</v>
@@ -5603,7 +5603,7 @@
         <v>4</v>
       </c>
       <c r="AW28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX28" t="n">
         <v>19</v>
